--- a/working_files/fields/compare_DAT/18E-DAT_comparison.xlsx
+++ b/working_files/fields/compare_DAT/18E-DAT_comparison.xlsx
@@ -6411,13 +6411,13 @@
         <v>4.28471452903283</v>
       </c>
       <c r="F5">
-        <v>0.169994408093942</v>
+        <v>0.169994408093941</v>
       </c>
       <c r="G5">
-        <v>0.169994972263632</v>
+        <v>0.169994972263631</v>
       </c>
       <c r="H5">
-        <v>0.0163858361960249</v>
+        <v>0.016385836196025</v>
       </c>
       <c r="I5">
         <v>0.169203412988834</v>
@@ -6533,7 +6533,7 @@
         <v>0.193687585939193</v>
       </c>
       <c r="H9">
-        <v>0.0191720525203128</v>
+        <v>0.0191720525203129</v>
       </c>
       <c r="I9">
         <v>0.19273638304459</v>
@@ -6591,7 +6591,7 @@
         <v>0.207010043236209</v>
       </c>
       <c r="H11">
-        <v>0.0207423611633535</v>
+        <v>0.0207423611633534</v>
       </c>
       <c r="I11">
         <v>0.205968231662133</v>
@@ -6794,7 +6794,7 @@
         <v>0.26281913912786</v>
       </c>
       <c r="H18">
-        <v>0.0272501711164312</v>
+        <v>0.0272501711164311</v>
       </c>
       <c r="I18">
         <v>0.26140261679263</v>
@@ -6881,7 +6881,7 @@
         <v>0.291765687957624</v>
       </c>
       <c r="H21">
-        <v>0.030518386281265</v>
+        <v>0.0305183862812651</v>
       </c>
       <c r="I21">
         <v>0.290165202545332</v>
@@ -6904,10 +6904,10 @@
         <v>4.80694293764968</v>
       </c>
       <c r="F22">
-        <v>0.302160871175638</v>
+        <v>0.302160871175639</v>
       </c>
       <c r="G22">
-        <v>0.302162333763583</v>
+        <v>0.302162333763584</v>
       </c>
       <c r="H22">
         <v>0.0316644093951807</v>
@@ -6936,7 +6936,7 @@
         <v>0.312946632048865</v>
       </c>
       <c r="G23">
-        <v>0.312948229228601</v>
+        <v>0.3129482292286</v>
       </c>
       <c r="H23">
         <v>0.032834841769061</v>
@@ -7026,7 +7026,7 @@
         <v>0.347713967012323</v>
       </c>
       <c r="H26">
-        <v>0.0364554980962251</v>
+        <v>0.036455498096225</v>
       </c>
       <c r="I26">
         <v>0.345797627976253</v>
@@ -7055,10 +7055,10 @@
         <v>0.360122226729987</v>
       </c>
       <c r="H27">
-        <v>0.0376821178105223</v>
+        <v>0.0376821178105224</v>
       </c>
       <c r="I27">
-        <v>0.358145328298832</v>
+        <v>0.358145328298831</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -7084,7 +7084,7 @@
         <v>0.372944119350875</v>
       </c>
       <c r="H28">
-        <v>0.0389076477199445</v>
+        <v>0.0389076477199446</v>
       </c>
       <c r="I28">
         <v>0.370909033466833</v>
@@ -7107,13 +7107,13 @@
         <v>4.41946406354925</v>
       </c>
       <c r="F29">
-        <v>0.38617529148638</v>
+        <v>0.386175291486379</v>
       </c>
       <c r="G29">
         <v>0.386178309684441</v>
       </c>
       <c r="H29">
-        <v>0.040123674319124</v>
+        <v>0.0401236743191241</v>
       </c>
       <c r="I29">
         <v>0.384088241983355</v>
@@ -7142,7 +7142,7 @@
         <v>0.399820441675977</v>
       </c>
       <c r="H30">
-        <v>0.0413203533672721</v>
+        <v>0.0413203533672722</v>
       </c>
       <c r="I30">
         <v>0.397679536787571</v>
@@ -7174,7 +7174,7 @@
         <v>0.0424862537937638</v>
       </c>
       <c r="I31">
-        <v>0.411676081012196</v>
+        <v>0.411676081012197</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -7194,7 +7194,7 @@
         <v>4.01688684403053</v>
       </c>
       <c r="F32">
-        <v>0.428288445953963</v>
+        <v>0.428288445953962</v>
       </c>
       <c r="G32">
         <v>0.428292903240713</v>
@@ -7229,7 +7229,7 @@
         <v>0.443094573404124</v>
       </c>
       <c r="H33">
-        <v>0.0446710958012252</v>
+        <v>0.0446710958012251</v>
       </c>
       <c r="I33">
         <v>0.440837038121912</v>
@@ -7258,7 +7258,7 @@
         <v>0.458245570493338</v>
       </c>
       <c r="H34">
-        <v>0.0456577960915</v>
+        <v>0.0456577960914999</v>
       </c>
       <c r="I34">
         <v>0.455965315054591</v>
@@ -7316,7 +7316,7 @@
         <v>0.489475877511231</v>
       </c>
       <c r="H36">
-        <v>0.0473227928913819</v>
+        <v>0.047322792891382</v>
       </c>
       <c r="I36">
         <v>0.487182910146024</v>
@@ -7374,7 +7374,7 @@
         <v>0.521670391179487</v>
       </c>
       <c r="H38">
-        <v>0.0484196275958667</v>
+        <v>0.0484196275958666</v>
       </c>
       <c r="I38">
         <v>0.519418460104025</v>
@@ -7400,13 +7400,13 @@
         <v>0.537981313931571</v>
       </c>
       <c r="G39">
-        <v>0.537994327182716</v>
+        <v>0.537994327182715</v>
       </c>
       <c r="H39">
-        <v>0.048686851267994</v>
+        <v>0.0486868512679941</v>
       </c>
       <c r="I39">
-        <v>0.53578679210521</v>
+        <v>0.535786792105209</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -7432,7 +7432,7 @@
         <v>0.554377690726469</v>
       </c>
       <c r="H40">
-        <v>0.0487254106497158</v>
+        <v>0.0487254106497157</v>
       </c>
       <c r="I40">
         <v>0.552232250355074</v>
@@ -7461,10 +7461,10 @@
         <v>0.570737800875612</v>
       </c>
       <c r="H41">
-        <v>0.0485016379782314</v>
+        <v>0.0485016379782316</v>
       </c>
       <c r="I41">
-        <v>0.56867321764064</v>
+        <v>0.568673217640639</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -7545,10 +7545,10 @@
         <v>0.618634325041497</v>
       </c>
       <c r="G44">
-        <v>0.61866494821398</v>
+        <v>0.618664948213979</v>
       </c>
       <c r="H44">
-        <v>0.0458963811392031</v>
+        <v>0.045896381139203</v>
       </c>
       <c r="I44">
         <v>0.616960161069522</v>
@@ -7577,7 +7577,7 @@
         <v>0.633851315903542</v>
       </c>
       <c r="H45">
-        <v>0.0442611395103141</v>
+        <v>0.0442611395103142</v>
       </c>
       <c r="I45">
         <v>0.632304074162028</v>
@@ -7600,13 +7600,13 @@
         <v>4.26764125121974</v>
       </c>
       <c r="F46">
-        <v>0.648361933542456</v>
+        <v>0.648361933542455</v>
       </c>
       <c r="G46">
-        <v>0.648405372880074</v>
+        <v>0.648405372880073</v>
       </c>
       <c r="H46">
-        <v>0.042185085853469</v>
+        <v>0.0421850858534691</v>
       </c>
       <c r="I46">
         <v>0.64703164227979</v>
@@ -7629,7 +7629,7 @@
         <v>5.10092762639714</v>
       </c>
       <c r="F47">
-        <v>0.662111403247463</v>
+        <v>0.662111403247464</v>
       </c>
       <c r="G47">
         <v>0.66216312169578</v>
@@ -7722,7 +7722,7 @@
         <v>0.696815207492966</v>
       </c>
       <c r="H50">
-        <v>0.0291586429355904</v>
+        <v>0.0291586429355905</v>
       </c>
       <c r="I50">
         <v>0.696204859890837</v>
@@ -7751,10 +7751,10 @@
         <v>0.705484478050595</v>
       </c>
       <c r="H51">
-        <v>0.0248973426007395</v>
+        <v>0.0248973426007396</v>
       </c>
       <c r="I51">
-        <v>0.70504501352874</v>
+        <v>0.705045013528741</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7809,7 +7809,7 @@
         <v>0.717193339988495</v>
       </c>
       <c r="H53">
-        <v>0.0170413472937447</v>
+        <v>0.0170413472937446</v>
       </c>
       <c r="I53">
         <v>0.716990850294665</v>
@@ -7835,10 +7835,10 @@
         <v>0.719615578776777</v>
       </c>
       <c r="G54">
-        <v>0.719781507815916</v>
+        <v>0.719781507815915</v>
       </c>
       <c r="H54">
-        <v>0.015588698625384</v>
+        <v>0.0155886986253841</v>
       </c>
       <c r="I54">
         <v>0.719612681564826</v>
@@ -7867,7 +7867,7 @@
         <v>0.719893665020239</v>
       </c>
       <c r="H55">
-        <v>0.0176959321687789</v>
+        <v>0.017695932168779</v>
       </c>
       <c r="I55">
         <v>0.719676137523643</v>
@@ -7954,7 +7954,7 @@
         <v>0.703292897992687</v>
       </c>
       <c r="H58">
-        <v>0.0392643169517451</v>
+        <v>0.039264316951745</v>
       </c>
       <c r="I58">
         <v>0.70219599385162</v>
@@ -7983,7 +7983,7 @@
         <v>0.691507606425829</v>
       </c>
       <c r="H59">
-        <v>0.0488532413056729</v>
+        <v>0.048853241305673</v>
       </c>
       <c r="I59">
         <v>0.689779769606727</v>
@@ -8038,13 +8038,13 @@
         <v>0.657331903567875</v>
       </c>
       <c r="G61">
-        <v>0.657749764778249</v>
+        <v>0.65774976477825</v>
       </c>
       <c r="H61">
-        <v>0.0696549453633558</v>
+        <v>0.0696549453633557</v>
       </c>
       <c r="I61">
-        <v>0.654051176630904</v>
+        <v>0.654051176630905</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -8064,16 +8064,16 @@
         <v>27.6381178704762</v>
       </c>
       <c r="F62">
-        <v>0.63517291091116</v>
+        <v>0.635172910911159</v>
       </c>
       <c r="G62">
         <v>0.635633975608157</v>
       </c>
       <c r="H62">
-        <v>0.0805299870107248</v>
+        <v>0.0805299870107246</v>
       </c>
       <c r="I62">
-        <v>0.630512071366984</v>
+        <v>0.630512071366983</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -8131,7 +8131,7 @@
         <v>0.102511578130555</v>
       </c>
       <c r="I64">
-        <v>0.57180730306119</v>
+        <v>0.571807303061191</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -8160,7 +8160,7 @@
         <v>0.113354831906792</v>
       </c>
       <c r="I65">
-        <v>0.5366560545707</v>
+        <v>0.536656054570699</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -8186,10 +8186,10 @@
         <v>0.512917943008516</v>
       </c>
       <c r="H66">
-        <v>0.123937063506947</v>
+        <v>0.123937063506948</v>
       </c>
       <c r="I66">
-        <v>0.497719218585501</v>
+        <v>0.497719218585502</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -8238,7 +8238,7 @@
         <v>37.9657017635551</v>
       </c>
       <c r="F68">
-        <v>0.43290458721377</v>
+        <v>0.432904587213771</v>
       </c>
       <c r="G68">
         <v>0.433548151099704</v>
@@ -8325,7 +8325,7 @@
         <v>41.9794512211159</v>
       </c>
       <c r="F71">
-        <v>0.302625402406806</v>
+        <v>0.302625402406807</v>
       </c>
       <c r="G71">
         <v>0.303262392744012</v>
@@ -8334,7 +8334,7 @@
         <v>0.169589196486105</v>
       </c>
       <c r="I71">
-        <v>0.251411183697186</v>
+        <v>0.251411183697187</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -8354,10 +8354,10 @@
         <v>43.0635726495563</v>
       </c>
       <c r="F72">
-        <v>0.261354462481307</v>
+        <v>0.261354462481306</v>
       </c>
       <c r="G72">
-        <v>0.261984120487482</v>
+        <v>0.261984120487481</v>
       </c>
       <c r="H72">
         <v>0.176802922377522</v>
@@ -8421,7 +8421,7 @@
         <v>0.189032969753457</v>
       </c>
       <c r="I74">
-        <v>0.071119596176995</v>
+        <v>0.0711195961769952</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -8450,7 +8450,7 @@
         <v>0.194024536260806</v>
       </c>
       <c r="I75">
-        <v>0.0168094555432962</v>
+        <v>0.0168094555432957</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -8479,7 +8479,7 @@
         <v>0.198258146367829</v>
       </c>
       <c r="I76">
-        <v>0.0635750371612377</v>
+        <v>0.0635750371612379</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -8502,13 +8502,13 @@
         <v>0.239211341293647</v>
       </c>
       <c r="G77">
-        <v>0.239942593552096</v>
+        <v>0.239942593552095</v>
       </c>
       <c r="H77">
         <v>0.201728941800057</v>
       </c>
       <c r="I77">
-        <v>0.129914903843768</v>
+        <v>0.129914903843767</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -8531,7 +8531,7 @@
         <v>0.283775929337321</v>
       </c>
       <c r="G78">
-        <v>0.284568520944759</v>
+        <v>0.284568520944758</v>
       </c>
       <c r="H78">
         <v>0.204431691503918</v>
@@ -8586,10 +8586,10 @@
         <v>46.1283973242044</v>
       </c>
       <c r="F80">
-        <v>0.394120488954361</v>
+        <v>0.394120488954362</v>
       </c>
       <c r="G80">
-        <v>0.395085091792678</v>
+        <v>0.395085091792679</v>
       </c>
       <c r="H80">
         <v>0.207509511799147</v>
@@ -8650,7 +8650,7 @@
         <v>0.518283032726135</v>
       </c>
       <c r="H82">
-        <v>0.207457134047989</v>
+        <v>0.207457134047988</v>
       </c>
       <c r="I82">
         <v>0.474951407561231</v>
@@ -8682,7 +8682,7 @@
         <v>0.206263717937136</v>
       </c>
       <c r="I83">
-        <v>0.543743654117151</v>
+        <v>0.543743654117152</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -8763,13 +8763,13 @@
         <v>0.768897307456751</v>
       </c>
       <c r="G86">
-        <v>0.770325611472812</v>
+        <v>0.770325611472813</v>
       </c>
       <c r="H86">
         <v>0.19825915691756</v>
       </c>
       <c r="I86">
-        <v>0.744375479438502</v>
+        <v>0.744375479438503</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -8792,13 +8792,13 @@
         <v>0.830011858173286</v>
       </c>
       <c r="G87">
-        <v>0.831483044446165</v>
+        <v>0.831483044446164</v>
       </c>
       <c r="H87">
         <v>0.19425307352886</v>
       </c>
       <c r="I87">
-        <v>0.808473745168051</v>
+        <v>0.80847374516805</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -8818,16 +8818,16 @@
         <v>38.6869568653533</v>
       </c>
       <c r="F88">
-        <v>0.889714988017942</v>
+        <v>0.889714988017943</v>
       </c>
       <c r="G88">
-        <v>0.891219388396894</v>
+        <v>0.891219388396895</v>
       </c>
       <c r="H88">
         <v>0.189676071348556</v>
       </c>
       <c r="I88">
-        <v>0.870801347158071</v>
+        <v>0.870801347158072</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -9259,7 +9259,7 @@
         <v>1.51526432787882</v>
       </c>
       <c r="H103">
-        <v>0.0933858777158327</v>
+        <v>0.0933858777158326</v>
       </c>
       <c r="I103">
         <v>1.51238390006813</v>
@@ -9317,7 +9317,7 @@
         <v>1.54634442910597</v>
       </c>
       <c r="H105">
-        <v>0.0835587233744577</v>
+        <v>0.0835587233744579</v>
       </c>
       <c r="I105">
         <v>1.54408517678757</v>
@@ -9346,7 +9346,7 @@
         <v>1.55485369401266</v>
       </c>
       <c r="H106">
-        <v>0.0820132367954766</v>
+        <v>0.0820132367954765</v>
       </c>
       <c r="I106">
         <v>1.55268922800899</v>
@@ -9404,7 +9404,7 @@
         <v>1.55532778340912</v>
       </c>
       <c r="H108">
-        <v>0.0905599099322842</v>
+        <v>0.0905599099322841</v>
       </c>
       <c r="I108">
         <v>1.5526890920456</v>
@@ -9552,7 +9552,7 @@
         <v>0.177006701308441</v>
       </c>
       <c r="I113">
-        <v>1.42675246307082</v>
+        <v>1.42675246307083</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -9749,13 +9749,13 @@
         <v>0.958016668066775</v>
       </c>
       <c r="G120">
-        <v>0.969770017183349</v>
+        <v>0.96977001718335</v>
       </c>
       <c r="H120">
         <v>0.319171516742218</v>
       </c>
       <c r="I120">
-        <v>0.915742010136187</v>
+        <v>0.915742010136188</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -9775,16 +9775,16 @@
         <v>63.1145955109417</v>
       </c>
       <c r="F121">
-        <v>0.869839696582126</v>
+        <v>0.869839696582127</v>
       </c>
       <c r="G121">
-        <v>0.883872127729787</v>
+        <v>0.883872127729788</v>
       </c>
       <c r="H121">
         <v>0.331608392050655</v>
       </c>
       <c r="I121">
-        <v>0.819308130375355</v>
+        <v>0.819308130375356</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -9862,7 +9862,7 @@
         <v>68.3050902962402</v>
       </c>
       <c r="F124">
-        <v>0.603531940386609</v>
+        <v>0.60353194038661</v>
       </c>
       <c r="G124">
         <v>0.631033859446656</v>
@@ -9871,7 +9871,7 @@
         <v>0.353104758316745</v>
       </c>
       <c r="I124">
-        <v>0.522992123671298</v>
+        <v>0.522992123671299</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -9894,7 +9894,7 @@
         <v>0.520957554659734</v>
       </c>
       <c r="G125">
-        <v>0.55784758909464</v>
+        <v>0.557847589094641</v>
       </c>
       <c r="H125">
         <v>0.355453288208509</v>
@@ -9949,7 +9949,7 @@
         <v>69.8502388335994</v>
       </c>
       <c r="F127">
-        <v>0.384142663320413</v>
+        <v>0.384142663320412</v>
       </c>
       <c r="G127">
         <v>0.455134115108967</v>
@@ -9987,7 +9987,7 @@
         <v>0.350494325219272</v>
       </c>
       <c r="I128">
-        <v>0.260593176903968</v>
+        <v>0.260593176903967</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -10010,10 +10010,10 @@
         <v>0.371540594772738</v>
       </c>
       <c r="G129">
-        <v>0.444442875946154</v>
+        <v>0.444442875946155</v>
       </c>
       <c r="H129">
-        <v>0.345088990175949</v>
+        <v>0.34508899017595</v>
       </c>
       <c r="I129">
         <v>0.280076880228683</v>
@@ -10045,7 +10045,7 @@
         <v>0.337725099970643</v>
       </c>
       <c r="I130">
-        <v>0.335023098477846</v>
+        <v>0.335023098477847</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -10065,10 +10065,10 @@
         <v>66.3372764766666</v>
       </c>
       <c r="F131">
-        <v>0.488706370895142</v>
+        <v>0.488706370895143</v>
       </c>
       <c r="G131">
-        <v>0.524703015994748</v>
+        <v>0.524703015994749</v>
       </c>
       <c r="H131">
         <v>0.328257721072533</v>
@@ -10094,7 +10094,7 @@
         <v>64.4990695207592</v>
       </c>
       <c r="F132">
-        <v>0.559330764280849</v>
+        <v>0.55933076428085</v>
       </c>
       <c r="G132">
         <v>0.585018674588552</v>
@@ -10103,7 +10103,7 @@
         <v>0.31652860353276</v>
       </c>
       <c r="I132">
-        <v>0.491992370634897</v>
+        <v>0.491992370634898</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -10190,7 +10190,7 @@
         <v>0.266926471127543</v>
       </c>
       <c r="I135">
-        <v>0.740259459381304</v>
+        <v>0.740259459381305</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -10245,7 +10245,7 @@
         <v>0.910538293812884</v>
       </c>
       <c r="H137">
-        <v>0.222799293140972</v>
+        <v>0.222799293140973</v>
       </c>
       <c r="I137">
         <v>0.882859252358812</v>
@@ -10419,7 +10419,7 @@
         <v>1.12014811336937</v>
       </c>
       <c r="H143">
-        <v>0.0776781227815692</v>
+        <v>0.0776781227815691</v>
       </c>
       <c r="I143">
         <v>1.11745152249486</v>
@@ -10477,7 +10477,7 @@
         <v>1.12954236464346</v>
       </c>
       <c r="H145">
-        <v>0.0502817058890706</v>
+        <v>0.0502817058890708</v>
       </c>
       <c r="I145">
         <v>1.12842266176164</v>
@@ -10506,7 +10506,7 @@
         <v>1.12426797191937</v>
       </c>
       <c r="H146">
-        <v>0.0481006714175848</v>
+        <v>0.0481006714175847</v>
       </c>
       <c r="I146">
         <v>1.12323853125365</v>
@@ -10535,7 +10535,7 @@
         <v>1.11317543931108</v>
       </c>
       <c r="H147">
-        <v>0.052836351255199</v>
+        <v>0.0528363512551989</v>
       </c>
       <c r="I147">
         <v>1.11192080593514</v>
@@ -10558,13 +10558,13 @@
         <v>11.5454318778503</v>
       </c>
       <c r="F148">
-        <v>1.09641380065845</v>
+        <v>1.09641380065846</v>
       </c>
       <c r="G148">
         <v>1.0969551487099</v>
       </c>
       <c r="H148">
-        <v>0.0609985353536865</v>
+        <v>0.0609985353536867</v>
       </c>
       <c r="I148">
         <v>1.09525785866428</v>
@@ -10593,7 +10593,7 @@
         <v>1.07631651733094</v>
       </c>
       <c r="H149">
-        <v>0.0699204456720177</v>
+        <v>0.0699204456720178</v>
       </c>
       <c r="I149">
         <v>1.07404300507774</v>
@@ -10622,10 +10622,10 @@
         <v>1.05196318645526</v>
       </c>
       <c r="H150">
-        <v>0.0782497080484355</v>
+        <v>0.0782497080484354</v>
       </c>
       <c r="I150">
-        <v>1.04904886866506</v>
+        <v>1.04904886866505</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -10651,7 +10651,7 @@
         <v>1.02457300837052</v>
       </c>
       <c r="H151">
-        <v>0.0854016310811995</v>
+        <v>0.0854016310811993</v>
       </c>
       <c r="I151">
         <v>1.02100754693102</v>
@@ -10677,7 +10677,7 @@
         <v>0.994578171838952</v>
       </c>
       <c r="G152">
-        <v>0.9947829197114</v>
+        <v>0.994782919711399</v>
       </c>
       <c r="H152">
         <v>0.0911685089190421</v>
@@ -10703,16 +10703,16 @@
         <v>0.739157699338195</v>
       </c>
       <c r="F153">
-        <v>0.963017040630296</v>
+        <v>0.963017040630295</v>
       </c>
       <c r="G153">
-        <v>0.963178437978307</v>
+        <v>0.963178437978306</v>
       </c>
       <c r="H153">
-        <v>0.0955288066905897</v>
+        <v>0.0955288066905896</v>
       </c>
       <c r="I153">
-        <v>0.958429418621217</v>
+        <v>0.958429418621216</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -10770,7 +10770,7 @@
         <v>0.100368952985456</v>
       </c>
       <c r="I155">
-        <v>0.890940713435292</v>
+        <v>0.890940713435293</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -10799,7 +10799,7 @@
         <v>0.101110814193101</v>
       </c>
       <c r="I156">
-        <v>0.856504575857032</v>
+        <v>0.856504575857031</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -10848,16 +10848,16 @@
         <v>5.14175349196441</v>
       </c>
       <c r="F158">
-        <v>0.794243026792392</v>
+        <v>0.794243026792393</v>
       </c>
       <c r="G158">
         <v>0.794296153732373</v>
       </c>
       <c r="H158">
-        <v>0.0999670077797257</v>
+        <v>0.0999670077797256</v>
       </c>
       <c r="I158">
-        <v>0.787980315229771</v>
+        <v>0.787980315229772</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -10883,10 +10883,10 @@
         <v>0.760797364335357</v>
       </c>
       <c r="H159">
-        <v>0.0983614765908676</v>
+        <v>0.0983614765908677</v>
       </c>
       <c r="I159">
-        <v>0.754412121789205</v>
+        <v>0.754412121789204</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -10912,7 +10912,7 @@
         <v>0.727959763143191</v>
       </c>
       <c r="H160">
-        <v>0.0962361375080726</v>
+        <v>0.0962361375080725</v>
       </c>
       <c r="I160">
         <v>0.721570525030657</v>
@@ -10935,7 +10935,7 @@
         <v>7.00939151510541</v>
       </c>
       <c r="F161">
-        <v>0.695907356187403</v>
+        <v>0.695907356187402</v>
       </c>
       <c r="G161">
         <v>0.695937304331463</v>
@@ -10944,7 +10944,7 @@
         <v>0.0937018820968875</v>
       </c>
       <c r="I161">
-        <v>0.689600383448012</v>
+        <v>0.689600383448011</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -10970,7 +10970,7 @@
         <v>0.664848205663756</v>
       </c>
       <c r="H162">
-        <v>0.0908560905056118</v>
+        <v>0.090856090505612</v>
       </c>
       <c r="I162">
         <v>0.658610892251526</v>
@@ -11060,7 +11060,7 @@
         <v>0.0812304057854867</v>
       </c>
       <c r="I165">
-        <v>0.572190584431673</v>
+        <v>0.572190584431674</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -11086,7 +11086,7 @@
         <v>0.551203582922915</v>
       </c>
       <c r="H166">
-        <v>0.0778615021231833</v>
+        <v>0.0778615021231834</v>
       </c>
       <c r="I166">
         <v>0.545676622473586</v>
@@ -11112,7 +11112,7 @@
         <v>0.525614031237803</v>
       </c>
       <c r="G167">
-        <v>0.525626517687452</v>
+        <v>0.525626517687451</v>
       </c>
       <c r="H167">
         <v>0.0744886202750077</v>
@@ -11138,13 +11138,13 @@
         <v>8.61014069816753</v>
       </c>
       <c r="F168">
-        <v>0.501178710134752</v>
+        <v>0.501178710134751</v>
       </c>
       <c r="G168">
-        <v>0.50118988607881</v>
+        <v>0.501189886078809</v>
       </c>
       <c r="H168">
-        <v>0.0711449008945009</v>
+        <v>0.071144900894501</v>
       </c>
       <c r="I168">
         <v>0.496114608718995</v>
@@ -11173,7 +11173,7 @@
         <v>0.477877338700965</v>
       </c>
       <c r="H169">
-        <v>0.0678566504462824</v>
+        <v>0.0678566504462826</v>
       </c>
       <c r="I169">
         <v>0.473035121142318</v>
@@ -11225,16 +11225,16 @@
         <v>8.6337010575847</v>
       </c>
       <c r="F171">
-        <v>0.434514466477404</v>
+        <v>0.434514466477403</v>
       </c>
       <c r="G171">
         <v>0.434522902311746</v>
       </c>
       <c r="H171">
-        <v>0.061523511467065</v>
+        <v>0.0615235114670651</v>
       </c>
       <c r="I171">
-        <v>0.430145336101864</v>
+        <v>0.430145336101863</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -11254,13 +11254,13 @@
         <v>8.59231015007149</v>
       </c>
       <c r="F172">
-        <v>0.414409406680843</v>
+        <v>0.414409406680842</v>
       </c>
       <c r="G172">
         <v>0.414417203853948</v>
       </c>
       <c r="H172">
-        <v>0.0585055694602931</v>
+        <v>0.058505569460293</v>
       </c>
       <c r="I172">
         <v>0.410266641578683</v>
@@ -11289,7 +11289,7 @@
         <v>0.395310721153067</v>
       </c>
       <c r="H173">
-        <v>0.0555984924000088</v>
+        <v>0.0555984924000087</v>
       </c>
       <c r="I173">
         <v>0.391381366318587</v>
@@ -11318,7 +11318,7 @@
         <v>0.377164314874879</v>
       </c>
       <c r="H174">
-        <v>0.0528074370351166</v>
+        <v>0.0528074370351167</v>
       </c>
       <c r="I174">
         <v>0.373449186649026</v>
@@ -11347,7 +11347,7 @@
         <v>0.359937656839702</v>
       </c>
       <c r="H175">
-        <v>0.0501352626520511</v>
+        <v>0.0501352626520512</v>
       </c>
       <c r="I175">
         <v>0.356428916125032</v>
@@ -11405,7 +11405,7 @@
         <v>0.328080255014448</v>
       </c>
       <c r="H177">
-        <v>0.045150113797072</v>
+        <v>0.0451501137970721</v>
       </c>
       <c r="I177">
         <v>0.324958644991107</v>
@@ -11463,7 +11463,7 @@
         <v>0.299414602504039</v>
       </c>
       <c r="H179">
-        <v>0.0406352661167681</v>
+        <v>0.040635266116768</v>
       </c>
       <c r="I179">
         <v>0.296644365091048</v>
@@ -11489,10 +11489,10 @@
         <v>0.28617552338699</v>
       </c>
       <c r="G180">
-        <v>0.286180493722295</v>
+        <v>0.286180493722294</v>
       </c>
       <c r="H180">
-        <v>0.0385475744193398</v>
+        <v>0.0385475744193397</v>
       </c>
       <c r="I180">
         <v>0.2835724942471</v>
@@ -11547,10 +11547,10 @@
         <v>0.261718677889116</v>
       </c>
       <c r="G182">
-        <v>0.261723257156447</v>
+        <v>0.261723257156446</v>
       </c>
       <c r="H182">
-        <v>0.0346933843178103</v>
+        <v>0.0346933843178102</v>
       </c>
       <c r="I182">
         <v>0.259413631910808</v>
@@ -11582,7 +11582,7 @@
         <v>0.0329186016766185</v>
       </c>
       <c r="I183">
-        <v>0.248256657457714</v>
+        <v>0.248256657457713</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -11608,7 +11608,7 @@
         <v>0.23971479838044</v>
       </c>
       <c r="H184">
-        <v>0.031239558274706</v>
+        <v>0.0312395582747059</v>
       </c>
       <c r="I184">
         <v>0.237670516811354</v>
@@ -11663,10 +11663,10 @@
         <v>0.219892955338526</v>
       </c>
       <c r="G186">
-        <v>0.219896905559332</v>
+        <v>0.219896905559331</v>
       </c>
       <c r="H186">
-        <v>0.0281509535458474</v>
+        <v>0.0281509535458473</v>
       </c>
       <c r="I186">
         <v>0.218087534923546</v>
@@ -11695,7 +11695,7 @@
         <v>0.210735339712463</v>
       </c>
       <c r="H187">
-        <v>0.0267325936811024</v>
+        <v>0.0267325936811025</v>
       </c>
       <c r="I187">
         <v>0.209032896546951</v>
@@ -11724,7 +11724,7 @@
         <v>0.202035493962932</v>
       </c>
       <c r="H188">
-        <v>0.0253924596447103</v>
+        <v>0.0253924596447102</v>
       </c>
       <c r="I188">
         <v>0.200433439859814</v>
@@ -11747,7 +11747,7 @@
         <v>6.59308418643651</v>
       </c>
       <c r="F189">
-        <v>0.1937682074583</v>
+        <v>0.193768207458299</v>
       </c>
       <c r="G189">
         <v>0.193771769543994</v>
@@ -11756,7 +11756,7 @@
         <v>0.0241263923018816</v>
       </c>
       <c r="I189">
-        <v>0.192263922426197</v>
+        <v>0.192263922426196</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -11811,7 +11811,7 @@
         <v>0.178457173149933</v>
       </c>
       <c r="H191">
-        <v>0.0218005321093853</v>
+        <v>0.0218005321093854</v>
       </c>
       <c r="I191">
         <v>0.177120578839425</v>
@@ -11834,16 +11834,16 @@
         <v>6.20649149993486</v>
       </c>
       <c r="F192">
-        <v>0.171358609854321</v>
+        <v>0.17135860985432</v>
       </c>
       <c r="G192">
         <v>0.171361829044308</v>
       </c>
       <c r="H192">
-        <v>0.0207331684606242</v>
+        <v>0.0207331684606241</v>
       </c>
       <c r="I192">
-        <v>0.170102945826914</v>
+        <v>0.170102945826913</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -11869,7 +11869,7 @@
         <v>0.164613549962268</v>
       </c>
       <c r="H193">
-        <v>0.0197247439255885</v>
+        <v>0.0197247439255886</v>
       </c>
       <c r="I193">
         <v>0.163427523105045</v>
@@ -12043,7 +12043,7 @@
         <v>0.130410995948217</v>
       </c>
       <c r="H199">
-        <v>0.0147349741980173</v>
+        <v>0.0147349741980172</v>
       </c>
       <c r="I199">
         <v>0.129575878926557</v>
@@ -12066,7 +12066,7 @@
         <v>5.27211524171956</v>
       </c>
       <c r="F200">
-        <v>0.125610004720885</v>
+        <v>0.125610004720884</v>
       </c>
       <c r="G200">
         <v>0.125612454659653</v>
@@ -12101,7 +12101,7 @@
         <v>0.121035220036748</v>
       </c>
       <c r="H201">
-        <v>0.0134096431387443</v>
+        <v>0.0134096431387442</v>
       </c>
       <c r="I201">
         <v>0.120290090864691</v>
@@ -12124,16 +12124,16 @@
         <v>5.06267779511183</v>
       </c>
       <c r="F202">
-        <v>0.116665142538482</v>
+        <v>0.116665142538481</v>
       </c>
       <c r="G202">
         <v>0.116667425971907</v>
       </c>
       <c r="H202">
-        <v>0.0127996137489392</v>
+        <v>0.0127996137489393</v>
       </c>
       <c r="I202">
-        <v>0.115963175925759</v>
+        <v>0.115963175925758</v>
       </c>
     </row>
   </sheetData>
@@ -12195,13 +12195,13 @@
         <v>-0.000225097227684934</v>
       </c>
       <c r="F2">
-        <v>-0.000489897075300894</v>
+        <v>-0.000489897075300866</v>
       </c>
       <c r="G2">
         <v>-0.000489389807519253</v>
       </c>
       <c r="H2">
-        <v>-0.000421021495655326</v>
+        <v>-0.000421021495655269</v>
       </c>
       <c r="I2">
         <v>-0.000178733434474054</v>
@@ -12224,13 +12224,13 @@
         <v>-0.000427523267079621</v>
       </c>
       <c r="F3">
-        <v>-0.000528366724596635</v>
+        <v>-0.000528366724596607</v>
       </c>
       <c r="G3">
         <v>-0.000527841673477053</v>
       </c>
       <c r="H3">
-        <v>0.000156152555167705</v>
+        <v>0.000156152555167726</v>
       </c>
       <c r="I3">
         <v>-0.000249691902522331</v>
@@ -12259,10 +12259,10 @@
         <v>-0.00036921224900277</v>
       </c>
       <c r="H4">
-        <v>-0.000241868663561937</v>
+        <v>-0.000241868663561875</v>
       </c>
       <c r="I4">
-        <v>-0.000125116102871109</v>
+        <v>-0.000125116102871137</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -12282,16 +12282,16 @@
         <v>-0.000285470967172685</v>
       </c>
       <c r="F5">
-        <v>-5.59190605842197e-06</v>
+        <v>-5.59190605853299e-06</v>
       </c>
       <c r="G5">
-        <v>-5.02773636840148e-06</v>
+        <v>-5.02773636854026e-06</v>
       </c>
       <c r="H5">
-        <v>0.000385836196024926</v>
+        <v>0.000385836196024957</v>
       </c>
       <c r="I5">
-        <v>0.000203412988833973</v>
+        <v>0.000203412988833862</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -12311,16 +12311,16 @@
         <v>-0.000284719590366578</v>
       </c>
       <c r="F6">
-        <v>-0.000427088477031129</v>
+        <v>-0.000427088477031157</v>
       </c>
       <c r="G6">
-        <v>-0.0004265026592985</v>
+        <v>-0.000426502659298528</v>
       </c>
       <c r="H6">
         <v>4.01852662066694e-05</v>
       </c>
       <c r="I6">
-        <v>-0.000255371886462075</v>
+        <v>-0.000255371886462102</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -12340,16 +12340,16 @@
         <v>-0.000259700779839278</v>
       </c>
       <c r="F7">
-        <v>-0.000625150848016814</v>
+        <v>-0.000625150848016731</v>
       </c>
       <c r="G7">
-        <v>-0.000624541738862755</v>
+        <v>-0.000624541738862644</v>
       </c>
       <c r="H7">
-        <v>-0.000277914499936482</v>
+        <v>-0.000277914499936503</v>
       </c>
       <c r="I7">
-        <v>-0.000492425242135663</v>
+        <v>-0.000492425242135552</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -12369,16 +12369,16 @@
         <v>-0.000434842515078415</v>
       </c>
       <c r="F8">
-        <v>-0.000590378899297611</v>
+        <v>-0.000590378899297639</v>
       </c>
       <c r="G8">
-        <v>-0.00058974462881331</v>
+        <v>-0.000589744628813366</v>
       </c>
       <c r="H8">
-        <v>0.00043242315925611</v>
+        <v>0.000432423159256148</v>
       </c>
       <c r="I8">
-        <v>-0.000498392514242552</v>
+        <v>-0.000498392514242607</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -12398,16 +12398,16 @@
         <v>-5.94060688516862e-05</v>
       </c>
       <c r="F9">
-        <v>-0.000313075626234921</v>
+        <v>-0.00031307562623481</v>
       </c>
       <c r="G9">
-        <v>-0.000312414060806648</v>
+        <v>-0.000312414060806537</v>
       </c>
       <c r="H9">
-        <v>0.000172052520312816</v>
+        <v>0.000172052520312882</v>
       </c>
       <c r="I9">
-        <v>-0.000263616955410356</v>
+        <v>-0.000263616955410273</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -12427,16 +12427,16 @@
         <v>-0.00040988951331844</v>
       </c>
       <c r="F10">
-        <v>-0.00078325933389789</v>
+        <v>-0.000783259333897862</v>
       </c>
       <c r="G10">
-        <v>-0.000782568032419689</v>
+        <v>-0.000782568032419662</v>
       </c>
       <c r="H10">
-        <v>-5.8217463078207e-05</v>
+        <v>-5.82174630781793e-05</v>
       </c>
       <c r="I10">
-        <v>-0.000778150362610142</v>
+        <v>-0.000778150362610114</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -12456,16 +12456,16 @@
         <v>0.00020736952895728</v>
       </c>
       <c r="F11">
-        <v>9.31939838685891e-06</v>
+        <v>9.31939838672013e-06</v>
       </c>
       <c r="G11">
-        <v>1.00432362092617e-05</v>
+        <v>1.0043236209123e-05</v>
       </c>
       <c r="H11">
-        <v>-0.000257638836646479</v>
+        <v>-0.000257638836646566</v>
       </c>
       <c r="I11">
-        <v>-3.17683378666389e-05</v>
+        <v>-3.17683378667777e-05</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -12485,16 +12485,16 @@
         <v>0.000453384315825645</v>
       </c>
       <c r="F12">
-        <v>7.5155152144124e-05</v>
+        <v>7.51551521441518e-05</v>
       </c>
       <c r="G12">
-        <v>7.59147469735211e-05</v>
+        <v>7.59147469735488e-05</v>
       </c>
       <c r="H12">
-        <v>-0.000425542990941542</v>
+        <v>-0.000425542990941455</v>
       </c>
       <c r="I12">
-        <v>-1.39908831620905e-05</v>
+        <v>-1.39908831620628e-05</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -12514,16 +12514,16 @@
         <v>-4.65021265041443e-05</v>
       </c>
       <c r="F13">
-        <v>-0.000575041442622604</v>
+        <v>-0.000575041442622631</v>
       </c>
       <c r="G13">
         <v>-0.000574242377171241</v>
       </c>
       <c r="H13">
-        <v>0.000438637956840914</v>
+        <v>0.000438637956840942</v>
       </c>
       <c r="I13">
-        <v>-0.0007141092455408</v>
+        <v>-0.000714109245540828</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -12543,16 +12543,16 @@
         <v>0.000294149846329361</v>
       </c>
       <c r="F14">
-        <v>6.96195556272594e-05</v>
+        <v>6.96195556272872e-05</v>
       </c>
       <c r="G14">
-        <v>7.04623845958763e-05</v>
+        <v>7.0462384595904e-05</v>
       </c>
       <c r="H14">
-        <v>0.000335346337109455</v>
+        <v>0.000335346337109469</v>
       </c>
       <c r="I14">
-        <v>-0.000121220056759769</v>
+        <v>-0.000121220056759741</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -12572,16 +12572,16 @@
         <v>1.94369269070904e-05</v>
       </c>
       <c r="F15">
-        <v>2.01618174282825e-05</v>
+        <v>2.01618174283935e-05</v>
       </c>
       <c r="G15">
-        <v>2.10533850227013e-05</v>
+        <v>2.10533850227845e-05</v>
       </c>
       <c r="H15">
-        <v>0.000264870209071798</v>
+        <v>0.000264870209071778</v>
       </c>
       <c r="I15">
-        <v>-0.0002242679547306</v>
+        <v>-0.000224267954730489</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -12601,16 +12601,16 @@
         <v>-0.000372518825113133</v>
       </c>
       <c r="F16">
-        <v>-0.000712313065399289</v>
+        <v>-0.000712313065399234</v>
       </c>
       <c r="G16">
-        <v>-0.000711366978820099</v>
+        <v>-0.000711366978820016</v>
       </c>
       <c r="H16">
-        <v>0.000227310257138912</v>
+        <v>0.000227310257138881</v>
       </c>
       <c r="I16">
-        <v>-1.20980323222719e-05</v>
+        <v>-1.20980323221886e-05</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -12659,13 +12659,13 @@
         <v>0.000231550827932026</v>
       </c>
       <c r="F18">
-        <v>-0.000181937325535453</v>
+        <v>-0.000181937325535397</v>
       </c>
       <c r="G18">
-        <v>-0.000180860872139754</v>
+        <v>-0.00018086087213981</v>
       </c>
       <c r="H18">
-        <v>0.000250171116431153</v>
+        <v>0.00025017111643108</v>
       </c>
       <c r="I18">
         <v>-0.000597383207369628</v>
@@ -12688,16 +12688,16 @@
         <v>-4.07699955715657e-05</v>
       </c>
       <c r="F19">
-        <v>0.00010282827496888</v>
+        <v>0.000102828274968825</v>
       </c>
       <c r="G19">
-        <v>0.000103983048815315</v>
+        <v>0.000103983048815259</v>
       </c>
       <c r="H19">
-        <v>0.000309486139944373</v>
+        <v>0.00030948613994437</v>
       </c>
       <c r="I19">
-        <v>-0.000372672138377217</v>
+        <v>-0.000372672138377272</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -12717,16 +12717,16 @@
         <v>2.50738726386146e-05</v>
       </c>
       <c r="F20">
-        <v>-0.000251804069892725</v>
+        <v>-0.000251804069892836</v>
       </c>
       <c r="G20">
-        <v>-0.000250560169965219</v>
+        <v>-0.000250560169965275</v>
       </c>
       <c r="H20">
-        <v>0.000399399775147101</v>
+        <v>0.000399399775147094</v>
       </c>
       <c r="I20">
-        <v>-0.000788611692173646</v>
+        <v>-0.000788611692173702</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -12752,7 +12752,7 @@
         <v>-0.000234312042375617</v>
       </c>
       <c r="H21">
-        <v>-0.000481613718734963</v>
+        <v>-0.000481613718734949</v>
       </c>
       <c r="I21">
         <v>-0.000834797454668357</v>
@@ -12775,16 +12775,16 @@
         <v>-5.70623503222123e-05</v>
       </c>
       <c r="F22">
-        <v>-0.000839128824361601</v>
+        <v>-0.000839128824361435</v>
       </c>
       <c r="G22">
-        <v>-0.000837666236416512</v>
+        <v>-0.000837666236416346</v>
       </c>
       <c r="H22">
         <v>-0.000335590604819296</v>
       </c>
       <c r="I22">
-        <v>-0.000501345888022975</v>
+        <v>-0.000501345888022808</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -12804,16 +12804,16 @@
         <v>6.59256417723242e-06</v>
       </c>
       <c r="F23">
-        <v>-5.33679511347529e-05</v>
+        <v>-5.33679511349194e-05</v>
       </c>
       <c r="G23">
-        <v>-5.17707713993953e-05</v>
+        <v>-5.17707713996174e-05</v>
       </c>
       <c r="H23">
-        <v>-0.000165158230938989</v>
+        <v>-0.000165158230939044</v>
       </c>
       <c r="I23">
-        <v>-0.000779069882314187</v>
+        <v>-0.000779069882314409</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -12833,16 +12833,16 @@
         <v>-0.000172342536095549</v>
       </c>
       <c r="F24">
-        <v>-0.000870491549855357</v>
+        <v>-0.000870491549855246</v>
       </c>
       <c r="G24">
-        <v>-0.00086873873545823</v>
+        <v>-0.000868738735458119</v>
       </c>
       <c r="H24">
-        <v>2.63750923753525e-05</v>
+        <v>2.63750923753941e-05</v>
       </c>
       <c r="I24">
-        <v>-0.000659682436379649</v>
+        <v>-0.000659682436379538</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -12862,13 +12862,13 @@
         <v>0.000331395109220978</v>
       </c>
       <c r="F25">
-        <v>-0.000283824261824883</v>
+        <v>-0.000283824261824828</v>
       </c>
       <c r="G25">
         <v>-0.000281890800342965</v>
       </c>
       <c r="H25">
-        <v>0.000234920386315049</v>
+        <v>0.000234920386315098</v>
       </c>
       <c r="I25">
         <v>-0.00013603184835459</v>
@@ -12891,16 +12891,16 @@
         <v>0.000373991898449333</v>
       </c>
       <c r="F26">
-        <v>-0.000288176896427073</v>
+        <v>-0.000288176896427128</v>
       </c>
       <c r="G26">
-        <v>-0.000286032987677043</v>
+        <v>-0.000286032987677098</v>
       </c>
       <c r="H26">
-        <v>0.000455498096225117</v>
+        <v>0.00045549809622504</v>
       </c>
       <c r="I26">
-        <v>-0.000202372023747177</v>
+        <v>-0.000202372023747233</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -12920,16 +12920,16 @@
         <v>-0.000250036299942025</v>
       </c>
       <c r="F27">
-        <v>-0.000880163209294738</v>
+        <v>-0.000880163209295015</v>
       </c>
       <c r="G27">
-        <v>-0.00087777327001326</v>
+        <v>-0.000877773270013482</v>
       </c>
       <c r="H27">
-        <v>-0.000317882189477675</v>
+        <v>-0.00031788218947762</v>
       </c>
       <c r="I27">
-        <v>-0.000854671701168375</v>
+        <v>-0.000854671701168597</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -12949,16 +12949,16 @@
         <v>0.000205930172271884</v>
       </c>
       <c r="F28">
-        <v>-5.85591960780008e-05</v>
+        <v>-5.85591960778897e-05</v>
       </c>
       <c r="G28">
-        <v>-5.58806491254282e-05</v>
+        <v>-5.58806491253727e-05</v>
       </c>
       <c r="H28">
-        <v>-9.23522800554688e-05</v>
+        <v>-9.23522800554272e-05</v>
       </c>
       <c r="I28">
-        <v>-9.09665331672027e-05</v>
+        <v>-9.09665331671472e-05</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -12978,16 +12978,16 @@
         <v>0.000464063549252103</v>
       </c>
       <c r="F29">
-        <v>-0.000824708513620487</v>
+        <v>-0.000824708513620542</v>
       </c>
       <c r="G29">
-        <v>-0.000821690315559398</v>
+        <v>-0.000821690315559453</v>
       </c>
       <c r="H29">
-        <v>0.000123674319123988</v>
+        <v>0.000123674319124092</v>
       </c>
       <c r="I29">
-        <v>-0.000911758016644559</v>
+        <v>-0.000911758016644615</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -13007,16 +13007,16 @@
         <v>0.000260395930248514</v>
       </c>
       <c r="F30">
-        <v>-0.000182977472196311</v>
+        <v>-0.000182977472196366</v>
       </c>
       <c r="G30">
-        <v>-0.000179558324022999</v>
+        <v>-0.000179558324023055</v>
       </c>
       <c r="H30">
-        <v>0.000320353367272069</v>
+        <v>0.000320353367272166</v>
       </c>
       <c r="I30">
-        <v>-0.000320463212428901</v>
+        <v>-0.000320463212428956</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -13036,16 +13036,16 @@
         <v>0.00040630311643497</v>
       </c>
       <c r="F31">
-        <v>-0.000141262702938183</v>
+        <v>-0.000141262702937961</v>
       </c>
       <c r="G31">
-        <v>-0.000137368878285082</v>
+        <v>-0.00013736887828486</v>
       </c>
       <c r="H31">
-        <v>-0.000513746206236197</v>
+        <v>-0.000513746206236176</v>
       </c>
       <c r="I31">
-        <v>-0.000323918987803484</v>
+        <v>-0.000323918987803262</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -13065,16 +13065,16 @@
         <v>-0.000113155969471812</v>
       </c>
       <c r="F32">
-        <v>-0.000711554046037455</v>
+        <v>-0.000711554046037566</v>
       </c>
       <c r="G32">
-        <v>-0.000707096759286652</v>
+        <v>-0.000707096759286707</v>
       </c>
       <c r="H32">
-        <v>-0.00039180291063156</v>
+        <v>-0.000391802910631595</v>
       </c>
       <c r="I32">
-        <v>-0.000932944112110645</v>
+        <v>-0.000932944112110701</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -13094,16 +13094,16 @@
         <v>1.90248134184223e-05</v>
       </c>
       <c r="F33">
-        <v>-0.000910554372368422</v>
+        <v>-0.000910554372368311</v>
       </c>
       <c r="G33">
-        <v>-0.000905426595876002</v>
+        <v>-0.000905426595875836</v>
       </c>
       <c r="H33">
-        <v>-0.000328904198774758</v>
+        <v>-0.000328904198774897</v>
       </c>
       <c r="I33">
-        <v>-0.00016296187808762</v>
+        <v>-0.000162961878087509</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -13126,13 +13126,13 @@
         <v>-0.000760356881434776</v>
       </c>
       <c r="G34">
-        <v>-0.000754429506661825</v>
+        <v>-0.000754429506661769</v>
       </c>
       <c r="H34">
-        <v>-0.000342203908499976</v>
+        <v>-0.000342203908500052</v>
       </c>
       <c r="I34">
-        <v>-3.468494540948e-05</v>
+        <v>-3.46849454094245e-05</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -13152,16 +13152,16 @@
         <v>-0.000115763743760322</v>
       </c>
       <c r="F35">
-        <v>-0.000289178843240701</v>
+        <v>-0.000289178843240812</v>
       </c>
       <c r="G35">
-        <v>-0.000282296065426013</v>
+        <v>-0.000282296065426124</v>
       </c>
       <c r="H35">
-        <v>-0.000451069024070369</v>
+        <v>-0.000451069024070445</v>
       </c>
       <c r="I35">
-        <v>-0.00057486273423768</v>
+        <v>-0.000574862734237791</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -13181,16 +13181,16 @@
         <v>0.000207498230459624</v>
       </c>
       <c r="F36">
-        <v>-0.000532148697970802</v>
+        <v>-0.000532148697970913</v>
       </c>
       <c r="G36">
-        <v>-0.000524122488769152</v>
+        <v>-0.000524122488769319</v>
       </c>
       <c r="H36">
-        <v>0.00032279289138195</v>
+        <v>0.000322792891381957</v>
       </c>
       <c r="I36">
-        <v>-0.00081708985397605</v>
+        <v>-0.000817089853976216</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -13213,13 +13213,13 @@
         <v>-0.000532140821766336</v>
       </c>
       <c r="G37">
-        <v>-0.000522744340123005</v>
+        <v>-0.000522744340123116</v>
       </c>
       <c r="H37">
-        <v>-4.4763265016276e-05</v>
+        <v>-4.4763265016283e-05</v>
       </c>
       <c r="I37">
-        <v>-0.000802671649448916</v>
+        <v>-0.000802671649449027</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -13239,16 +13239,16 @@
         <v>-9.46545148621247e-05</v>
       </c>
       <c r="F38">
-        <v>-0.000340649040405205</v>
+        <v>-0.000340649040405427</v>
       </c>
       <c r="G38">
-        <v>-0.000329608820512917</v>
+        <v>-0.000329608820513028</v>
       </c>
       <c r="H38">
-        <v>0.000419627595866653</v>
+        <v>0.000419627595866619</v>
       </c>
       <c r="I38">
-        <v>-0.000581539895974981</v>
+        <v>-0.000581539895975092</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -13268,16 +13268,16 @@
         <v>-6.28084434195486e-06</v>
       </c>
       <c r="F39">
-        <v>-0.00101868606842914</v>
+        <v>-0.00101868606842948</v>
       </c>
       <c r="G39">
-        <v>-0.00100567281728425</v>
+        <v>-0.00100567281728459</v>
       </c>
       <c r="H39">
-        <v>-0.000313148732005983</v>
+        <v>-0.000313148732005886</v>
       </c>
       <c r="I39">
-        <v>-0.00021320789479029</v>
+        <v>-0.000213207894790624</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -13303,7 +13303,7 @@
         <v>-0.000622309273531463</v>
       </c>
       <c r="H40">
-        <v>-0.000274589350284217</v>
+        <v>-0.000274589350284273</v>
       </c>
       <c r="I40">
         <v>-0.00076774964492643</v>
@@ -13326,16 +13326,16 @@
         <v>0.000331905483117456</v>
       </c>
       <c r="F41">
-        <v>-0.000280425123605821</v>
+        <v>-0.000280425123606265</v>
       </c>
       <c r="G41">
-        <v>-0.00026219912438763</v>
+        <v>-0.000262199124388074</v>
       </c>
       <c r="H41">
-        <v>-0.000498362021768554</v>
+        <v>-0.000498362021768416</v>
       </c>
       <c r="I41">
-        <v>-0.000326782359360012</v>
+        <v>-0.000326782359360456</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -13361,7 +13361,7 @@
         <v>-0.00102018007399518</v>
       </c>
       <c r="H42">
-        <v>-1.99371691797928e-05</v>
+        <v>-1.99371691798136e-05</v>
       </c>
       <c r="I42">
         <v>-0.000984425360216923</v>
@@ -13384,16 +13384,16 @@
         <v>4.85705197612596e-05</v>
       </c>
       <c r="F43">
-        <v>-0.00102974496727593</v>
+        <v>-0.00102974496727615</v>
       </c>
       <c r="G43">
-        <v>-0.00100401698044084</v>
+        <v>-0.00100401698044117</v>
       </c>
       <c r="H43">
-        <v>0.000123991594069693</v>
+        <v>0.000123991594069714</v>
       </c>
       <c r="I43">
-        <v>-0.000848201405030724</v>
+        <v>-0.000848201405031057</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -13413,16 +13413,16 @@
         <v>9.21387154733111e-05</v>
       </c>
       <c r="F44">
-        <v>-0.000365674958502926</v>
+        <v>-0.000365674958503148</v>
       </c>
       <c r="G44">
-        <v>-0.000335051786020335</v>
+        <v>-0.000335051786020557</v>
       </c>
       <c r="H44">
-        <v>-0.000103618860796933</v>
+        <v>-0.000103618860796989</v>
       </c>
       <c r="I44">
-        <v>-0.00103983893047754</v>
+        <v>-0.00103983893047777</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -13442,16 +13442,16 @@
         <v>6.85004851916915e-05</v>
       </c>
       <c r="F45">
-        <v>-0.000185154978352142</v>
+        <v>-0.000185154978352031</v>
       </c>
       <c r="G45">
-        <v>-0.000148684096458296</v>
+        <v>-0.000148684096458185</v>
       </c>
       <c r="H45">
-        <v>0.000261139510314104</v>
+        <v>0.000261139510314187</v>
       </c>
       <c r="I45">
-        <v>-0.000695925837971623</v>
+        <v>-0.000695925837971512</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -13471,16 +13471,16 @@
         <v>-0.000358748780262985</v>
       </c>
       <c r="F46">
-        <v>-0.000638066457544162</v>
+        <v>-0.000638066457544606</v>
       </c>
       <c r="G46">
-        <v>-0.000594627119926416</v>
+        <v>-0.00059462711992686</v>
       </c>
       <c r="H46">
-        <v>0.000185085853469005</v>
+        <v>0.000185085853469054</v>
       </c>
       <c r="I46">
-        <v>-0.000968357720209534</v>
+        <v>-0.000968357720209978</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -13500,16 +13500,16 @@
         <v>-7.23736028573896e-05</v>
       </c>
       <c r="F47">
-        <v>-0.000888596752536608</v>
+        <v>-0.000888596752536275</v>
       </c>
       <c r="G47">
-        <v>-0.000836878304219968</v>
+        <v>-0.000836878304219857</v>
       </c>
       <c r="H47">
-        <v>-0.000358987517819744</v>
+        <v>-0.000358987517819681</v>
       </c>
       <c r="I47">
-        <v>-0.00102451644309232</v>
+        <v>-0.00102451644309209</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -13535,7 +13535,7 @@
         <v>-0.00105334036870375</v>
       </c>
       <c r="H48">
-        <v>-0.000387231865210863</v>
+        <v>-0.000387231865210926</v>
       </c>
       <c r="I48">
         <v>-0.00104710954180698</v>
@@ -13558,16 +13558,16 @@
         <v>-0.000215673277278228</v>
       </c>
       <c r="F49">
-        <v>-0.00050810097288001</v>
+        <v>-0.000508100972879899</v>
       </c>
       <c r="G49">
-        <v>-0.000435027336041283</v>
+        <v>-0.000435027336041172</v>
       </c>
       <c r="H49">
-        <v>0.000104433015034759</v>
+        <v>0.000104433015034794</v>
       </c>
       <c r="I49">
-        <v>-0.00023359793307498</v>
+        <v>-0.000233597933074869</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -13593,7 +13593,7 @@
         <v>-0.00018479250703396</v>
       </c>
       <c r="H50">
-        <v>0.000158642935590435</v>
+        <v>0.000158642935590522</v>
       </c>
       <c r="I50">
         <v>-0.000795140109162928</v>
@@ -13619,13 +13619,13 @@
         <v>-0.000617961987132709</v>
       </c>
       <c r="G51">
-        <v>-0.000515521949404962</v>
+        <v>-0.000515521949404851</v>
       </c>
       <c r="H51">
-        <v>-0.000102657399260454</v>
+        <v>-0.000102657399260388</v>
       </c>
       <c r="I51">
-        <v>-0.000954986471259467</v>
+        <v>-0.000954986471259356</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -13645,16 +13645,16 @@
         <v>-0.00025935818400491</v>
       </c>
       <c r="F52">
-        <v>-0.000768516806991082</v>
+        <v>-0.000768516806990971</v>
       </c>
       <c r="G52">
-        <v>-0.000647748707928275</v>
+        <v>-0.000647748707928053</v>
       </c>
       <c r="H52">
-        <v>-0.00037928128658905</v>
+        <v>-0.000379281286589032</v>
       </c>
       <c r="I52">
-        <v>-0.000946268965167696</v>
+        <v>-0.000946268965167585</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -13674,16 +13674,16 @@
         <v>-0.000261138079441281</v>
       </c>
       <c r="F53">
-        <v>-0.000948518674549037</v>
+        <v>-0.000948518674549259</v>
       </c>
       <c r="G53">
-        <v>-0.0008066600115052</v>
+        <v>-0.000806660011505422</v>
       </c>
       <c r="H53">
-        <v>4.13472937447167e-05</v>
+        <v>4.13472937445571e-05</v>
       </c>
       <c r="I53">
-        <v>-0.00100914970533506</v>
+        <v>-0.00100914970533528</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -13703,16 +13703,16 @@
         <v>-0.000233496311983217</v>
       </c>
       <c r="F54">
-        <v>-0.000384421223222908</v>
+        <v>-0.000384421223223241</v>
       </c>
       <c r="G54">
-        <v>-0.000218492184084207</v>
+        <v>-0.00021849218408454</v>
       </c>
       <c r="H54">
-        <v>-0.000411301374615966</v>
+        <v>-0.000411301374615949</v>
       </c>
       <c r="I54">
-        <v>-0.0003873184351737</v>
+        <v>-0.000387318435174033</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -13732,16 +13732,16 @@
         <v>-0.000390968457624652</v>
       </c>
       <c r="F55">
-        <v>-0.000299480372500605</v>
+        <v>-0.000299480372501049</v>
       </c>
       <c r="G55">
-        <v>-0.000106334979761091</v>
+        <v>-0.000106334979761424</v>
       </c>
       <c r="H55">
-        <v>-0.000304067831221111</v>
+        <v>-0.000304067831221031</v>
       </c>
       <c r="I55">
-        <v>-0.00032386247635674</v>
+        <v>-0.000323862476357073</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -13761,16 +13761,16 @@
         <v>-0.000153477974020433</v>
       </c>
       <c r="F56">
-        <v>-0.000908992859214974</v>
+        <v>-0.000908992859215196</v>
       </c>
       <c r="G56">
-        <v>-0.00068539692945413</v>
+        <v>-0.000685396929454352</v>
       </c>
       <c r="H56">
-        <v>7.29897784932619e-05</v>
+        <v>7.29897784932931e-05</v>
       </c>
       <c r="I56">
-        <v>-5.657341674703e-05</v>
+        <v>-5.6573416747252e-05</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -13790,16 +13790,16 @@
         <v>-0.000272119396534265</v>
       </c>
       <c r="F57">
-        <v>-0.000415072749811785</v>
+        <v>-0.000415072749811896</v>
       </c>
       <c r="G57">
-        <v>-0.00015781309247509</v>
+        <v>-0.000157813092475312</v>
       </c>
       <c r="H57">
         <v>-0.00047024398110079</v>
       </c>
       <c r="I57">
-        <v>-0.000812800270762692</v>
+        <v>-0.000812800270762915</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -13825,7 +13825,7 @@
         <v>-0.000707102007312943</v>
       </c>
       <c r="H58">
-        <v>0.000264316951745086</v>
+        <v>0.000264316951745037</v>
       </c>
       <c r="I58">
         <v>-0.000804006148379499</v>
@@ -13848,16 +13848,16 @@
         <v>0.000467578401039503</v>
       </c>
       <c r="F59">
-        <v>-0.000825781719417606</v>
+        <v>-0.000825781719417495</v>
       </c>
       <c r="G59">
-        <v>-0.000492393574170857</v>
+        <v>-0.000492393574170635</v>
       </c>
       <c r="H59">
-        <v>-0.000146758694327072</v>
+        <v>-0.000146758694327051</v>
       </c>
       <c r="I59">
-        <v>-0.000220230393273124</v>
+        <v>-0.000220230393273013</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -13877,16 +13877,16 @@
         <v>-5.10477209481053e-05</v>
       </c>
       <c r="F60">
-        <v>-1.74966914228136e-05</v>
+        <v>-1.74966914231467e-05</v>
       </c>
       <c r="G60">
-        <v>-0.000642545865194966</v>
+        <v>-0.000642545865195299</v>
       </c>
       <c r="H60">
         <v>4.44319780988911e-05</v>
       </c>
       <c r="I60">
-        <v>-0.000224695602385139</v>
+        <v>-0.000224695602385472</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -13906,16 +13906,16 @@
         <v>-0.000484939322632272</v>
       </c>
       <c r="F61">
-        <v>-0.000668096432125398</v>
+        <v>-0.000668096432124732</v>
       </c>
       <c r="G61">
-        <v>-0.000250235221750605</v>
+        <v>-0.00025023522175005</v>
       </c>
       <c r="H61">
-        <v>-0.000345054636644221</v>
+        <v>-0.000345054636644276</v>
       </c>
       <c r="I61">
-        <v>5.11766309042594e-05</v>
+        <v>5.11766309048145e-05</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -13935,16 +13935,16 @@
         <v>0.000117870476170623</v>
       </c>
       <c r="F62">
-        <v>-0.000827089088840216</v>
+        <v>-0.00082708908884066</v>
       </c>
       <c r="G62">
-        <v>-0.000366024391842634</v>
+        <v>-0.000366024391843078</v>
       </c>
       <c r="H62">
-        <v>-0.000470012989275251</v>
+        <v>-0.00047001298927539</v>
       </c>
       <c r="I62">
-        <v>-0.000487928633016499</v>
+        <v>-0.000487928633016943</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -13964,16 +13964,16 @@
         <v>-6.5732071252711e-05</v>
       </c>
       <c r="F63">
-        <v>-0.000495518515705617</v>
+        <v>-0.000495518515705951</v>
       </c>
       <c r="G63">
-        <v>7.73696626177323e-06</v>
+        <v>7.73696626155118e-06</v>
       </c>
       <c r="H63">
         <v>-0.000472787188296228</v>
       </c>
       <c r="I63">
-        <v>0.00010215426047111</v>
+        <v>0.000102154260470888</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -13993,16 +13993,16 @@
         <v>-0.00036326281091803</v>
       </c>
       <c r="F64">
-        <v>-0.000619321416774343</v>
+        <v>-0.000619321416774121</v>
       </c>
       <c r="G64">
-        <v>-7.641166421124e-05</v>
+        <v>-7.6411664211018e-05</v>
       </c>
       <c r="H64">
-        <v>-0.000488421869444977</v>
+        <v>-0.000488421869445074</v>
       </c>
       <c r="I64">
-        <v>-0.000192696938809522</v>
+        <v>-0.0001926969388093</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -14022,16 +14022,16 @@
         <v>-0.000311873215153469</v>
       </c>
       <c r="F65">
-        <v>-8.12844958967274e-05</v>
+        <v>-8.12844958968384e-05</v>
       </c>
       <c r="G65">
-        <v>-0.000502927242080342</v>
+        <v>-0.000502927242080453</v>
       </c>
       <c r="H65">
-        <v>0.000354831906791725</v>
+        <v>0.000354831906791739</v>
       </c>
       <c r="I65">
-        <v>-0.000343945429300496</v>
+        <v>-0.000343945429300607</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -14051,16 +14051,16 @@
         <v>-0.000355486878788724</v>
       </c>
       <c r="F66">
-        <v>-0.000689959466823487</v>
+        <v>-0.000689959466823153</v>
       </c>
       <c r="G66">
-        <v>-8.2056991483892e-05</v>
+        <v>-8.205699148367e-05</v>
       </c>
       <c r="H66">
-        <v>-6.29364930525844e-05</v>
+        <v>-6.29364930524873e-05</v>
       </c>
       <c r="I66">
-        <v>-0.000280781414498499</v>
+        <v>-0.000280781414498221</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -14080,16 +14080,16 @@
         <v>0.00044923507569905</v>
       </c>
       <c r="F67">
-        <v>-0.000162464631634829</v>
+        <v>-0.000162464631634995</v>
       </c>
       <c r="G67">
-        <v>-0.000532455763314066</v>
+        <v>-0.000532455763314288</v>
       </c>
       <c r="H67">
-        <v>0.000148990684507799</v>
+        <v>0.000148990684507855</v>
       </c>
       <c r="I67">
-        <v>0.000108227603412281</v>
+        <v>0.000108227603412059</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -14109,16 +14109,16 @@
         <v>-0.000298236444898237</v>
       </c>
       <c r="F68">
-        <v>-9.54127862298204e-05</v>
+        <v>-9.54127862294318e-05</v>
       </c>
       <c r="G68">
-        <v>-0.000451848900296092</v>
+        <v>-0.000451848900295759</v>
       </c>
       <c r="H68">
         <v>-0.000105781986633302</v>
       </c>
       <c r="I68">
-        <v>-2.75640776100095e-05</v>
+        <v>-2.75640776096209e-05</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -14144,10 +14144,10 @@
         <v>-0.00026471879743456</v>
       </c>
       <c r="H69">
-        <v>9.09652188591237e-05</v>
+        <v>9.09652188589849e-05</v>
       </c>
       <c r="I69">
-        <v>-0.000504219294849062</v>
+        <v>-0.000504219294849007</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -14167,16 +14167,16 @@
         <v>-0.000443335785931254</v>
       </c>
       <c r="F70">
-        <v>0.000229276124900701</v>
+        <v>0.00022927612490059</v>
       </c>
       <c r="G70">
-        <v>-0.000125658808300289</v>
+        <v>-0.0001256588083004</v>
       </c>
       <c r="H70">
         <v>-0.000327058245259498</v>
       </c>
       <c r="I70">
-        <v>-0.000106421570043314</v>
+        <v>-0.000106421570043425</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -14196,16 +14196,16 @@
         <v>0.000451221115916667</v>
       </c>
       <c r="F71">
-        <v>-0.000374597593193582</v>
+        <v>-0.000374597593193304</v>
       </c>
       <c r="G71">
-        <v>0.000262392744011686</v>
+        <v>0.000262392744011963</v>
       </c>
       <c r="H71">
-        <v>-0.000410803513894914</v>
+        <v>-0.000410803513894942</v>
       </c>
       <c r="I71">
-        <v>0.000411183697186457</v>
+        <v>0.00041118369718679</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -14225,16 +14225,16 @@
         <v>-0.000427350443700902</v>
       </c>
       <c r="F72">
-        <v>0.000354462481306494</v>
+        <v>0.000354462481306383</v>
       </c>
       <c r="G72">
-        <v>-1.58795125183575e-05</v>
+        <v>-1.5879512518524e-05</v>
       </c>
       <c r="H72">
-        <v>-0.00019707762247817</v>
+        <v>-0.000197077622478198</v>
       </c>
       <c r="I72">
-        <v>0.000329785667825322</v>
+        <v>0.000329785667825155</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -14254,16 +14254,16 @@
         <v>0.000203562116602996</v>
       </c>
       <c r="F73">
-        <v>-0.000169247671169437</v>
+        <v>-0.00016924767116927</v>
       </c>
       <c r="G73">
-        <v>-0.000538401928166371</v>
+        <v>-0.000538401928166232</v>
       </c>
       <c r="H73">
         <v>0.000289346136107371</v>
       </c>
       <c r="I73">
-        <v>3.27437415570397e-06</v>
+        <v>3.27437415595377e-06</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -14289,10 +14289,10 @@
         <v>-3.10404686151289e-05</v>
       </c>
       <c r="H74">
-        <v>3.2969753456874e-05</v>
+        <v>3.29697534567908e-05</v>
       </c>
       <c r="I74">
-        <v>0.000119596176995015</v>
+        <v>0.000119596176995196</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -14312,16 +14312,16 @@
         <v>0.000394427677761655</v>
       </c>
       <c r="F75">
-        <v>8.31791982000007e-05</v>
+        <v>8.31791981998065e-05</v>
       </c>
       <c r="G75">
-        <v>-0.000248675314177216</v>
+        <v>-0.000248675314177438</v>
       </c>
       <c r="H75">
-        <v>2.45362608057298e-05</v>
+        <v>2.45362608055355e-05</v>
       </c>
       <c r="I75">
-        <v>-0.000190544456703828</v>
+        <v>-0.000190544456704252</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -14341,16 +14341,16 @@
         <v>-0.00034982439193243</v>
       </c>
       <c r="F76">
-        <v>-0.000490867963794328</v>
+        <v>-0.0004908679637943</v>
       </c>
       <c r="G76">
-        <v>0.000202012361217252</v>
+        <v>0.000202012361217307</v>
       </c>
       <c r="H76">
         <v>0.000258146367829476</v>
       </c>
       <c r="I76">
-        <v>-0.000424962838762255</v>
+        <v>-0.000424962838762102</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -14370,16 +14370,16 @@
         <v>-0.000294593307827995</v>
       </c>
       <c r="F77">
-        <v>0.000211341293647471</v>
+        <v>0.000211341293647138</v>
       </c>
       <c r="G77">
-        <v>-5.74064479044734e-05</v>
+        <v>-5.74064479047509e-05</v>
       </c>
       <c r="H77">
-        <v>-0.000271058199943136</v>
+        <v>-0.000271058199943275</v>
       </c>
       <c r="I77">
-        <v>-8.50961562324504e-05</v>
+        <v>-8.50961562327557e-05</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -14399,16 +14399,16 @@
         <v>-0.000305770358494328</v>
       </c>
       <c r="F78">
-        <v>-0.000224070662678488</v>
+        <v>-0.000224070662678655</v>
       </c>
       <c r="G78">
-        <v>-0.000431479055241379</v>
+        <v>-0.000431479055241546</v>
       </c>
       <c r="H78">
-        <v>-0.000568308496082415</v>
+        <v>-0.000568308496082387</v>
       </c>
       <c r="I78">
-        <v>-4.3119287218063e-05</v>
+        <v>-4.31192872183128e-05</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -14428,16 +14428,16 @@
         <v>-0.000174214028135111</v>
       </c>
       <c r="F79">
-        <v>-0.000537221577633473</v>
+        <v>-0.000537221577633418</v>
       </c>
       <c r="G79">
-        <v>-0.000664011056912384</v>
+        <v>-0.000664011056912273</v>
       </c>
       <c r="H79">
-        <v>-0.000639521427681589</v>
+        <v>-0.000639521427681533</v>
       </c>
       <c r="I79">
-        <v>-0.000146252940651681</v>
+        <v>-0.00014625294065157</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -14457,16 +14457,16 @@
         <v>0.000397324204421068</v>
       </c>
       <c r="F80">
-        <v>-0.000879511045638603</v>
+        <v>-0.000879511045638381</v>
       </c>
       <c r="G80">
-        <v>8.5091792678349e-05</v>
+        <v>8.50917926785155e-05</v>
       </c>
       <c r="H80">
-        <v>-0.000490488200852651</v>
+        <v>-0.000490488200852596</v>
       </c>
       <c r="I80">
-        <v>-0.000797631968915802</v>
+        <v>-0.00079763196891558</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -14486,13 +14486,13 @@
         <v>-0.000174776220674744</v>
       </c>
       <c r="F81">
-        <v>-0.00022860466915936</v>
+        <v>-0.000228604669159416</v>
       </c>
       <c r="G81">
-        <v>-0.000169627395782745</v>
+        <v>-0.000169627395782801</v>
       </c>
       <c r="H81">
-        <v>-0.000125092719340247</v>
+        <v>-0.000125092719340331</v>
       </c>
       <c r="I81">
         <v>-0.000328517749205559</v>
@@ -14515,16 +14515,16 @@
         <v>-0.000316677421949407</v>
       </c>
       <c r="F82">
-        <v>-0.000867449159542844</v>
+        <v>-0.000867449159543066</v>
       </c>
       <c r="G82">
-        <v>-0.000716967273864944</v>
+        <v>-0.000716967273865166</v>
       </c>
       <c r="H82">
-        <v>-0.000542865952011473</v>
+        <v>-0.000542865952011501</v>
       </c>
       <c r="I82">
-        <v>-4.85924387686465e-05</v>
+        <v>-4.85924387688685e-05</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -14544,16 +14544,16 @@
         <v>-0.000265979077951783</v>
       </c>
       <c r="F83">
-        <v>-0.000683820440810945</v>
+        <v>-0.000683820440810501</v>
       </c>
       <c r="G83">
-        <v>-0.000448727342186261</v>
+        <v>-0.000448727342185928</v>
       </c>
       <c r="H83">
-        <v>0.000263717937136004</v>
+        <v>0.000263717937136032</v>
       </c>
       <c r="I83">
-        <v>-0.000256345882848619</v>
+        <v>-0.000256345882848286</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -14579,7 +14579,7 @@
         <v>-2.44768192849687e-05</v>
       </c>
       <c r="H84">
-        <v>0.00031176241474945</v>
+        <v>0.000311762414749422</v>
       </c>
       <c r="I84">
         <v>-0.000240137602003143</v>
@@ -14602,16 +14602,16 @@
         <v>0.000411217140879216</v>
       </c>
       <c r="F85">
-        <v>-0.000334713197814307</v>
+        <v>-0.000334713197814196</v>
       </c>
       <c r="G85">
-        <v>-0.000959900877088193</v>
+        <v>-0.000959900877088082</v>
       </c>
       <c r="H85">
-        <v>-0.000370126533052878</v>
+        <v>-0.000370126533052906</v>
       </c>
       <c r="I85">
-        <v>-0.000276067836351035</v>
+        <v>-0.000276067836350924</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -14631,16 +14631,16 @@
         <v>0.000362279658894238</v>
       </c>
       <c r="F86">
-        <v>-0.000102692543249461</v>
+        <v>-0.000102692543249128</v>
       </c>
       <c r="G86">
-        <v>-0.00067438852718793</v>
+        <v>-0.000674388527187375</v>
       </c>
       <c r="H86">
-        <v>0.000259156917559789</v>
+        <v>0.000259156917559927</v>
       </c>
       <c r="I86">
-        <v>-0.000624520561497643</v>
+        <v>-0.000624520561497199</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -14660,16 +14660,16 @@
         <v>-7.55495523634409e-05</v>
       </c>
       <c r="F87">
-        <v>-0.00098814182671414</v>
+        <v>-0.000988141826714362</v>
       </c>
       <c r="G87">
-        <v>-0.000516955553835241</v>
+        <v>-0.000516955553835463</v>
       </c>
       <c r="H87">
         <v>0.000253073528860032</v>
       </c>
       <c r="I87">
-        <v>-0.000526254831949458</v>
+        <v>-0.00052625483194968</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -14689,16 +14689,16 @@
         <v>-4.31346467237859e-05</v>
       </c>
       <c r="F88">
-        <v>-0.000285011982057548</v>
+        <v>-0.000285011982057215</v>
       </c>
       <c r="G88">
-        <v>-0.000780611603105608</v>
+        <v>-0.000780611603105386</v>
       </c>
       <c r="H88">
-        <v>-0.0003239286514439</v>
+        <v>-0.000323928651443955</v>
       </c>
       <c r="I88">
-        <v>-0.000198652841928659</v>
+        <v>-0.000198652841928326</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -14747,16 +14747,16 @@
         <v>-0.000178204503271218</v>
       </c>
       <c r="F90">
-        <v>-5.74146622873695e-05</v>
+        <v>-5.74146622875915e-05</v>
       </c>
       <c r="G90">
         <v>-0.000510238375551086</v>
       </c>
       <c r="H90">
-        <v>0.000105831216064611</v>
+        <v>0.000105831216064667</v>
       </c>
       <c r="I90">
-        <v>-0.000590700490442186</v>
+        <v>-0.000590700490442297</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -14782,7 +14782,7 @@
         <v>-0.000344460095707211</v>
       </c>
       <c r="H91">
-        <v>0.000268926913450901</v>
+        <v>0.000268926913451095</v>
       </c>
       <c r="I91">
         <v>-0.000606417555512495</v>
@@ -14805,13 +14805,13 @@
         <v>-2.38198057900263e-06</v>
       </c>
       <c r="F92">
-        <v>-0.00091372148540847</v>
+        <v>-0.000913721485408692</v>
       </c>
       <c r="G92">
         <v>-0.000345128271467487</v>
       </c>
       <c r="H92">
-        <v>0.000164953773897886</v>
+        <v>0.000164953773897941</v>
       </c>
       <c r="I92">
         <v>-0.000985699789329164</v>
@@ -14834,16 +14834,16 @@
         <v>-0.00043743118424544</v>
       </c>
       <c r="F93">
-        <v>-0.000190952244798259</v>
+        <v>-0.000190952244797815</v>
       </c>
       <c r="G93">
-        <v>-0.000615856626145161</v>
+        <v>-0.000615856626144939</v>
       </c>
       <c r="H93">
         <v>-0.000139861542476222</v>
       </c>
       <c r="I93">
-        <v>-0.000809952948797044</v>
+        <v>-0.000809952948796822</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -14863,16 +14863,16 @@
         <v>-0.000363468783017851</v>
       </c>
       <c r="F94">
-        <v>-0.000819143021808966</v>
+        <v>-0.000819143021809188</v>
       </c>
       <c r="G94">
         <v>-0.000238462603020073</v>
       </c>
       <c r="H94">
-        <v>0.000408382754019249</v>
+        <v>0.000408382754019276</v>
       </c>
       <c r="I94">
-        <v>-0.000141165263566556</v>
+        <v>-0.000141165263566778</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -14892,16 +14892,16 @@
         <v>-0.000503406560977027</v>
       </c>
       <c r="F95">
-        <v>-0.000867250381707096</v>
+        <v>-0.000867250381706874</v>
       </c>
       <c r="G95">
-        <v>-0.000280592735973251</v>
+        <v>-0.000280592735972807</v>
       </c>
       <c r="H95">
-        <v>-0.000151580286789355</v>
+        <v>-0.00015158028678941</v>
       </c>
       <c r="I95">
-        <v>-2.88369047383163e-05</v>
+        <v>-2.88369047378723e-05</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -14927,7 +14927,7 @@
         <v>-0.000804546796215666</v>
       </c>
       <c r="H96">
-        <v>0.000202654994374801</v>
+        <v>0.000202654994374718</v>
       </c>
       <c r="I96">
         <v>-0.000518543738908361</v>
@@ -14950,16 +14950,16 @@
         <v>-0.000440240682024751</v>
       </c>
       <c r="F97">
-        <v>-0.000481879127664619</v>
+        <v>-0.000481879127664175</v>
       </c>
       <c r="G97">
-        <v>-0.000877088896443334</v>
+        <v>-0.00087708889644289</v>
       </c>
       <c r="H97">
-        <v>0.000478403177099213</v>
+        <v>0.000478403177099296</v>
       </c>
       <c r="I97">
-        <v>-0.00066182156127792</v>
+        <v>-0.000661821561277476</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -14979,16 +14979,16 @@
         <v>-0.000220743654260502</v>
       </c>
       <c r="F98">
-        <v>-0.000199371059059095</v>
+        <v>-0.000199371059058651</v>
       </c>
       <c r="G98">
-        <v>-0.000579901507644642</v>
+        <v>-0.000579901507644198</v>
       </c>
       <c r="H98">
-        <v>-0.000327560198901233</v>
+        <v>-0.000327560198901178</v>
       </c>
       <c r="I98">
-        <v>-0.000526960025176271</v>
+        <v>-0.000526960025175827</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -15011,13 +15011,13 @@
         <v>-0.000659933329487661</v>
       </c>
       <c r="G99">
-        <v>-2.02228029206886e-05</v>
+        <v>-2.02228029204665e-05</v>
       </c>
       <c r="H99">
-        <v>-0.000219831773462187</v>
+        <v>-0.000219831773462145</v>
       </c>
       <c r="I99">
-        <v>-0.000210206781106503</v>
+        <v>-0.000210206781106281</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -15037,7 +15037,7 @@
         <v>-2.22824470483829e-05</v>
       </c>
       <c r="F100">
-        <v>-8.1901793991257e-06</v>
+        <v>-8.19017939934774e-06</v>
       </c>
       <c r="G100">
         <v>-0.000341105823164156</v>
@@ -15066,16 +15066,16 @@
         <v>0.000252215666002087</v>
       </c>
       <c r="F101">
-        <v>-0.000434065917079618</v>
+        <v>-0.000434065917079174</v>
       </c>
       <c r="G101">
-        <v>-0.000730648956694502</v>
+        <v>-0.00073064895669428</v>
       </c>
       <c r="H101">
-        <v>-0.000184762545713382</v>
+        <v>-0.000184762545713396</v>
       </c>
       <c r="I101">
-        <v>-0.000621158217343654</v>
+        <v>-0.000621158217343432</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -15101,7 +15101,7 @@
         <v>-0.000429473510643819</v>
       </c>
       <c r="H102">
-        <v>-8.06253858671169e-05</v>
+        <v>-8.06253858670614e-05</v>
       </c>
       <c r="I102">
         <v>0.000224491871749111</v>
@@ -15124,16 +15124,16 @@
         <v>-0.000116719317180269</v>
       </c>
       <c r="F103">
-        <v>-0.000547682596783616</v>
+        <v>-0.000547682596783394</v>
       </c>
       <c r="G103">
-        <v>0.000264327878815473</v>
+        <v>0.000264327878815696</v>
       </c>
       <c r="H103">
-        <v>0.000385877715832719</v>
+        <v>0.00038587771583258</v>
       </c>
       <c r="I103">
-        <v>-0.000616099931871839</v>
+        <v>-0.000616099931871616</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -15159,7 +15159,7 @@
         <v>-6.43254548871042e-06</v>
       </c>
       <c r="H104">
-        <v>-0.000315577026447286</v>
+        <v>-0.000315577026447258</v>
       </c>
       <c r="I104">
         <v>-0.000516181129410098</v>
@@ -15188,7 +15188,7 @@
         <v>0.000344429105967992</v>
       </c>
       <c r="H105">
-        <v>-0.000441276625542275</v>
+        <v>-0.000441276625542136</v>
       </c>
       <c r="I105">
         <v>8.51767875673648e-05</v>
@@ -15211,16 +15211,16 @@
         <v>-0.000134523431437827</v>
       </c>
       <c r="F106">
-        <v>-0.0002577016413432</v>
+        <v>-0.000257701641342756</v>
       </c>
       <c r="G106">
-        <v>-0.000146305987337891</v>
+        <v>-0.000146305987337225</v>
       </c>
       <c r="H106">
-        <v>1.32367954765733e-05</v>
+        <v>1.323679547649e-05</v>
       </c>
       <c r="I106">
-        <v>-0.000310771991010927</v>
+        <v>-0.000310771991010483</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -15240,16 +15240,16 @@
         <v>-0.000234585854443026</v>
       </c>
       <c r="F107">
-        <v>-0.000243239720634891</v>
+        <v>-0.000243239720634225</v>
       </c>
       <c r="G107">
-        <v>2.12078631223189e-05</v>
+        <v>2.1207863122763e-05</v>
       </c>
       <c r="H107">
-        <v>0.000106874678448998</v>
+        <v>0.000106874678449026</v>
       </c>
       <c r="I107">
-        <v>-0.000250625009578842</v>
+        <v>-0.000250625009578176</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -15269,16 +15269,16 @@
         <v>4.98596767819492e-05</v>
       </c>
       <c r="F108">
-        <v>-0.000125654202971504</v>
+        <v>-0.000125654202972392</v>
       </c>
       <c r="G108">
-        <v>0.00032778340912154</v>
+        <v>0.000327783409120652</v>
       </c>
       <c r="H108">
-        <v>-0.000440090067715823</v>
+        <v>-0.00044009006771592</v>
       </c>
       <c r="I108">
-        <v>-0.000310907954400585</v>
+        <v>-0.000310907954401474</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -15298,16 +15298,16 @@
         <v>0.000269977111951647</v>
       </c>
       <c r="F109">
-        <v>0.000572979933917805</v>
+        <v>0.00057297993391825</v>
       </c>
       <c r="G109">
-        <v>0.000258335916436092</v>
+        <v>0.000258335916436536</v>
       </c>
       <c r="H109">
-        <v>-0.000539089963564901</v>
+        <v>-0.000539089963564804</v>
       </c>
       <c r="I109">
-        <v>-7.40377044512464e-05</v>
+        <v>-7.40377044508023e-05</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -15327,16 +15327,16 @@
         <v>-0.000352452720353114</v>
       </c>
       <c r="F110">
-        <v>0.000361309260772158</v>
+        <v>0.000361309260772602</v>
       </c>
       <c r="G110">
-        <v>0.000329560815333974</v>
+        <v>0.000329560815334418</v>
       </c>
       <c r="H110">
-        <v>0.000335140155483138</v>
+        <v>0.000335140155483152</v>
       </c>
       <c r="I110">
-        <v>-9.87253854667358e-05</v>
+        <v>-9.87253854662917e-05</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -15356,16 +15356,16 @@
         <v>-0.000131831458560328</v>
       </c>
       <c r="F111">
-        <v>-0.000190388083987747</v>
+        <v>-0.000190388083987525</v>
       </c>
       <c r="G111">
-        <v>0.000120923603956546</v>
+        <v>0.000120923603956768</v>
       </c>
       <c r="H111">
-        <v>-0.00057377425040947</v>
+        <v>-0.000573774250409387</v>
       </c>
       <c r="I111">
-        <v>0.000113942442599324</v>
+        <v>0.000113942442599546</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -15385,16 +15385,16 @@
         <v>0.000464774912611432</v>
       </c>
       <c r="F112">
-        <v>0.000582256580840212</v>
+        <v>0.000582256580840879</v>
       </c>
       <c r="G112">
-        <v>0.000307212017622183</v>
+        <v>0.000307212017623071</v>
       </c>
       <c r="H112">
-        <v>-8.4959963043113e-05</v>
+        <v>-8.49599630430575e-05</v>
       </c>
       <c r="I112">
-        <v>0.000156774539283644</v>
+        <v>0.000156774539284532</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -15414,16 +15414,16 @@
         <v>-5.12471330083031e-05</v>
       </c>
       <c r="F113">
-        <v>0.000469507497246058</v>
+        <v>0.000469507497246502</v>
       </c>
       <c r="G113">
-        <v>0.000690496312318434</v>
+        <v>0.000690496312318878</v>
       </c>
       <c r="H113">
-        <v>6.7013084411871e-06</v>
+        <v>6.70130844124261e-06</v>
       </c>
       <c r="I113">
-        <v>0.000752463070824883</v>
+        <v>0.000752463070825105</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -15443,16 +15443,16 @@
         <v>-0.000338682910658861</v>
       </c>
       <c r="F114">
-        <v>0.0004162439148232</v>
+        <v>0.000416243914822978</v>
       </c>
       <c r="G114">
-        <v>0.000229168585453188</v>
+        <v>0.000229168585452966</v>
       </c>
       <c r="H114">
-        <v>-5.41301785186021e-05</v>
+        <v>-5.41301785185466e-05</v>
       </c>
       <c r="I114">
-        <v>0.000786202961194249</v>
+        <v>0.000786202961194027</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -15472,16 +15472,16 @@
         <v>0.000382214024348571</v>
       </c>
       <c r="F115">
-        <v>0.000545242142671043</v>
+        <v>0.000545242142671487</v>
       </c>
       <c r="G115">
-        <v>6.19009989799579e-05</v>
+        <v>6.1900998980402e-05</v>
       </c>
       <c r="H115">
         <v>1.53761620592385e-05</v>
       </c>
       <c r="I115">
-        <v>0.000331775046896521</v>
+        <v>0.000331775046896965</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -15501,16 +15501,16 @@
         <v>-0.000110280374357785</v>
       </c>
       <c r="F116">
-        <v>0.000173137521713107</v>
+        <v>0.000173137521713773</v>
       </c>
       <c r="G116">
-        <v>0.000524975234638125</v>
+        <v>0.000524975234639014</v>
       </c>
       <c r="H116">
-        <v>-0.000459185818119129</v>
+        <v>-0.000459185818119212</v>
       </c>
       <c r="I116">
-        <v>0.000668355043868418</v>
+        <v>0.000668355043869306</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -15530,13 +15530,13 @@
         <v>1.68983660202571e-05</v>
       </c>
       <c r="F117">
-        <v>0.000818085643480515</v>
+        <v>0.000818085643480293</v>
       </c>
       <c r="G117">
         <v>0.00116256715161156</v>
       </c>
       <c r="H117">
-        <v>-9.49563071236947e-05</v>
+        <v>-9.49563071236392e-05</v>
       </c>
       <c r="I117">
         <v>0.00028635479367245</v>
@@ -15559,16 +15559,16 @@
         <v>-0.000141721540884987</v>
       </c>
       <c r="F118">
-        <v>0.00119947673022258</v>
+        <v>0.0011994767302228</v>
       </c>
       <c r="G118">
-        <v>0.00073128079242557</v>
+        <v>0.000731280792426015</v>
       </c>
       <c r="H118">
         <v>-0.000430518444022254</v>
       </c>
       <c r="I118">
-        <v>0.000882332518590712</v>
+        <v>0.000882332518591156</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -15588,16 +15588,16 @@
         <v>-0.000175219494884971</v>
       </c>
       <c r="F119">
-        <v>0.00123178376833977</v>
+        <v>0.00123178376833999</v>
       </c>
       <c r="G119">
-        <v>0.00120259027393899</v>
+        <v>0.00120259027393921</v>
       </c>
       <c r="H119">
-        <v>9.70551150791255e-05</v>
+        <v>9.70551150790699e-05</v>
       </c>
       <c r="I119">
-        <v>0.00134551480634415</v>
+        <v>0.00134551480634437</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -15617,16 +15617,16 @@
         <v>0.000285528081626296</v>
       </c>
       <c r="F120">
-        <v>0.00101666806677536</v>
+        <v>0.00101666806677547</v>
       </c>
       <c r="G120">
-        <v>0.000770017183349236</v>
+        <v>0.000770017183349569</v>
       </c>
       <c r="H120">
         <v>0.000171516742218381</v>
       </c>
       <c r="I120">
-        <v>0.000742010136187354</v>
+        <v>0.000742010136187687</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -15646,16 +15646,16 @@
         <v>-0.00040448905827617</v>
       </c>
       <c r="F121">
-        <v>0.000839696582125904</v>
+        <v>0.000839696582126903</v>
       </c>
       <c r="G121">
-        <v>0.000872127729786509</v>
+        <v>0.000872127729787509</v>
       </c>
       <c r="H121">
-        <v>-0.000391607949345008</v>
+        <v>-0.000391607949344952</v>
       </c>
       <c r="I121">
-        <v>0.00130813037535471</v>
+        <v>0.00130813037535571</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -15675,16 +15675,16 @@
         <v>0.000392621578811259</v>
       </c>
       <c r="F122">
-        <v>0.00118018178804657</v>
+        <v>0.00118018178804702</v>
       </c>
       <c r="G122">
-        <v>0.00124811175839457</v>
+        <v>0.00124811175839512</v>
       </c>
       <c r="H122">
-        <v>0.000353914853021497</v>
+        <v>0.000353914853021553</v>
       </c>
       <c r="I122">
-        <v>0.00147349466641855</v>
+        <v>0.00147349466641911</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -15710,7 +15710,7 @@
         <v>0.00104940232540507</v>
       </c>
       <c r="H123">
-        <v>-0.000530091126725918</v>
+        <v>-0.000530091126725862</v>
       </c>
       <c r="I123">
         <v>0.000953358926271242</v>
@@ -15733,16 +15733,16 @@
         <v>9.02962402165031e-05</v>
       </c>
       <c r="F124">
-        <v>0.000531940386609087</v>
+        <v>0.000531940386609753</v>
       </c>
       <c r="G124">
-        <v>0.00103385944665557</v>
+        <v>0.00103385944665624</v>
       </c>
       <c r="H124">
-        <v>0.000104758316744946</v>
+        <v>0.000104758316744891</v>
       </c>
       <c r="I124">
-        <v>0.000992123671298306</v>
+        <v>0.000992123671299194</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -15762,16 +15762,16 @@
         <v>-0.000362173038240599</v>
       </c>
       <c r="F125">
-        <v>0.000957554659734128</v>
+        <v>0.00095755465973435</v>
       </c>
       <c r="G125">
-        <v>0.000847589094640333</v>
+        <v>0.000847589094640555</v>
       </c>
       <c r="H125">
         <v>-0.000546711791490517</v>
       </c>
       <c r="I125">
-        <v>0.000938242728488969</v>
+        <v>0.000938242728489136</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -15791,16 +15791,16 @@
         <v>-0.000272441636454346</v>
       </c>
       <c r="F126">
-        <v>0.00112823484748303</v>
+        <v>0.00112823484748314</v>
       </c>
       <c r="G126">
-        <v>0.0012884282218848</v>
+        <v>0.00128842822188485</v>
       </c>
       <c r="H126">
         <v>-0.000288808033344079</v>
       </c>
       <c r="I126">
-        <v>0.00151306270851681</v>
+        <v>0.00151306270851692</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -15820,16 +15820,16 @@
         <v>0.000238833599425448</v>
       </c>
       <c r="F127">
-        <v>0.000142663320412628</v>
+        <v>0.000142663320412351</v>
       </c>
       <c r="G127">
         <v>0.000134115108967103</v>
       </c>
       <c r="H127">
-        <v>3.18785436642655e-05</v>
+        <v>3.18785436641544e-05</v>
       </c>
       <c r="I127">
-        <v>0.00102183782163678</v>
+        <v>0.00102183782163695</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -15849,16 +15849,16 @@
         <v>-0.000134156090311421</v>
       </c>
       <c r="F128">
-        <v>-0.000436262480633776</v>
+        <v>-0.000436262480633831</v>
       </c>
       <c r="G128">
-        <v>0.000755166952625119</v>
+        <v>0.000755166952625008</v>
       </c>
       <c r="H128">
-        <v>-0.000505674780727883</v>
+        <v>-0.000505674780727938</v>
       </c>
       <c r="I128">
-        <v>0.000593176903967596</v>
+        <v>0.000593176903967485</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -15878,16 +15878,16 @@
         <v>-0.000375120098382808</v>
       </c>
       <c r="F129">
-        <v>-0.000459405227261733</v>
+        <v>-0.000459405227261567</v>
       </c>
       <c r="G129">
-        <v>0.000442875946154109</v>
+        <v>0.000442875946154497</v>
       </c>
       <c r="H129">
-        <v>8.89901759494327e-05</v>
+        <v>8.89901759496547e-05</v>
       </c>
       <c r="I129">
-        <v>7.68802286829628e-05</v>
+        <v>7.68802286832959e-05</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -15907,16 +15907,16 @@
         <v>8.61704676964337e-05</v>
       </c>
       <c r="F130">
-        <v>-0.000946150767349108</v>
+        <v>-0.000946150767348719</v>
       </c>
       <c r="G130">
-        <v>-0.000291350022014469</v>
+        <v>-0.00029135002201397</v>
       </c>
       <c r="H130">
-        <v>-0.000274900029356595</v>
+        <v>-0.000274900029356651</v>
       </c>
       <c r="I130">
-        <v>-0.000976901522154128</v>
+        <v>-0.000976901522153406</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -15936,16 +15936,16 @@
         <v>0.000276476666570602</v>
       </c>
       <c r="F131">
-        <v>-0.00129362910485764</v>
+        <v>-0.00129362910485742</v>
       </c>
       <c r="G131">
-        <v>-0.000296984005251577</v>
+        <v>-0.000296984005251022</v>
       </c>
       <c r="H131">
         <v>0.000257721072532746</v>
       </c>
       <c r="I131">
-        <v>-0.00065891538931423</v>
+        <v>-0.000658915389313619</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -15965,16 +15965,16 @@
         <v>6.95207591832059e-05</v>
       </c>
       <c r="F132">
-        <v>-0.000669235719150896</v>
+        <v>-0.000669235719150452</v>
       </c>
       <c r="G132">
-        <v>-0.000981325411448464</v>
+        <v>-0.00098132541144802</v>
       </c>
       <c r="H132">
-        <v>-0.000471396467239815</v>
+        <v>-0.00047139646723976</v>
       </c>
       <c r="I132">
-        <v>-0.00100762936510262</v>
+        <v>-0.00100762936510213</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -15994,13 +15994,13 @@
         <v>-0.000209521157295001</v>
       </c>
       <c r="F133">
-        <v>-0.00160937292364405</v>
+        <v>-0.00160937292364416</v>
       </c>
       <c r="G133">
         <v>-0.000683593148472106</v>
       </c>
       <c r="H133">
-        <v>0.000412275829786868</v>
+        <v>0.000412275829786812</v>
       </c>
       <c r="I133">
         <v>-0.00114657211607561</v>
@@ -16023,16 +16023,16 @@
         <v>-0.000275522737567258</v>
       </c>
       <c r="F134">
-        <v>-0.000759329704734246</v>
+        <v>-0.000759329704734357</v>
       </c>
       <c r="G134">
-        <v>-0.00140709087996915</v>
+        <v>-0.00140709087996926</v>
       </c>
       <c r="H134">
-        <v>-0.000141204785620241</v>
+        <v>-0.00014120478562013</v>
       </c>
       <c r="I134">
-        <v>-0.00162230197074931</v>
+        <v>-0.00162230197074942</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -16052,16 +16052,16 @@
         <v>0.000239941811464917</v>
       </c>
       <c r="F135">
-        <v>-0.00121473672886219</v>
+        <v>-0.00121473672886208</v>
       </c>
       <c r="G135">
-        <v>-0.00108589528964231</v>
+        <v>-0.0010858952896422</v>
       </c>
       <c r="H135">
-        <v>-7.3528872457318e-05</v>
+        <v>-7.3528872457429e-05</v>
       </c>
       <c r="I135">
-        <v>-0.00174054061869566</v>
+        <v>-0.00174054061869544</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -16081,7 +16081,7 @@
         <v>0.000306280610693932</v>
       </c>
       <c r="F136">
-        <v>-0.00165662952626255</v>
+        <v>-0.00165662952626267</v>
       </c>
       <c r="G136">
         <v>-0.000893585404371233</v>
@@ -16090,7 +16090,7 @@
         <v>-0.000199161856017094</v>
       </c>
       <c r="I136">
-        <v>-0.00116009122433014</v>
+        <v>-0.00116009122433025</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -16116,7 +16116,7 @@
         <v>-0.00146170618711639</v>
       </c>
       <c r="H137">
-        <v>-0.000200706859027566</v>
+        <v>-0.000200706859027483</v>
       </c>
       <c r="I137">
         <v>-0.0011407476411881</v>
@@ -16139,16 +16139,16 @@
         <v>-1.84709125008453e-05</v>
       </c>
       <c r="F138">
-        <v>-0.0015766369904967</v>
+        <v>-0.00157663699049693</v>
       </c>
       <c r="G138">
-        <v>-0.00101143847277518</v>
+        <v>-0.00101143847277529</v>
       </c>
       <c r="H138">
-        <v>0.000363677356541525</v>
+        <v>0.000363677356541553</v>
       </c>
       <c r="I138">
-        <v>-0.00164121445713028</v>
+        <v>-0.00164121445713039</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -16168,16 +16168,16 @@
         <v>5.65043890503603e-05</v>
       </c>
       <c r="F139">
-        <v>-0.00188191451280328</v>
+        <v>-0.00188191451280351</v>
       </c>
       <c r="G139">
-        <v>-0.00142836283118708</v>
+        <v>-0.00142836283118752</v>
       </c>
       <c r="H139">
         <v>4.57374293046098e-05</v>
       </c>
       <c r="I139">
-        <v>-0.00135437699570884</v>
+        <v>-0.00135437699570917</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -16197,16 +16197,16 @@
         <v>-3.92049632083058e-05</v>
       </c>
       <c r="F140">
-        <v>-0.0018679413751872</v>
+        <v>-0.00186794137518698</v>
       </c>
       <c r="G140">
-        <v>-0.0013059985265873</v>
+        <v>-0.00130599852658708</v>
       </c>
       <c r="H140">
-        <v>-0.000506503494439675</v>
+        <v>-0.000506503494439758</v>
       </c>
       <c r="I140">
-        <v>-0.00171988125538114</v>
+        <v>-0.00171988125538092</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -16232,7 +16232,7 @@
         <v>-0.00197521288511626</v>
       </c>
       <c r="H141">
-        <v>0.00045175782628426</v>
+        <v>0.000451757826284219</v>
       </c>
       <c r="I141">
         <v>-0.00193288973079864</v>
@@ -16284,16 +16284,16 @@
         <v>-0.000266475922604315</v>
       </c>
       <c r="F143">
-        <v>-0.00164720870340451</v>
+        <v>-0.00164720870340496</v>
       </c>
       <c r="G143">
-        <v>-0.0018518866306334</v>
+        <v>-0.00185188663063385</v>
       </c>
       <c r="H143">
-        <v>-0.000321877218430786</v>
+        <v>-0.000321877218430855</v>
       </c>
       <c r="I143">
-        <v>-0.00154847750513887</v>
+        <v>-0.00154847750513931</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -16313,16 +16313,16 @@
         <v>-0.000145722081626332</v>
       </c>
       <c r="F144">
-        <v>-0.00106338772439041</v>
+        <v>-0.00106338772439085</v>
       </c>
       <c r="G144">
-        <v>-0.00164364926660054</v>
+        <v>-0.00164364926660099</v>
       </c>
       <c r="H144">
-        <v>-0.000267874542391272</v>
+        <v>-0.000267874542391307</v>
       </c>
       <c r="I144">
-        <v>-0.00127924347787234</v>
+        <v>-0.00127924347787278</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -16345,13 +16345,13 @@
         <v>-0.00157697701701376</v>
       </c>
       <c r="G145">
-        <v>-0.00145763535654075</v>
+        <v>-0.00145763535654053</v>
       </c>
       <c r="H145">
-        <v>0.000281705889070602</v>
+        <v>0.000281705889070748</v>
       </c>
       <c r="I145">
-        <v>-0.00157733823836081</v>
+        <v>-0.00157733823836059</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -16371,13 +16371,13 @@
         <v>-0.00026864570247298</v>
       </c>
       <c r="F146">
-        <v>-0.00161223974357805</v>
+        <v>-0.00161223974357783</v>
       </c>
       <c r="G146">
         <v>-0.00173202808063166</v>
       </c>
       <c r="H146">
-        <v>0.000100671417584811</v>
+        <v>0.000100671417584748</v>
       </c>
       <c r="I146">
         <v>-0.00176146874634564</v>
@@ -16400,13 +16400,13 @@
         <v>-0.000124076166619247</v>
       </c>
       <c r="F147">
-        <v>-0.00151532044861336</v>
+        <v>-0.00151532044861358</v>
       </c>
       <c r="G147">
         <v>-0.00182456068891623</v>
       </c>
       <c r="H147">
-        <v>-0.000163648744801043</v>
+        <v>-0.000163648744801112</v>
       </c>
       <c r="I147">
         <v>-0.00107919406485535</v>
@@ -16429,13 +16429,13 @@
         <v>0.000431877850319395</v>
       </c>
       <c r="F148">
-        <v>-0.00158619934154514</v>
+        <v>-0.00158619934154491</v>
       </c>
       <c r="G148">
         <v>-0.00104485129009535</v>
       </c>
       <c r="H148">
-        <v>-1.46464631346765e-06</v>
+        <v>-1.46464631333582e-06</v>
       </c>
       <c r="I148">
         <v>-0.00174214133571526</v>
@@ -16458,16 +16458,16 @@
         <v>0.000357199150601062</v>
       </c>
       <c r="F149">
-        <v>-0.00110748466370958</v>
+        <v>-0.00110748466371002</v>
       </c>
       <c r="G149">
-        <v>-0.00168348266906393</v>
+        <v>-0.00168348266906415</v>
       </c>
       <c r="H149">
-        <v>-7.95543279822619e-05</v>
+        <v>-7.95543279822064e-05</v>
       </c>
       <c r="I149">
-        <v>-0.0019569949222602</v>
+        <v>-0.00195699492226065</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -16487,16 +16487,16 @@
         <v>-0.000419046552790903</v>
       </c>
       <c r="F150">
-        <v>-0.00136898536456309</v>
+        <v>-0.00136898536456376</v>
       </c>
       <c r="G150">
-        <v>-0.0010368135447425</v>
+        <v>-0.00103681354474316</v>
       </c>
       <c r="H150">
-        <v>0.000249708048435535</v>
+        <v>0.000249708048435437</v>
       </c>
       <c r="I150">
-        <v>-0.00195113133494429</v>
+        <v>-0.00195113133494496</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -16516,16 +16516,16 @@
         <v>-9.22580515183569e-06</v>
       </c>
       <c r="F151">
-        <v>-0.00168751458243288</v>
+        <v>-0.0016875145824331</v>
       </c>
       <c r="G151">
-        <v>-0.00142699162947579</v>
+        <v>-0.00142699162947602</v>
       </c>
       <c r="H151">
-        <v>0.000401631081199449</v>
+        <v>0.000401631081199338</v>
       </c>
       <c r="I151">
-        <v>-0.00199245306898099</v>
+        <v>-0.00199245306898121</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -16545,16 +16545,16 @@
         <v>-0.000480697811088504</v>
       </c>
       <c r="F152">
-        <v>-0.00142182816104786</v>
+        <v>-0.00142182816104841</v>
       </c>
       <c r="G152">
-        <v>-0.00121708028860024</v>
+        <v>-0.00121708028860068</v>
       </c>
       <c r="H152">
-        <v>0.000168508919042146</v>
+        <v>0.00016850891904209</v>
       </c>
       <c r="I152">
-        <v>-0.00140353305141661</v>
+        <v>-0.00140353305141705</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -16574,16 +16574,16 @@
         <v>0.000157699338195427</v>
       </c>
       <c r="F153">
-        <v>-0.00198295936970405</v>
+        <v>-0.00198295936970461</v>
       </c>
       <c r="G153">
-        <v>-0.00182156202169281</v>
+        <v>-0.00182156202169359</v>
       </c>
       <c r="H153">
-        <v>-0.000471193309410325</v>
+        <v>-0.000471193309410409</v>
       </c>
       <c r="I153">
-        <v>-0.00157058137878319</v>
+        <v>-0.00157058137878385</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -16603,16 +16603,16 @@
         <v>-0.000171631114915693</v>
       </c>
       <c r="F154">
-        <v>-0.00184045599283611</v>
+        <v>-0.00184045599283578</v>
       </c>
       <c r="G154">
-        <v>-0.00171272507712228</v>
+        <v>-0.00171272507712206</v>
       </c>
       <c r="H154">
-        <v>-0.000444501453100626</v>
+        <v>-0.00044450145310064</v>
       </c>
       <c r="I154">
-        <v>-0.00194798654907735</v>
+        <v>-0.00194798654907713</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -16635,13 +16635,13 @@
         <v>-0.00152516401289271</v>
       </c>
       <c r="G155">
-        <v>-0.00142357739008969</v>
+        <v>-0.00142357739008958</v>
       </c>
       <c r="H155">
-        <v>0.000368952985455764</v>
+        <v>0.000368952985455737</v>
       </c>
       <c r="I155">
-        <v>-0.00105928656470755</v>
+        <v>-0.00105928656470744</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -16661,16 +16661,16 @@
         <v>0.000486816766012144</v>
       </c>
       <c r="F156">
-        <v>-0.00162925050558682</v>
+        <v>-0.00162925050558727</v>
       </c>
       <c r="G156">
-        <v>-0.00154798092251773</v>
+        <v>-0.00154798092251818</v>
       </c>
       <c r="H156">
-        <v>0.000110814193100633</v>
+        <v>0.000110814193100717</v>
       </c>
       <c r="I156">
-        <v>-0.0014954241429681</v>
+        <v>-0.00149542414296855</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -16690,16 +16690,16 @@
         <v>0.000269157272098752</v>
       </c>
       <c r="F157">
-        <v>-0.00180413969908089</v>
+        <v>-0.00180413969908111</v>
       </c>
       <c r="G157">
-        <v>-0.00173868143375222</v>
+        <v>-0.00173868143375244</v>
       </c>
       <c r="H157">
-        <v>-7.13011858397561e-05</v>
+        <v>-7.13011858398532e-05</v>
       </c>
       <c r="I157">
-        <v>-0.00191106953761988</v>
+        <v>-0.0019110695376201</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -16719,16 +16719,16 @@
         <v>-0.000246508035589343</v>
       </c>
       <c r="F158">
-        <v>-0.00175697320760759</v>
+        <v>-0.00175697320760748</v>
       </c>
       <c r="G158">
-        <v>-0.00170384626762698</v>
+        <v>-0.00170384626762687</v>
       </c>
       <c r="H158">
-        <v>-3.2992220274336e-05</v>
+        <v>-3.29922202744193e-05</v>
       </c>
       <c r="I158">
-        <v>-0.00101968477022862</v>
+        <v>-0.00101968477022851</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -16748,16 +16748,16 @@
         <v>1.52670035724611e-07</v>
       </c>
       <c r="F159">
-        <v>-0.00124611807372388</v>
+        <v>-0.0012461180737241</v>
       </c>
       <c r="G159">
-        <v>-0.00120263566464318</v>
+        <v>-0.0012026356646434</v>
       </c>
       <c r="H159">
-        <v>0.000361476590867632</v>
+        <v>0.00036147659086766</v>
       </c>
       <c r="I159">
-        <v>-0.00158787821079531</v>
+        <v>-0.00158787821079553</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -16780,13 +16780,13 @@
         <v>-0.00107614989422167</v>
       </c>
       <c r="G160">
-        <v>-0.00104023685680932</v>
+        <v>-0.00104023685680921</v>
       </c>
       <c r="H160">
-        <v>0.000236137508072623</v>
+        <v>0.00023613750807254</v>
       </c>
       <c r="I160">
-        <v>-0.0014294749693432</v>
+        <v>-0.00142947496934309</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -16806,16 +16806,16 @@
         <v>0.000391515105405027</v>
       </c>
       <c r="F161">
-        <v>-0.00109264381259722</v>
+        <v>-0.00109264381259766</v>
       </c>
       <c r="G161">
-        <v>-0.00106269566853656</v>
+        <v>-0.00106269566853689</v>
       </c>
       <c r="H161">
-        <v>-0.000298117903112544</v>
+        <v>-0.00029811790311253</v>
       </c>
       <c r="I161">
-        <v>-0.00139961655198817</v>
+        <v>-0.0013996165519885</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -16835,16 +16835,16 @@
         <v>-0.000356914421547394</v>
       </c>
       <c r="F162">
-        <v>-0.00117702029295641</v>
+        <v>-0.00117702029295652</v>
       </c>
       <c r="G162">
-        <v>-0.00115179433624424</v>
+        <v>-0.00115179433624435</v>
       </c>
       <c r="H162">
-        <v>-0.000143909494388167</v>
+        <v>-0.000143909494388028</v>
       </c>
       <c r="I162">
-        <v>-0.00138910774847356</v>
+        <v>-0.00138910774847367</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -16864,16 +16864,16 @@
         <v>-0.000243473962888707</v>
       </c>
       <c r="F163">
-        <v>-0.00124161885117213</v>
+        <v>-0.00124161885117191</v>
       </c>
       <c r="G163">
-        <v>-0.00122015032100875</v>
+        <v>-0.00122015032100853</v>
       </c>
       <c r="H163">
-        <v>-0.000217040448289976</v>
+        <v>-0.000217040448290018</v>
       </c>
       <c r="I163">
-        <v>-0.00131915126128934</v>
+        <v>-0.00131915126128912</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -16922,16 +16922,16 @@
         <v>0.000317920541199612</v>
       </c>
       <c r="F165">
-        <v>-0.00108832780560508</v>
+        <v>-0.00108832780560486</v>
       </c>
       <c r="G165">
-        <v>-0.00107228502490486</v>
+        <v>-0.00107228502490464</v>
       </c>
       <c r="H165">
-        <v>0.000230405785486665</v>
+        <v>0.00023040578548672</v>
       </c>
       <c r="I165">
-        <v>-0.000809415568326588</v>
+        <v>-0.000809415568326366</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -16951,16 +16951,16 @@
         <v>0.000358871616692014</v>
       </c>
       <c r="F166">
-        <v>-0.000810500537412939</v>
+        <v>-0.000810500537413161</v>
       </c>
       <c r="G166">
-        <v>-0.00079641707708511</v>
+        <v>-0.000796417077085221</v>
       </c>
       <c r="H166">
-        <v>-0.00013849787681669</v>
+        <v>-0.000138497876816648</v>
       </c>
       <c r="I166">
-        <v>-0.0013233775264142</v>
+        <v>-0.00132337752641443</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -16980,16 +16980,16 @@
         <v>-0.000451881269208698</v>
       </c>
       <c r="F167">
-        <v>-0.0013859687621971</v>
+        <v>-0.00138596876219743</v>
       </c>
       <c r="G167">
-        <v>-0.00137348231254819</v>
+        <v>-0.00137348231254852</v>
       </c>
       <c r="H167">
-        <v>-0.000511379724992253</v>
+        <v>-0.000511379724992281</v>
       </c>
       <c r="I167">
-        <v>-0.00167829033783073</v>
+        <v>-0.00167829033783107</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -17009,16 +17009,16 @@
         <v>0.000140698167534481</v>
       </c>
       <c r="F168">
-        <v>-0.00082128986524832</v>
+        <v>-0.000821289865248542</v>
       </c>
       <c r="G168">
-        <v>-0.000810113921190347</v>
+        <v>-0.000810113921190569</v>
       </c>
       <c r="H168">
-        <v>0.000144900894500949</v>
+        <v>0.000144900894500977</v>
       </c>
       <c r="I168">
-        <v>-0.000885391281004677</v>
+        <v>-0.000885391281004955</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -17038,16 +17038,16 @@
         <v>-0.000312930682532908</v>
       </c>
       <c r="F169">
-        <v>-0.00113275430953952</v>
+        <v>-0.00113275430953991</v>
       </c>
       <c r="G169">
-        <v>-0.00112266129903499</v>
+        <v>-0.00112266129903543</v>
       </c>
       <c r="H169">
-        <v>-0.000143349553717573</v>
+        <v>-0.000143349553717448</v>
       </c>
       <c r="I169">
-        <v>-0.000964878857681595</v>
+        <v>-0.000964878857682039</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -17067,13 +17067,13 @@
         <v>9.69228882219397e-05</v>
       </c>
       <c r="F170">
-        <v>-0.00134426323525916</v>
+        <v>-0.0013442632352591</v>
       </c>
       <c r="G170">
         <v>-0.00133507157961904</v>
       </c>
       <c r="H170">
-        <v>-0.000355659103489517</v>
+        <v>-0.000355659103489503</v>
       </c>
       <c r="I170">
         <v>-0.000943865818890943</v>
@@ -17096,16 +17096,16 @@
         <v>-0.000298942415303927</v>
       </c>
       <c r="F171">
-        <v>-0.00148553352259645</v>
+        <v>-0.00148553352259662</v>
       </c>
       <c r="G171">
-        <v>-0.00147709768825394</v>
+        <v>-0.0014770976882541</v>
       </c>
       <c r="H171">
-        <v>-0.00047648853293502</v>
+        <v>-0.000476488532934943</v>
       </c>
       <c r="I171">
-        <v>-0.000854663898136487</v>
+        <v>-0.000854663898136654</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -17125,16 +17125,16 @@
         <v>0.000310150071491933</v>
       </c>
       <c r="F172">
-        <v>-0.00159059331915734</v>
+        <v>-0.00159059331915751</v>
       </c>
       <c r="G172">
-        <v>-0.00158279614605211</v>
+        <v>-0.00158279614605222</v>
       </c>
       <c r="H172">
-        <v>-0.000494430539706908</v>
+        <v>-0.000494430539706971</v>
       </c>
       <c r="I172">
-        <v>-0.000733358421317165</v>
+        <v>-0.000733358421317276</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -17154,16 +17154,16 @@
         <v>0.000269700731374556</v>
       </c>
       <c r="F173">
-        <v>-0.000696532082662737</v>
+        <v>-0.000696532082662793</v>
       </c>
       <c r="G173">
         <v>-0.000689278846932706</v>
       </c>
       <c r="H173">
-        <v>-0.000401507599991247</v>
+        <v>-0.00040150759999126</v>
       </c>
       <c r="I173">
-        <v>-0.000618633681412573</v>
+        <v>-0.000618633681412628</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -17186,13 +17186,13 @@
         <v>-0.000842471325001204</v>
       </c>
       <c r="G174">
-        <v>-0.000835685125121166</v>
+        <v>-0.000835685125121222</v>
       </c>
       <c r="H174">
-        <v>-0.000192562964883354</v>
+        <v>-0.000192562964883299</v>
       </c>
       <c r="I174">
-        <v>-0.00155081335097418</v>
+        <v>-0.00155081335097423</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -17212,16 +17212,16 @@
         <v>-0.000403580569209083</v>
       </c>
       <c r="F175">
-        <v>-0.00106872500503402</v>
+        <v>-0.00106872500503419</v>
       </c>
       <c r="G175">
-        <v>-0.00106234316029752</v>
+        <v>-0.00106234316029769</v>
       </c>
       <c r="H175">
-        <v>0.000135262652051091</v>
+        <v>0.000135262652051167</v>
       </c>
       <c r="I175">
-        <v>-0.000571083874967737</v>
+        <v>-0.000571083874967959</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -17244,10 +17244,10 @@
         <v>-0.00141612157449161</v>
       </c>
       <c r="G176">
-        <v>-0.00141009280022542</v>
+        <v>-0.00141009280022536</v>
       </c>
       <c r="H176">
-        <v>-0.000417022946323627</v>
+        <v>-0.000417022946323585</v>
       </c>
       <c r="I176">
         <v>-0.0007208724822238</v>
@@ -17270,16 +17270,16 @@
         <v>-3.80457037234549e-05</v>
       </c>
       <c r="F177">
-        <v>-0.000925462804634403</v>
+        <v>-0.000925462804634458</v>
       </c>
       <c r="G177">
-        <v>-0.000919744985552251</v>
+        <v>-0.000919744985552362</v>
       </c>
       <c r="H177">
-        <v>0.000150113797072034</v>
+        <v>0.000150113797072117</v>
       </c>
       <c r="I177">
-        <v>-0.00104135500889269</v>
+        <v>-0.0010413550088928</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -17299,16 +17299,16 @@
         <v>-0.000113699499092235</v>
       </c>
       <c r="F178">
-        <v>-0.000637097558967958</v>
+        <v>-0.000637097558968069</v>
       </c>
       <c r="G178">
-        <v>-0.000631655985074531</v>
+        <v>-0.000631655985074642</v>
       </c>
       <c r="H178">
-        <v>-0.000164950927782244</v>
+        <v>-0.000164950927782161</v>
       </c>
       <c r="I178">
-        <v>-0.000573072041684219</v>
+        <v>-0.00057307204168433</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -17334,7 +17334,7 @@
         <v>-0.000585397495960926</v>
       </c>
       <c r="H179">
-        <v>-0.000364733883231945</v>
+        <v>-0.00036473388323198</v>
       </c>
       <c r="I179">
         <v>-0.00135563490895169</v>
@@ -17357,16 +17357,16 @@
         <v>-0.000395826968307311</v>
       </c>
       <c r="F180">
-        <v>-0.00082447661301005</v>
+        <v>-0.000824476613010217</v>
       </c>
       <c r="G180">
-        <v>-0.000819506277705384</v>
+        <v>-0.000819506277705551</v>
       </c>
       <c r="H180">
-        <v>-0.000452425580660235</v>
+        <v>-0.000452425580660262</v>
       </c>
       <c r="I180">
-        <v>-0.00142750575289963</v>
+        <v>-0.00142750575289979</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -17386,16 +17386,16 @@
         <v>-0.00022398424133474</v>
       </c>
       <c r="F181">
-        <v>-0.0013760658382469</v>
+        <v>-0.00137606583824679</v>
       </c>
       <c r="G181">
-        <v>-0.00137129934556396</v>
+        <v>-0.0013712993455639</v>
       </c>
       <c r="H181">
         <v>-0.000431709751078736</v>
       </c>
       <c r="I181">
-        <v>-0.00082583830662325</v>
+        <v>-0.000825838306623194</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -17415,16 +17415,16 @@
         <v>0.000475892704423053</v>
       </c>
       <c r="F182">
-        <v>-0.00128132211088355</v>
+        <v>-0.00128132211088383</v>
       </c>
       <c r="G182">
-        <v>-0.00127674284355334</v>
+        <v>-0.00127674284355372</v>
       </c>
       <c r="H182">
-        <v>-0.000306615682189704</v>
+        <v>-0.000306615682189787</v>
       </c>
       <c r="I182">
-        <v>-0.000586368089191935</v>
+        <v>-0.000586368089192268</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -17444,16 +17444,16 @@
         <v>-0.000476819976212184</v>
       </c>
       <c r="F183">
-        <v>-0.000574770564387816</v>
+        <v>-0.000574770564387928</v>
       </c>
       <c r="G183">
-        <v>-0.000570364556387981</v>
+        <v>-0.000570364556388092</v>
       </c>
       <c r="H183">
         <v>-8.13983233814777e-05</v>
       </c>
       <c r="I183">
-        <v>-0.00074334254228639</v>
+        <v>-0.000743342542286529</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -17473,16 +17473,16 @@
         <v>-0.000378604906901003</v>
       </c>
       <c r="F184">
-        <v>-0.00128944616441995</v>
+        <v>-0.00128944616442025</v>
       </c>
       <c r="G184">
-        <v>-0.00128520161956003</v>
+        <v>-0.00128520161956036</v>
       </c>
       <c r="H184">
-        <v>0.000239558274706005</v>
+        <v>0.00023955827470595</v>
       </c>
       <c r="I184">
-        <v>-0.00132948318864573</v>
+        <v>-0.00132948318864604</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -17502,16 +17502,16 @@
         <v>0.000372762947866256</v>
       </c>
       <c r="F185">
-        <v>-0.00045686946820489</v>
+        <v>-0.000456869468204946</v>
       </c>
       <c r="G185">
-        <v>-0.000452776367241281</v>
+        <v>-0.000452776367241337</v>
       </c>
       <c r="H185">
-        <v>-0.000348181989801445</v>
+        <v>-0.000348181989801358</v>
       </c>
       <c r="I185">
-        <v>-0.000375973222952991</v>
+        <v>-0.000375973222953074</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -17531,16 +17531,16 @@
         <v>0.000291025378590604</v>
       </c>
       <c r="F186">
-        <v>-0.00110704466147399</v>
+        <v>-0.00110704466147402</v>
       </c>
       <c r="G186">
-        <v>-0.0011030944406685</v>
+        <v>-0.00110309444066856</v>
       </c>
       <c r="H186">
-        <v>0.000150953545847359</v>
+        <v>0.000150953545847304</v>
       </c>
       <c r="I186">
-        <v>-0.000912465076453539</v>
+        <v>-0.000912465076453567</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -17560,16 +17560,16 @@
         <v>-0.000187306500533779</v>
       </c>
       <c r="F187">
-        <v>-0.00126847499992089</v>
+        <v>-0.00126847499992094</v>
       </c>
       <c r="G187">
-        <v>-0.00126466028753675</v>
+        <v>-0.0012646602875368</v>
       </c>
       <c r="H187">
-        <v>-0.00026740631889759</v>
+        <v>-0.000267406318897531</v>
       </c>
       <c r="I187">
-        <v>-0.000967103453048873</v>
+        <v>-0.000967103453048929</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -17589,16 +17589,16 @@
         <v>0.000306924742696779</v>
       </c>
       <c r="F188">
-        <v>-0.000968191637075705</v>
+        <v>-0.000968191637075816</v>
       </c>
       <c r="G188">
-        <v>-0.000964506037068324</v>
+        <v>-0.000964506037068436</v>
       </c>
       <c r="H188">
-        <v>0.000392459644710273</v>
+        <v>0.000392459644710186</v>
       </c>
       <c r="I188">
-        <v>-0.000566560140186301</v>
+        <v>-0.000566560140186384</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -17618,16 +17618,16 @@
         <v>8.41864365108691e-05</v>
       </c>
       <c r="F189">
-        <v>-0.00123179254170044</v>
+        <v>-0.00123179254170061</v>
       </c>
       <c r="G189">
-        <v>-0.00122823045600573</v>
+        <v>-0.00122823045600587</v>
       </c>
       <c r="H189">
-        <v>0.000126392301881648</v>
+        <v>0.000126392301881589</v>
       </c>
       <c r="I189">
-        <v>-0.000736077573803423</v>
+        <v>-0.000736077573803562</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -17647,16 +17647,16 @@
         <v>0.000403850628086566</v>
       </c>
       <c r="F190">
-        <v>-0.00108348881358564</v>
+        <v>-0.0010834888135858</v>
       </c>
       <c r="G190">
-        <v>-0.00108004529608483</v>
+        <v>-0.00108004529608502</v>
       </c>
       <c r="H190">
-        <v>-6.96280492228502e-05</v>
+        <v>-6.96280492228848e-05</v>
       </c>
       <c r="I190">
-        <v>-0.000499518701698565</v>
+        <v>-0.000499518701698731</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -17676,16 +17676,16 @@
         <v>0.000480848730613381</v>
       </c>
       <c r="F191">
-        <v>-0.000546156213509535</v>
+        <v>-0.000546156213509619</v>
       </c>
       <c r="G191">
-        <v>-0.000542826850067013</v>
+        <v>-0.000542826850067096</v>
       </c>
       <c r="H191">
-        <v>-0.000199467890614664</v>
+        <v>-0.000199467890614646</v>
       </c>
       <c r="I191">
-        <v>-0.000879421160575405</v>
+        <v>-0.000879421160575489</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -17705,16 +17705,16 @@
         <v>0.000491499934860862</v>
       </c>
       <c r="F192">
-        <v>-0.000641390145679432</v>
+        <v>-0.000641390145679516</v>
       </c>
       <c r="G192">
-        <v>-0.000638170955692408</v>
+        <v>-0.000638170955692463</v>
       </c>
       <c r="H192">
-        <v>-0.000266831539375779</v>
+        <v>-0.00026683153937589</v>
       </c>
       <c r="I192">
-        <v>-0.000897054173086498</v>
+        <v>-0.000897054173086553</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -17734,16 +17734,16 @@
         <v>-0.000421385896049564</v>
       </c>
       <c r="F193">
-        <v>-0.000389562682002326</v>
+        <v>-0.000389562682002492</v>
       </c>
       <c r="G193">
-        <v>-0.000386450037731717</v>
+        <v>-0.000386450037731884</v>
       </c>
       <c r="H193">
-        <v>-0.000275256074411472</v>
+        <v>-0.000275256074411413</v>
       </c>
       <c r="I193">
-        <v>-0.000572476894954571</v>
+        <v>-0.000572476894954765</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -17763,16 +17763,16 @@
         <v>-0.000144041997637956</v>
       </c>
       <c r="F194">
-        <v>-0.000809880508105182</v>
+        <v>-0.000809880508105293</v>
       </c>
       <c r="G194">
-        <v>-0.000806871068722292</v>
+        <v>-0.000806871068722376</v>
       </c>
       <c r="H194">
-        <v>-0.000228109332337419</v>
+        <v>-0.000228109332337398</v>
       </c>
       <c r="I194">
-        <v>-0.000924597209400163</v>
+        <v>-0.000924597209400274</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -17792,16 +17792,16 @@
         <v>0.000412163110742547</v>
       </c>
       <c r="F195">
-        <v>-0.000920442910714081</v>
+        <v>-0.000920442910714109</v>
       </c>
       <c r="G195">
-        <v>-0.00091753356853494</v>
+        <v>-0.000917533568534967</v>
       </c>
       <c r="H195">
-        <v>-0.000128590310553404</v>
+        <v>-0.000128590310553393</v>
       </c>
       <c r="I195">
-        <v>-0.000971230185803168</v>
+        <v>-0.000971230185803196</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -17821,16 +17821,16 @@
         <v>0.000314143850816961</v>
       </c>
       <c r="F196">
-        <v>-0.000738299122988839</v>
+        <v>-0.000738299122988922</v>
       </c>
       <c r="G196">
-        <v>-0.000735486959803661</v>
+        <v>-0.000735486959803716</v>
       </c>
       <c r="H196">
-        <v>2.02685663344172e-05</v>
+        <v>2.02685663344138e-05</v>
       </c>
       <c r="I196">
-        <v>-0.000729155599564268</v>
+        <v>-0.000729155599564324</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -17850,16 +17850,16 @@
         <v>-0.00038991331257332</v>
       </c>
       <c r="F197">
-        <v>-0.000279504505667716</v>
+        <v>-0.000279504505667799</v>
       </c>
       <c r="G197">
-        <v>-0.000276786757429204</v>
+        <v>-0.000276786757429287</v>
       </c>
       <c r="H197">
         <v>0.000215597761772744</v>
       </c>
       <c r="I197">
-        <v>-0.000214174057086763</v>
+        <v>-0.000214174057086847</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -17882,13 +17882,13 @@
         <v>-0.000559175173348053</v>
       </c>
       <c r="G198">
-        <v>-0.000556549201773449</v>
+        <v>-0.000556549201773476</v>
       </c>
       <c r="H198">
-        <v>0.000454685886814512</v>
+        <v>0.000454685886814509</v>
       </c>
       <c r="I198">
-        <v>-0.000441161389258732</v>
+        <v>-0.00044116138925876</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -17908,16 +17908,16 @@
         <v>0.000498313586762222</v>
       </c>
       <c r="F199">
-        <v>-0.000591540781899019</v>
+        <v>-0.000591540781899103</v>
       </c>
       <c r="G199">
-        <v>-0.000589004051782666</v>
+        <v>-0.000589004051782804</v>
       </c>
       <c r="H199">
-        <v>-0.00026502580198271</v>
+        <v>-0.000265025801982753</v>
       </c>
       <c r="I199">
-        <v>-0.00042412107344314</v>
+        <v>-0.000424121073443251</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -17937,16 +17937,16 @@
         <v>0.000115241719558234</v>
       </c>
       <c r="F200">
-        <v>-0.000389995279115457</v>
+        <v>-0.000389995279115513</v>
       </c>
       <c r="G200">
-        <v>-0.000387545340347156</v>
+        <v>-0.000387545340347212</v>
       </c>
       <c r="H200">
         <v>5.4050570855245e-05</v>
       </c>
       <c r="I200">
-        <v>-0.000176234521725868</v>
+        <v>-0.00017623452172591</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -17966,16 +17966,16 @@
         <v>0.000179157036417799</v>
       </c>
       <c r="F201">
-        <v>-0.000967145489801077</v>
+        <v>-0.000967145489801147</v>
       </c>
       <c r="G201">
-        <v>-0.000964779963251769</v>
+        <v>-0.000964779963251838</v>
       </c>
       <c r="H201">
-        <v>0.000409643138744276</v>
+        <v>0.000409643138744245</v>
       </c>
       <c r="I201">
-        <v>-0.00070990913530912</v>
+        <v>-0.000709909135309189</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -17995,16 +17995,16 @@
         <v>-0.000322204888169253</v>
       </c>
       <c r="F202">
-        <v>-0.000334857461518415</v>
+        <v>-0.00033485746151854</v>
       </c>
       <c r="G202">
-        <v>-0.000332574028092752</v>
+        <v>-0.000332574028092905</v>
       </c>
       <c r="H202">
-        <v>-0.000200386251060782</v>
+        <v>-0.000200386251060702</v>
       </c>
       <c r="I202">
-        <v>-0.00103682407424147</v>
+        <v>-0.00103682407424162</v>
       </c>
     </row>
   </sheetData>
@@ -18066,13 +18066,13 @@
         <v>-0.00545720028342985</v>
       </c>
       <c r="F2">
-        <v>-0.317064752419229</v>
+        <v>-0.317064752419211</v>
       </c>
       <c r="G2">
         <v>-0.316735405361223</v>
       </c>
       <c r="H2">
-        <v>-2.88786690734099</v>
+        <v>-2.88786690734059</v>
       </c>
       <c r="I2">
         <v>-0.11619552904794</v>
@@ -18095,13 +18095,13 @@
         <v>-0.0102313234833224</v>
       </c>
       <c r="F3">
-        <v>-0.331323329262051</v>
+        <v>-0.331323329262033</v>
       </c>
       <c r="G3">
         <v>-0.330992995276508</v>
       </c>
       <c r="H3">
-        <v>1.03029152418014</v>
+        <v>1.03029152418028</v>
       </c>
       <c r="I3">
         <v>-0.157285932553285</v>
@@ -18130,10 +18130,10 @@
         <v>-0.224266830066561</v>
       </c>
       <c r="H4">
-        <v>-1.53488163284092</v>
+        <v>-1.53488163284052</v>
       </c>
       <c r="I4">
-        <v>-0.0763485531740481</v>
+        <v>-0.076348553174065</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -18153,16 +18153,16 @@
         <v>-0.00666254344923939</v>
       </c>
       <c r="F5">
-        <v>-0.00328946470717542</v>
+        <v>-0.00328946470724073</v>
       </c>
       <c r="G5">
-        <v>-0.00295757945158776</v>
+        <v>-0.0029575794516694</v>
       </c>
       <c r="H5">
-        <v>2.35469335473112</v>
+        <v>2.35469335473131</v>
       </c>
       <c r="I5">
-        <v>0.120218017616108</v>
+        <v>0.120218017616043</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -18182,16 +18182,16 @@
         <v>-0.00656532817943455</v>
       </c>
       <c r="F6">
-        <v>-0.243254197544737</v>
+        <v>-0.243254197544753</v>
       </c>
       <c r="G6">
-        <v>-0.242919726358739</v>
+        <v>-0.242919726358755</v>
       </c>
       <c r="H6">
         <v>0.235826463027741</v>
       </c>
       <c r="I6">
-        <v>-0.146140049750857</v>
+        <v>-0.146140049750873</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -18211,16 +18211,16 @@
         <v>-0.00591878192712169</v>
       </c>
       <c r="F7">
-        <v>-0.3446733937697</v>
+        <v>-0.344673393769654</v>
       </c>
       <c r="G7">
-        <v>-0.344336408492247</v>
+        <v>-0.344336408492186</v>
       </c>
       <c r="H7">
-        <v>-1.56818169021634</v>
+        <v>-1.56818169021646</v>
       </c>
       <c r="I7">
-        <v>-0.272800320316868</v>
+        <v>-0.272800320316806</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -18240,16 +18240,16 @@
         <v>-0.00979912406119735</v>
       </c>
       <c r="F8">
-        <v>-0.315020592769022</v>
+        <v>-0.315020592769037</v>
       </c>
       <c r="G8">
-        <v>-0.314681087032967</v>
+        <v>-0.314681087032997</v>
       </c>
       <c r="H8">
-        <v>2.34599192694294</v>
+        <v>2.34599192694314</v>
       </c>
       <c r="I8">
-        <v>-0.267232288751512</v>
+        <v>-0.267232288751542</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -18269,16 +18269,16 @@
         <v>-0.00132427230382975</v>
       </c>
       <c r="F9">
-        <v>-0.161640042169686</v>
+        <v>-0.161640042169628</v>
       </c>
       <c r="G9">
-        <v>-0.161297926912429</v>
+        <v>-0.161297926912372</v>
       </c>
       <c r="H9">
-        <v>0.897413149325176</v>
+        <v>0.897413149325517</v>
       </c>
       <c r="I9">
-        <v>-0.136775917056287</v>
+        <v>-0.136775917056244</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -18298,16 +18298,16 @@
         <v>-0.00904316303320947</v>
       </c>
       <c r="F10">
-        <v>-0.391205716011588</v>
+        <v>-0.391205716011575</v>
       </c>
       <c r="G10">
-        <v>-0.390859089905021</v>
+        <v>-0.390859089905007</v>
       </c>
       <c r="H10">
-        <v>-0.291937107279244</v>
+        <v>-0.291937107279105</v>
       </c>
       <c r="I10">
-        <v>-0.390594889077919</v>
+        <v>-0.390594889077905</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -18327,16 +18327,16 @@
         <v>0.00453048140964215</v>
       </c>
       <c r="F11">
-        <v>0.00450192214241517</v>
+        <v>0.00450192214234813</v>
       </c>
       <c r="G11">
-        <v>0.00485156954332012</v>
+        <v>0.00485156954325308</v>
       </c>
       <c r="H11">
-        <v>-1.24209020669094</v>
+        <v>-1.24209020669136</v>
       </c>
       <c r="I11">
-        <v>-0.0154239018368382</v>
+        <v>-0.0154239018369056</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -18356,16 +18356,16 @@
         <v>0.00981467455359535</v>
       </c>
       <c r="F12">
-        <v>0.035106900700696</v>
+        <v>0.0351069007007089</v>
       </c>
       <c r="G12">
-        <v>0.0354616011162434</v>
+        <v>0.0354616011162564</v>
       </c>
       <c r="H12">
-        <v>-1.97243893907906</v>
+        <v>-1.97243893907865</v>
       </c>
       <c r="I12">
-        <v>-0.00656892122637761</v>
+        <v>-0.00656892122636458</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -18385,16 +18385,16 @@
         <v>-0.000998123860334074</v>
       </c>
       <c r="F13">
-        <v>-0.25970037269922</v>
+        <v>-0.259700372699233</v>
       </c>
       <c r="G13">
         <v>-0.259338562656921</v>
       </c>
       <c r="H13">
-        <v>1.95483325540794</v>
+        <v>1.95483325540806</v>
       </c>
       <c r="I13">
-        <v>-0.32417384658411</v>
+        <v>-0.324173846584123</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -18414,16 +18414,16 @@
         <v>0.00626477994651279</v>
       </c>
       <c r="F14">
-        <v>0.0303923129406311</v>
+        <v>0.0303923129406432</v>
       </c>
       <c r="G14">
-        <v>0.0307601354894784</v>
+        <v>0.0307601354894905</v>
       </c>
       <c r="H14">
-        <v>1.43707460889991</v>
+        <v>1.43707460889997</v>
       </c>
       <c r="I14">
-        <v>-0.0531949735688255</v>
+        <v>-0.0531949735688134</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -18443,16 +18443,16 @@
         <v>0.000411100824909551</v>
       </c>
       <c r="F15">
-        <v>0.00850637231604488</v>
+        <v>0.00850637231609172</v>
       </c>
       <c r="G15">
-        <v>0.00888249576230751</v>
+        <v>0.00888249576234264</v>
       </c>
       <c r="H15">
-        <v>1.09157892372642</v>
+        <v>1.09157892372633</v>
       </c>
       <c r="I15">
-        <v>-0.0951191849920926</v>
+        <v>-0.0951191849920455</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -18472,16 +18472,16 @@
         <v>-0.00783157450499194</v>
       </c>
       <c r="F16">
-        <v>-0.290399030746785</v>
+        <v>-0.290399030746762</v>
       </c>
       <c r="G16">
-        <v>-0.290012207275286</v>
+        <v>-0.290012207275252</v>
       </c>
       <c r="H16">
-        <v>0.901048327475131</v>
+        <v>0.901048327475008</v>
       </c>
       <c r="I16">
-        <v>-0.0049584558187949</v>
+        <v>-0.00495845581876077</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -18530,13 +18530,13 @@
         <v>0.00482474799308402</v>
       </c>
       <c r="F18">
-        <v>-0.0692255789743061</v>
+        <v>-0.069225578974285</v>
       </c>
       <c r="G18">
-        <v>-0.0688157159101591</v>
+        <v>-0.0688157159101803</v>
       </c>
       <c r="H18">
-        <v>0.918053377948539</v>
+        <v>0.918053377948274</v>
       </c>
       <c r="I18">
         <v>-0.228529926249181</v>
@@ -18559,16 +18559,16 @@
         <v>-0.000847263944327479</v>
       </c>
       <c r="F19">
-        <v>0.0377902264451911</v>
+        <v>0.0377902264451707</v>
       </c>
       <c r="G19">
-        <v>0.0382144530374847</v>
+        <v>0.0382144530374643</v>
       </c>
       <c r="H19">
-        <v>1.09322415254896</v>
+        <v>1.09322415254895</v>
       </c>
       <c r="I19">
-        <v>-0.137706764990035</v>
+        <v>-0.137706764990056</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -18588,16 +18588,16 @@
         <v>0.000520418060391302</v>
       </c>
       <c r="F20">
-        <v>-0.0893720256349714</v>
+        <v>-0.0893720256350108</v>
       </c>
       <c r="G20">
-        <v>-0.0889301395297785</v>
+        <v>-0.0889301395297983</v>
       </c>
       <c r="H20">
-        <v>1.35853037205452</v>
+        <v>1.35853037205449</v>
       </c>
       <c r="I20">
-        <v>-0.281434561577246</v>
+        <v>-0.281434561577266</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -18623,7 +18623,7 @@
         <v>-0.0803082925945865</v>
       </c>
       <c r="H21">
-        <v>-1.57811004257005</v>
+        <v>-1.57811004257</v>
       </c>
       <c r="I21">
         <v>-0.287697300484519</v>
@@ -18646,16 +18646,16 @@
         <v>-0.00118708191593621</v>
       </c>
       <c r="F22">
-        <v>-0.277709294753071</v>
+        <v>-0.277709294753016</v>
       </c>
       <c r="G22">
-        <v>-0.277223910069451</v>
+        <v>-0.277223910069396</v>
       </c>
       <c r="H22">
         <v>-1.05983535214894</v>
       </c>
       <c r="I22">
-        <v>-0.166837981189811</v>
+        <v>-0.166837981189755</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -18675,16 +18675,16 @@
         <v>0.000137689120718228</v>
       </c>
       <c r="F23">
-        <v>-0.0170533713001966</v>
+        <v>-0.0170533713002498</v>
       </c>
       <c r="G23">
-        <v>-0.0165429187846844</v>
+        <v>-0.0165429187847554</v>
       </c>
       <c r="H23">
-        <v>-0.502996883921673</v>
+        <v>-0.502996883921843</v>
       </c>
       <c r="I23">
-        <v>-0.250326956487016</v>
+        <v>-0.250326956487088</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -18704,16 +18704,16 @@
         <v>-0.00362153346371435</v>
       </c>
       <c r="F24">
-        <v>-0.268562882169443</v>
+        <v>-0.268562882169409</v>
       </c>
       <c r="G24">
-        <v>-0.268020656837911</v>
+        <v>-0.268020656837877</v>
       </c>
       <c r="H24">
-        <v>0.0775136708031607</v>
+        <v>0.077513670803283</v>
       </c>
       <c r="I24">
-        <v>-0.204654025709783</v>
+        <v>-0.204654025709749</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -18733,13 +18733,13 @@
         <v>0.00702356577930251</v>
       </c>
       <c r="F25">
-        <v>-0.0845429211746525</v>
+        <v>-0.0845429211746359</v>
       </c>
       <c r="G25">
         <v>-0.0839665161390863</v>
       </c>
       <c r="H25">
-        <v>0.666726031276319</v>
+        <v>0.666726031276456</v>
       </c>
       <c r="I25">
         <v>-0.0407446928483167</v>
@@ -18762,16 +18762,16 @@
         <v>0.0080163326476887</v>
       </c>
       <c r="F26">
-        <v>-0.0828780838842035</v>
+        <v>-0.0828780838842195</v>
       </c>
       <c r="G26">
-        <v>-0.0822610003661158</v>
+        <v>-0.0822610003661318</v>
       </c>
       <c r="H26">
-        <v>1.24946337318673</v>
+        <v>1.24946337318652</v>
       </c>
       <c r="I26">
-        <v>-0.0585232538845162</v>
+        <v>-0.0585232538845322</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -18791,16 +18791,16 @@
         <v>-0.005437049239808</v>
       </c>
       <c r="F27">
-        <v>-0.244408421690547</v>
+        <v>-0.244408421690625</v>
       </c>
       <c r="G27">
-        <v>-0.243743152979946</v>
+        <v>-0.243743152980008</v>
       </c>
       <c r="H27">
-        <v>-0.843588969908984</v>
+        <v>-0.843588969908836</v>
       </c>
       <c r="I27">
-        <v>-0.238638238066098</v>
+        <v>-0.23863823806616</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -18820,16 +18820,16 @@
         <v>0.00455879531407661</v>
       </c>
       <c r="F28">
-        <v>-0.0157019815099575</v>
+        <v>-0.0157019815099277</v>
       </c>
       <c r="G28">
-        <v>-0.0149836520341683</v>
+        <v>-0.0149836520341534</v>
       </c>
       <c r="H28">
-        <v>-0.237362794893735</v>
+        <v>-0.237362794893627</v>
       </c>
       <c r="I28">
-        <v>-0.0245252946030868</v>
+        <v>-0.0245252946030719</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -18849,16 +18849,16 @@
         <v>0.0105004485290331</v>
       </c>
       <c r="F29">
-        <v>-0.213558073704354</v>
+        <v>-0.213558073704369</v>
       </c>
       <c r="G29">
-        <v>-0.212774849066699</v>
+        <v>-0.212774849066713</v>
       </c>
       <c r="H29">
-        <v>0.308232785812046</v>
+        <v>0.308232785812305</v>
       </c>
       <c r="I29">
-        <v>-0.237382433770016</v>
+        <v>-0.237382433770031</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -18878,16 +18878,16 @@
         <v>0.00604972530227777</v>
       </c>
       <c r="F30">
-        <v>-0.0457653030977655</v>
+        <v>-0.0457653030977794</v>
       </c>
       <c r="G30">
-        <v>-0.0449097408002258</v>
+        <v>-0.0449097408002397</v>
       </c>
       <c r="H30">
-        <v>0.775291935247113</v>
+        <v>0.775291935247346</v>
       </c>
       <c r="I30">
-        <v>-0.0805832794459532</v>
+        <v>-0.0805832794459672</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -18907,16 +18907,16 @@
         <v>0.00974253074889489</v>
       </c>
       <c r="F31">
-        <v>-0.0341330725215031</v>
+        <v>-0.0341330725214494</v>
       </c>
       <c r="G31">
-        <v>-0.0331919018425906</v>
+        <v>-0.0331919018425369</v>
       </c>
       <c r="H31">
-        <v>-1.20920570858051</v>
+        <v>-1.20920570858046</v>
       </c>
       <c r="I31">
-        <v>-0.0786829749756308</v>
+        <v>-0.0786829749755768</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -18936,16 +18936,16 @@
         <v>-0.00281700664881742</v>
       </c>
       <c r="F32">
-        <v>-0.166138977775259</v>
+        <v>-0.166138977775285</v>
       </c>
       <c r="G32">
-        <v>-0.16509653882573</v>
+        <v>-0.165096538825743</v>
       </c>
       <c r="H32">
-        <v>-0.898461612225378</v>
+        <v>-0.898461612225458</v>
       </c>
       <c r="I32">
-        <v>-0.218966498164582</v>
+        <v>-0.218966498164595</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -18965,16 +18965,16 @@
         <v>0.000495048640029722</v>
       </c>
       <c r="F33">
-        <v>-0.205501255187568</v>
+        <v>-0.205501255187543</v>
       </c>
       <c r="G33">
-        <v>-0.204341612428236</v>
+        <v>-0.204341612428199</v>
       </c>
       <c r="H33">
-        <v>-0.736279674531148</v>
+        <v>-0.736279674531461</v>
       </c>
       <c r="I33">
-        <v>-0.0369664669697179</v>
+        <v>-0.0369664669696927</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -18997,13 +18997,13 @@
         <v>-0.165929965434711</v>
       </c>
       <c r="G34">
-        <v>-0.164634326055704</v>
+        <v>-0.164634326055692</v>
       </c>
       <c r="H34">
-        <v>-0.749497211416394</v>
+        <v>-0.749497211416562</v>
       </c>
       <c r="I34">
-        <v>-0.00760692628677848</v>
+        <v>-0.00760692628676631</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -19023,16 +19023,16 @@
         <v>-0.00337023712585131</v>
       </c>
       <c r="F35">
-        <v>-0.0610454374959288</v>
+        <v>-0.0610454374959522</v>
       </c>
       <c r="G35">
-        <v>-0.0595916224116888</v>
+        <v>-0.0595916224117122</v>
       </c>
       <c r="H35">
-        <v>-0.969021231236473</v>
+        <v>-0.969021231236638</v>
       </c>
       <c r="I35">
-        <v>-0.12194146828314</v>
+        <v>-0.121941468283164</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -19052,16 +19052,16 @@
         <v>0.00647580503366951</v>
       </c>
       <c r="F36">
-        <v>-0.108719846779566</v>
+        <v>-0.108719846779589</v>
       </c>
       <c r="G36">
-        <v>-0.107078308216961</v>
+        <v>-0.107078308216995</v>
       </c>
       <c r="H36">
-        <v>0.682108708424803</v>
+        <v>0.682108708424817</v>
       </c>
       <c r="I36">
-        <v>-0.167717265314406</v>
+        <v>-0.16771726531444</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -19084,13 +19084,13 @@
         <v>-0.105276885978758</v>
       </c>
       <c r="G37">
-        <v>-0.103415996322245</v>
+        <v>-0.103415996322267</v>
       </c>
       <c r="H37">
-        <v>-0.0933438516082246</v>
+        <v>-0.0933438516082391</v>
       </c>
       <c r="I37">
-        <v>-0.159514290761444</v>
+        <v>-0.159514290761466</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -19110,16 +19110,16 @@
         <v>-0.00348006650375701</v>
       </c>
       <c r="F38">
-        <v>-0.0653010513045688</v>
+        <v>-0.0653010513046113</v>
       </c>
       <c r="G38">
-        <v>-0.0631833483529087</v>
+        <v>-0.0631833483529299</v>
       </c>
       <c r="H38">
-        <v>0.866647714371258</v>
+        <v>0.866647714371187</v>
       </c>
       <c r="I38">
-        <v>-0.111959805174909</v>
+        <v>-0.111959805174931</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -19139,16 +19139,16 @@
         <v>-0.000251637025115574</v>
       </c>
       <c r="F39">
-        <v>-0.189353429580031</v>
+        <v>-0.189353429580093</v>
       </c>
       <c r="G39">
-        <v>-0.186930003992905</v>
+        <v>-0.186930003992967</v>
       </c>
       <c r="H39">
-        <v>-0.643189534443855</v>
+        <v>-0.643189534443654</v>
       </c>
       <c r="I39">
-        <v>-0.0397934211764638</v>
+        <v>-0.039793421176526</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -19174,7 +19174,7 @@
         <v>-0.112253664593894</v>
       </c>
       <c r="H40">
-        <v>-0.563544455804024</v>
+        <v>-0.563544455804139</v>
       </c>
       <c r="I40">
         <v>-0.139026586084529</v>
@@ -19197,16 +19197,16 @@
         <v>0.0147952018293066</v>
       </c>
       <c r="F41">
-        <v>-0.0491353610337538</v>
+        <v>-0.0491353610338316</v>
       </c>
       <c r="G41">
-        <v>-0.0459403817278915</v>
+        <v>-0.0459403817279694</v>
       </c>
       <c r="H41">
-        <v>-1.02751585831437</v>
+        <v>-1.02751585831408</v>
       </c>
       <c r="I41">
-        <v>-0.0574639967600012</v>
+        <v>-0.0574639967600793</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -19232,7 +19232,7 @@
         <v>-0.173801558309753</v>
       </c>
       <c r="H42">
-        <v>-0.0415530284945481</v>
+        <v>-0.0415530284945915</v>
       </c>
       <c r="I42">
         <v>-0.168273359358522</v>
@@ -19255,16 +19255,16 @@
         <v>0.00190245185000031</v>
       </c>
       <c r="F43">
-        <v>-0.170778733889624</v>
+        <v>-0.170778733889661</v>
       </c>
       <c r="G43">
-        <v>-0.166504754378815</v>
+        <v>-0.16650475437887</v>
       </c>
       <c r="H43">
-        <v>0.263117766291463</v>
+        <v>0.263117766291507</v>
       </c>
       <c r="I43">
-        <v>-0.141096043796786</v>
+        <v>-0.141096043796841</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -19284,16 +19284,16 @@
         <v>0.0030980450899247</v>
       </c>
       <c r="F44">
-        <v>-0.0591100337793893</v>
+        <v>-0.0591100337794253</v>
       </c>
       <c r="G44">
-        <v>-0.0541572279127166</v>
+        <v>-0.0541572279127525</v>
       </c>
       <c r="H44">
-        <v>-0.225766952044997</v>
+        <v>-0.225766952045118</v>
       </c>
       <c r="I44">
-        <v>-0.168542313765438</v>
+        <v>-0.168542313765474</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -19313,16 +19313,16 @@
         <v>0.00192792469895633</v>
       </c>
       <c r="F45">
-        <v>-0.0292127866373686</v>
+        <v>-0.029212786637351</v>
       </c>
       <c r="G45">
-        <v>-0.0234572513660163</v>
+        <v>-0.0234572513659988</v>
       </c>
       <c r="H45">
-        <v>0.589997259906178</v>
+        <v>0.589997259906365</v>
       </c>
       <c r="I45">
-        <v>-0.11006189370105</v>
+        <v>-0.110061893701033</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -19342,16 +19342,16 @@
         <v>-0.00840625439545676</v>
       </c>
       <c r="F46">
-        <v>-0.0984120788921024</v>
+        <v>-0.0984120788921709</v>
       </c>
       <c r="G46">
-        <v>-0.0917060753653558</v>
+        <v>-0.0917060753654243</v>
       </c>
       <c r="H46">
-        <v>0.438747129997331</v>
+        <v>0.438747129997446</v>
       </c>
       <c r="I46">
-        <v>-0.149661570923729</v>
+        <v>-0.149661570923797</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -19371,16 +19371,16 @@
         <v>-0.00141883218422583</v>
       </c>
       <c r="F47">
-        <v>-0.134206532039518</v>
+        <v>-0.134206532039467</v>
       </c>
       <c r="G47">
-        <v>-0.126385519942087</v>
+        <v>-0.126385519942071</v>
       </c>
       <c r="H47">
-        <v>-0.905596238191743</v>
+        <v>-0.905596238191584</v>
       </c>
       <c r="I47">
-        <v>-0.155000672275935</v>
+        <v>-0.155000672275901</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -19406,7 +19406,7 @@
         <v>-0.156062757504298</v>
       </c>
       <c r="H48">
-        <v>-1.05764159591888</v>
+        <v>-1.05764159591905</v>
       </c>
       <c r="I48">
         <v>-0.1553683583277</v>
@@ -19429,16 +19429,16 @@
         <v>-0.00304460535966103</v>
       </c>
       <c r="F49">
-        <v>-0.0740141250901983</v>
+        <v>-0.0740141250901821</v>
       </c>
       <c r="G49">
-        <v>-0.0633628794596557</v>
+        <v>-0.0633628794596396</v>
       </c>
       <c r="H49">
-        <v>0.315465348665932</v>
+        <v>0.315465348666036</v>
       </c>
       <c r="I49">
-        <v>-0.034063776290426</v>
+        <v>-0.0340637762904098</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -19464,7 +19464,7 @@
         <v>-0.0265195858309141</v>
       </c>
       <c r="H50">
-        <v>0.544068309148912</v>
+        <v>0.544068309149208</v>
       </c>
       <c r="I50">
         <v>-0.114210651917541</v>
@@ -19490,13 +19490,13 @@
         <v>-0.0876067086813793</v>
       </c>
       <c r="G51">
-        <v>-0.0730734644693332</v>
+        <v>-0.0730734644693175</v>
       </c>
       <c r="H51">
-        <v>-0.412322716149652</v>
+        <v>-0.412322716149386</v>
       </c>
       <c r="I51">
-        <v>-0.135450425566415</v>
+        <v>-0.135450425566399</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -19516,16 +19516,16 @@
         <v>-0.00240731787247844</v>
       </c>
       <c r="F52">
-        <v>-0.107902672814425</v>
+        <v>-0.10790267281441</v>
       </c>
       <c r="G52">
-        <v>-0.0909309554021037</v>
+        <v>-0.0909309554020725</v>
       </c>
       <c r="H52">
-        <v>-1.83932137313128</v>
+        <v>-1.8393213731312</v>
       </c>
       <c r="I52">
-        <v>-0.132892915790565</v>
+        <v>-0.132892915790549</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -19545,16 +19545,16 @@
         <v>-0.0021438607493479</v>
       </c>
       <c r="F53">
-        <v>-0.132280414900716</v>
+        <v>-0.132280414900747</v>
       </c>
       <c r="G53">
-        <v>-0.112474554144374</v>
+        <v>-0.112474554144404</v>
       </c>
       <c r="H53">
-        <v>0.242629253614788</v>
+        <v>0.242629253613854</v>
       </c>
       <c r="I53">
-        <v>-0.140747919575308</v>
+        <v>-0.140747919575339</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -19574,16 +19574,16 @@
         <v>-0.00170812216814545</v>
       </c>
       <c r="F54">
-        <v>-0.0534203586693271</v>
+        <v>-0.0534203586693734</v>
       </c>
       <c r="G54">
-        <v>-0.0303553483538627</v>
+        <v>-0.030355348353909</v>
       </c>
       <c r="H54">
-        <v>-2.63845869690635</v>
+        <v>-2.63845869690624</v>
       </c>
       <c r="I54">
-        <v>-0.0538231808716129</v>
+        <v>-0.0538231808716592</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -19603,16 +19603,16 @@
         <v>-0.00256614918914779</v>
       </c>
       <c r="F55">
-        <v>-0.0416118044010318</v>
+        <v>-0.0416118044010935</v>
       </c>
       <c r="G55">
-        <v>-0.0147709286701532</v>
+        <v>-0.0147709286701995</v>
       </c>
       <c r="H55">
-        <v>-1.71829225112866</v>
+        <v>-1.7182922511282</v>
       </c>
       <c r="I55">
-        <v>-0.0450011414121814</v>
+        <v>-0.0450011414122277</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -19632,16 +19632,16 @@
         <v>-0.000909669097689274</v>
       </c>
       <c r="F56">
-        <v>-0.126761157253854</v>
+        <v>-0.126761157253885</v>
       </c>
       <c r="G56">
-        <v>-0.0955503940000958</v>
+        <v>-0.0955503940001267</v>
       </c>
       <c r="H56">
-        <v>0.316342958558829</v>
+        <v>0.316342958558964</v>
       </c>
       <c r="I56">
-        <v>-0.00789091783945111</v>
+        <v>-0.00789091783948208</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -19661,16 +19661,16 @@
         <v>-0.00146531357458791</v>
       </c>
       <c r="F57">
-        <v>-0.0583307394404446</v>
+        <v>-0.0583307394404602</v>
       </c>
       <c r="G57">
-        <v>-0.0221696740341678</v>
+        <v>-0.022169674034199</v>
       </c>
       <c r="H57">
         <v>-1.54028083555495</v>
       </c>
       <c r="I57">
-        <v>-0.114287809323922</v>
+        <v>-0.114287809323953</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -19696,7 +19696,7 @@
         <v>-0.100541610661949</v>
       </c>
       <c r="H58">
-        <v>0.673173436507059</v>
+        <v>0.673173436506936</v>
       </c>
       <c r="I58">
         <v>-0.114498823037916</v>
@@ -19719,16 +19719,16 @@
         <v>0.00211397285721593</v>
       </c>
       <c r="F59">
-        <v>-0.119475191287066</v>
+        <v>-0.11947519128705</v>
       </c>
       <c r="G59">
-        <v>-0.0712058073686094</v>
+        <v>-0.0712058073685772</v>
       </c>
       <c r="H59">
-        <v>-0.300407281901334</v>
+        <v>-0.300407281901291</v>
       </c>
       <c r="I59">
-        <v>-0.0319276387880565</v>
+        <v>-0.0319276387880404</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -19748,16 +19748,16 @@
         <v>-0.000213187846212746</v>
       </c>
       <c r="F60">
-        <v>-0.00258833495499907</v>
+        <v>-0.00258833495504834</v>
       </c>
       <c r="G60">
-        <v>-0.0950009290600499</v>
+        <v>-0.0950009290600992</v>
       </c>
       <c r="H60">
         <v>0.0752517665262189</v>
       </c>
       <c r="I60">
-        <v>-0.0333487441463926</v>
+        <v>-0.0333487441464421</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -19777,16 +19777,16 @@
         <v>-0.00188037394844886</v>
       </c>
       <c r="F61">
-        <v>-0.101637609326292</v>
+        <v>-0.101637609326191</v>
       </c>
       <c r="G61">
-        <v>-0.038044137018425</v>
+        <v>-0.0380441370183406</v>
       </c>
       <c r="H61">
-        <v>-0.495377083198098</v>
+        <v>-0.495377083198178</v>
       </c>
       <c r="I61">
-        <v>0.00782456063574051</v>
+        <v>0.00782456063582538</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -19806,16 +19806,16 @@
         <v>0.000426477941526313</v>
       </c>
       <c r="F62">
-        <v>-0.130214792638709</v>
+        <v>-0.130214792638779</v>
       </c>
       <c r="G62">
-        <v>-0.0575841452610257</v>
+        <v>-0.0575841452610956</v>
       </c>
       <c r="H62">
-        <v>-0.583649652411661</v>
+        <v>-0.583649652411834</v>
       </c>
       <c r="I62">
-        <v>-0.0773860890495948</v>
+        <v>-0.0773860890496653</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -19835,16 +19835,16 @@
         <v>-0.000223002503178434</v>
       </c>
       <c r="F63">
-        <v>-0.0812985844663368</v>
+        <v>-0.0812985844663915</v>
       </c>
       <c r="G63">
-        <v>0.00126833903783767</v>
+        <v>0.00126833903780127</v>
       </c>
       <c r="H63">
         <v>-0.51655368253033</v>
       </c>
       <c r="I63">
-        <v>0.0169381355628505</v>
+        <v>0.0169381355628136</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -19864,16 +19864,16 @@
         <v>-0.00116104266349478</v>
       </c>
       <c r="F64">
-        <v>-0.106709516637628</v>
+        <v>-0.106709516637589</v>
       </c>
       <c r="G64">
-        <v>-0.0131534793465939</v>
+        <v>-0.0131534793465557</v>
       </c>
       <c r="H64">
-        <v>-0.476455321781254</v>
+        <v>-0.476455321781349</v>
       </c>
       <c r="I64">
-        <v>-0.0336996288396305</v>
+        <v>-0.0336996288395917</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -19893,16 +19893,16 @@
         <v>-0.000943421130834539</v>
       </c>
       <c r="F65">
-        <v>-0.0148351376940908</v>
+        <v>-0.0148351376941111</v>
       </c>
       <c r="G65">
-        <v>-0.0916918734956148</v>
+        <v>-0.0916918734956351</v>
       </c>
       <c r="H65">
-        <v>0.313027597344498</v>
+        <v>0.313027597344511</v>
       </c>
       <c r="I65">
-        <v>-0.0640904777596587</v>
+        <v>-0.0640904777596794</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -19922,16 +19922,16 @@
         <v>-0.0010223764435962</v>
       </c>
       <c r="F66">
-        <v>-0.134676155498617</v>
+        <v>-0.134676155498551</v>
       </c>
       <c r="G66">
-        <v>-0.0159980738834339</v>
+        <v>-0.0159980738833906</v>
       </c>
       <c r="H66">
-        <v>-0.050781010354547</v>
+        <v>-0.0507810103544685</v>
       </c>
       <c r="I66">
-        <v>-0.0564136171587805</v>
+        <v>-0.0564136171587247</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -19951,16 +19951,16 @@
         <v>0.00123377422524093</v>
       </c>
       <c r="F67">
-        <v>-0.0342869906894412</v>
+        <v>-0.0342869906894763</v>
       </c>
       <c r="G67">
-        <v>-0.112221746204089</v>
+        <v>-0.112221746204136</v>
       </c>
       <c r="H67">
-        <v>0.111063589630873</v>
+        <v>0.111063589630914</v>
       </c>
       <c r="I67">
-        <v>0.0237806299354781</v>
+        <v>0.0237806299354293</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -19980,16 +19980,16 @@
         <v>-0.000785541768082176</v>
       </c>
       <c r="F68">
-        <v>-0.0220401421116624</v>
+        <v>-0.0220401421115726</v>
       </c>
       <c r="G68">
-        <v>-0.10422115724631</v>
+        <v>-0.104221157246233</v>
       </c>
       <c r="H68">
         <v>-0.0735137159044679</v>
       </c>
       <c r="I68">
-        <v>-0.00673983750221256</v>
+        <v>-0.00673983750211754</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -20015,10 +20015,10 @@
         <v>-0.0677488852861803</v>
       </c>
       <c r="H69">
-        <v>0.0594190641682085</v>
+        <v>0.0594190641681179</v>
       </c>
       <c r="I69">
-        <v>-0.140257360979324</v>
+        <v>-0.140257360979308</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -20038,16 +20038,16 @@
         <v>-0.00108763212745619</v>
       </c>
       <c r="F70">
-        <v>0.066220894855232</v>
+        <v>0.0662208948552</v>
       </c>
       <c r="G70">
-        <v>-0.0362260315561488</v>
+        <v>-0.0362260315561809</v>
       </c>
       <c r="H70">
         <v>-0.202296217109508</v>
       </c>
       <c r="I70">
-        <v>-0.034677027322552</v>
+        <v>-0.0346770273225882</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -20067,16 +20067,16 @@
         <v>0.00107486187358662</v>
       </c>
       <c r="F71">
-        <v>-0.123782600606021</v>
+        <v>-0.123782600605929</v>
       </c>
       <c r="G71">
-        <v>0.0865233376408711</v>
+        <v>0.0865233376409625</v>
       </c>
       <c r="H71">
-        <v>-0.242234483331945</v>
+        <v>-0.242234483331962</v>
       </c>
       <c r="I71">
-        <v>0.163550280914197</v>
+        <v>0.163550280914329</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -20096,16 +20096,16 @@
         <v>-0.000992371086297471</v>
       </c>
       <c r="F72">
-        <v>0.135625188084113</v>
+        <v>0.135625188084071</v>
       </c>
       <c r="G72">
-        <v>-0.00606125000584388</v>
+        <v>-0.00606125000590745</v>
       </c>
       <c r="H72">
-        <v>-0.11146740100673</v>
+        <v>-0.111467401006746</v>
       </c>
       <c r="I72">
-        <v>0.170581923880034</v>
+        <v>0.170581923879948</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -20125,16 +20125,16 @@
         <v>0.000462586467338238</v>
       </c>
       <c r="F73">
-        <v>-0.0749444747555889</v>
+        <v>-0.0749444747555151</v>
       </c>
       <c r="G73">
-        <v>-0.237745354069077</v>
+        <v>-0.237745354069016</v>
       </c>
       <c r="H73">
         <v>0.157863041255277</v>
       </c>
       <c r="I73">
-        <v>0.00246187484564683</v>
+        <v>0.00246187484583464</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -20160,10 +20160,10 @@
         <v>-0.0153689302985716</v>
       </c>
       <c r="H74">
-        <v>0.0174412714881823</v>
+        <v>0.0174412714881383</v>
       </c>
       <c r="I74">
-        <v>0.168162058594058</v>
+        <v>0.168162058594311</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -20183,16 +20183,16 @@
         <v>0.000868163966989525</v>
       </c>
       <c r="F75">
-        <v>0.0428574998326141</v>
+        <v>0.0428574998325141</v>
       </c>
       <c r="G75">
-        <v>-0.127688638102146</v>
+        <v>-0.12768863810226</v>
       </c>
       <c r="H75">
-        <v>0.0126459577116311</v>
+        <v>0.0126459577115309</v>
       </c>
       <c r="I75">
-        <v>-1.13355519584226</v>
+        <v>-1.13355519584481</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -20212,16 +20212,16 @@
         <v>-0.000762034238164266</v>
       </c>
       <c r="F76">
-        <v>-0.236552463488056</v>
+        <v>-0.236552463488043</v>
       </c>
       <c r="G76">
-        <v>0.0970270935070375</v>
+        <v>0.0970270935070641</v>
       </c>
       <c r="H76">
         <v>0.130207193277463</v>
       </c>
       <c r="I76">
-        <v>-0.668442926245521</v>
+        <v>-0.668442926245279</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -20241,16 +20241,16 @@
         <v>-0.00063743116162701</v>
       </c>
       <c r="F77">
-        <v>0.0883491946930878</v>
+        <v>0.0883491946929486</v>
       </c>
       <c r="G77">
-        <v>-0.0239250760169888</v>
+        <v>-0.0239250760171045</v>
       </c>
       <c r="H77">
-        <v>-0.134367531760413</v>
+        <v>-0.134367531760482</v>
       </c>
       <c r="I77">
-        <v>-0.0655014580427084</v>
+        <v>-0.0655014580429436</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -20270,16 +20270,16 @@
         <v>-0.000659603458735873</v>
       </c>
       <c r="F78">
-        <v>-0.078960418948056</v>
+        <v>-0.0789604189481147</v>
       </c>
       <c r="G78">
-        <v>-0.151625715243866</v>
+        <v>-0.151625715243924</v>
       </c>
       <c r="H78">
-        <v>-0.277994322652036</v>
+        <v>-0.277994322652022</v>
       </c>
       <c r="I78">
-        <v>-0.0217821613791871</v>
+        <v>-0.0217821613793133</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -20299,16 +20299,16 @@
         <v>-0.000376046199404988</v>
       </c>
       <c r="F79">
-        <v>-0.159667461629022</v>
+        <v>-0.159667461629005</v>
       </c>
       <c r="G79">
-        <v>-0.196839672811907</v>
+        <v>-0.196839672811874</v>
       </c>
       <c r="H79">
-        <v>-0.309904993488116</v>
+        <v>-0.309904993488089</v>
       </c>
       <c r="I79">
-        <v>-0.0548064032314878</v>
+        <v>-0.0548064032314462</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -20328,16 +20328,16 @@
         <v>0.000861344047200583</v>
       </c>
       <c r="F80">
-        <v>-0.223157909900099</v>
+        <v>-0.223157909900043</v>
       </c>
       <c r="G80">
-        <v>0.0215375863190001</v>
+        <v>0.0215375863190423</v>
       </c>
       <c r="H80">
-        <v>-0.236369020677666</v>
+        <v>-0.23636902067764</v>
       </c>
       <c r="I80">
-        <v>-0.23724757609145</v>
+        <v>-0.237247576091383</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -20357,13 +20357,13 @@
         <v>-0.00038195084733932</v>
       </c>
       <c r="F81">
-        <v>-0.0502680404938514</v>
+        <v>-0.0502680404938636</v>
       </c>
       <c r="G81">
-        <v>-0.0372128331014106</v>
+        <v>-0.0372128331014228</v>
       </c>
       <c r="H81">
-        <v>-0.0601769212920706</v>
+        <v>-0.0601769212921107</v>
       </c>
       <c r="I81">
         <v>-0.0809812283039562</v>
@@ -20386,16 +20386,16 @@
         <v>-0.000700293314212912</v>
       </c>
       <c r="F82">
-        <v>-0.167742130742504</v>
+        <v>-0.167742130742547</v>
       </c>
       <c r="G82">
-        <v>-0.138335085000515</v>
+        <v>-0.138335085000557</v>
       </c>
       <c r="H82">
-        <v>-0.261676203376982</v>
+        <v>-0.261676203376996</v>
       </c>
       <c r="I82">
-        <v>-0.0102310337426217</v>
+        <v>-0.0102310337426685</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -20415,16 +20415,16 @@
         <v>-0.000597481113117548</v>
       </c>
       <c r="F83">
-        <v>-0.117835839305804</v>
+        <v>-0.117835839305727</v>
       </c>
       <c r="G83">
-        <v>-0.0771604092852349</v>
+        <v>-0.0771604092851776</v>
       </c>
       <c r="H83">
-        <v>0.127854738474354</v>
+        <v>0.127854738474367</v>
       </c>
       <c r="I83">
-        <v>-0.047144620614439</v>
+        <v>-0.0471446206143778</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -20450,7 +20450,7 @@
         <v>-0.00379499971785915</v>
       </c>
       <c r="H84">
-        <v>0.152591515566577</v>
+        <v>0.152591515566563</v>
       </c>
       <c r="I84">
         <v>-0.0392535726456201</v>
@@ -20473,16 +20473,16 @@
         <v>0.000964655095364816</v>
       </c>
       <c r="F85">
-        <v>-0.0473651676494479</v>
+        <v>-0.0473651676494322</v>
       </c>
       <c r="G85">
-        <v>-0.135571541538011</v>
+        <v>-0.135571541537995</v>
       </c>
       <c r="H85">
-        <v>-0.183567309093983</v>
+        <v>-0.183567309093997</v>
       </c>
       <c r="I85">
-        <v>-0.0406745398635025</v>
+        <v>-0.0406745398634861</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -20502,16 +20502,16 @@
         <v>0.000873903010303686</v>
       </c>
       <c r="F86">
-        <v>-0.0133558203746522</v>
+        <v>-0.0133558203746089</v>
       </c>
       <c r="G86">
-        <v>-0.0875459048931975</v>
+        <v>-0.0875459048931254</v>
       </c>
       <c r="H86">
-        <v>0.130716241100305</v>
+        <v>0.130716241100374</v>
       </c>
       <c r="I86">
-        <v>-0.0838985940225667</v>
+        <v>-0.083898594022507</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -20531,16 +20531,16 @@
         <v>-0.000188220171312035</v>
       </c>
       <c r="F87">
-        <v>-0.119051531250273</v>
+        <v>-0.1190515312503</v>
       </c>
       <c r="G87">
-        <v>-0.0621727114326878</v>
+        <v>-0.0621727114327145</v>
       </c>
       <c r="H87">
         <v>0.130280321573616</v>
       </c>
       <c r="I87">
-        <v>-0.0650923836543473</v>
+        <v>-0.0650923836543748</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -20560,16 +20560,16 @@
         <v>-0.000111496613377766</v>
       </c>
       <c r="F88">
-        <v>-0.0320340767432144</v>
+        <v>-0.0320340767431769</v>
       </c>
       <c r="G88">
-        <v>-0.0875891630353503</v>
+        <v>-0.0875891630353254</v>
       </c>
       <c r="H88">
-        <v>-0.170779924500142</v>
+        <v>-0.170779924500171</v>
       </c>
       <c r="I88">
-        <v>-0.0228126475202385</v>
+        <v>-0.0228126475202003</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -20618,16 +20618,16 @@
         <v>-0.000503262920385216</v>
       </c>
       <c r="F90">
-        <v>-0.00571891890292272</v>
+        <v>-0.00571891890294483</v>
       </c>
       <c r="G90">
         <v>-0.0507452581841068</v>
       </c>
       <c r="H90">
-        <v>0.0590886490663398</v>
+        <v>0.0590886490663708</v>
       </c>
       <c r="I90">
-        <v>-0.0597023386312411</v>
+        <v>-0.0597023386312523</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -20653,7 +20653,7 @@
         <v>-0.0325067989299921</v>
       </c>
       <c r="H91">
-        <v>0.15520781379643</v>
+        <v>0.155207813796542</v>
       </c>
       <c r="I91">
         <v>-0.0580085401035736</v>
@@ -20676,13 +20676,13 @@
         <v>-7.51650602096669e-06</v>
       </c>
       <c r="F92">
-        <v>-0.0823108530474876</v>
+        <v>-0.0823108530475076</v>
       </c>
       <c r="G92">
         <v>-0.0310463508274687</v>
       </c>
       <c r="H92">
-        <v>0.0986772467397664</v>
+        <v>0.0986772467397996</v>
       </c>
       <c r="I92">
         <v>-0.0896894416333086</v>
@@ -20705,16 +20705,16 @@
         <v>-0.001473697505838</v>
       </c>
       <c r="F93">
-        <v>-0.0164641106368195</v>
+        <v>-0.0164641106367812</v>
       </c>
       <c r="G93">
-        <v>-0.0530278142386274</v>
+        <v>-0.0530278142386082</v>
       </c>
       <c r="H93">
         <v>-0.0869460537690343</v>
       </c>
       <c r="I93">
-        <v>-0.0704190538662336</v>
+        <v>-0.0704190538662142</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -20734,16 +20734,16 @@
         <v>-0.00131764934660828</v>
       </c>
       <c r="F94">
-        <v>-0.0678558657614436</v>
+        <v>-0.067855865761462</v>
       </c>
       <c r="G94">
         <v>-0.0197278450415946</v>
       </c>
       <c r="H94">
-        <v>0.264482242955568</v>
+        <v>0.264482242955586</v>
       </c>
       <c r="I94">
-        <v>-0.0117749696191371</v>
+        <v>-0.0117749696191556</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -20763,16 +20763,16 @@
         <v>-0.00198187684687652</v>
       </c>
       <c r="F95">
-        <v>-0.0692618559790465</v>
+        <v>-0.0692618559790287</v>
       </c>
       <c r="G95">
-        <v>-0.0223808241579018</v>
+        <v>-0.0223808241578664</v>
       </c>
       <c r="H95">
-        <v>-0.102524116986426</v>
+        <v>-0.102524116986464</v>
       </c>
       <c r="I95">
-        <v>-0.00231627089792359</v>
+        <v>-0.00231627089788792</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -20798,7 +20798,7 @@
         <v>-0.0620698671814564</v>
       </c>
       <c r="H96">
-        <v>0.143520668490883</v>
+        <v>0.143520668490824</v>
       </c>
       <c r="I96">
         <v>-0.0402445635820844</v>
@@ -20821,16 +20821,16 @@
         <v>-0.00211811405737081</v>
       </c>
       <c r="F97">
-        <v>-0.0361088485894541</v>
+        <v>-0.0361088485894208</v>
       </c>
       <c r="G97">
-        <v>-0.0656443272661878</v>
+        <v>-0.0656443272661545</v>
       </c>
       <c r="H97">
-        <v>0.35574721724587</v>
+        <v>0.355747217245932</v>
       </c>
       <c r="I97">
-        <v>-0.0497857935634719</v>
+        <v>-0.0497857935634385</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -20850,16 +20850,16 @@
         <v>-0.00120251843298815</v>
       </c>
       <c r="F98">
-        <v>-0.0145335302268387</v>
+        <v>-0.0145335302268063</v>
       </c>
       <c r="G98">
-        <v>-0.0422231703381374</v>
+        <v>-0.0422231703381051</v>
       </c>
       <c r="H98">
-        <v>-0.256562966456614</v>
+        <v>-0.25656296645657</v>
       </c>
       <c r="I98">
-        <v>-0.0385353136604413</v>
+        <v>-0.0385353136604088</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -20882,13 +20882,13 @@
         <v>-0.046925586856815</v>
       </c>
       <c r="G99">
-        <v>-0.00143629924578511</v>
+        <v>-0.00143629924576934</v>
       </c>
       <c r="H99">
-        <v>-0.18200982552853</v>
+        <v>-0.182009825528496</v>
       </c>
       <c r="I99">
-        <v>-0.0149849095083701</v>
+        <v>-0.0149849095083543</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -20908,7 +20908,7 @@
         <v>-0.000167714017907347</v>
       </c>
       <c r="F100">
-        <v>-0.000569556748737496</v>
+        <v>-0.000569556748752938</v>
       </c>
       <c r="G100">
         <v>-0.023693516884025</v>
@@ -20937,16 +20937,16 @@
         <v>0.00236107199970622</v>
       </c>
       <c r="F101">
-        <v>-0.0295974362278536</v>
+        <v>-0.0295974362278233</v>
       </c>
       <c r="G101">
-        <v>-0.0497625967725422</v>
+        <v>-0.049762596772527</v>
       </c>
       <c r="H101">
-        <v>-0.172973959630483</v>
+        <v>-0.172973959630496</v>
       </c>
       <c r="I101">
-        <v>-0.0424178634394559</v>
+        <v>-0.0424178634394408</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -20972,7 +20972,7 @@
         <v>-0.0287548196102462</v>
       </c>
       <c r="H102">
-        <v>-0.080690442848021</v>
+        <v>-0.0806904428479654</v>
       </c>
       <c r="I102">
         <v>0.0150642989008418</v>
@@ -20995,16 +20995,16 @@
         <v>-0.00199115730545002</v>
       </c>
       <c r="F103">
-        <v>-0.0361876347530612</v>
+        <v>-0.0361876347530465</v>
       </c>
       <c r="G103">
-        <v>0.0174443411589779</v>
+        <v>0.0174443411589925</v>
       </c>
       <c r="H103">
-        <v>0.413207783950932</v>
+        <v>0.413207783950784</v>
       </c>
       <c r="I103">
-        <v>-0.0407370067774515</v>
+        <v>-0.0407370067774368</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -21030,7 +21030,7 @@
         <v>-0.000419606815401806</v>
       </c>
       <c r="H104">
-        <v>-0.359900898866005</v>
+        <v>-0.359900898865974</v>
       </c>
       <c r="I104">
         <v>-0.0337266636239912</v>
@@ -21059,7 +21059,7 @@
         <v>0.022273763819043</v>
       </c>
       <c r="H105">
-        <v>-0.528103599147572</v>
+        <v>-0.528103599147405</v>
       </c>
       <c r="I105">
         <v>0.00551632700370669</v>
@@ -21082,16 +21082,16 @@
         <v>-0.00166657177115165</v>
       </c>
       <c r="F106">
-        <v>-0.0165965493189441</v>
+        <v>-0.0165965493189154</v>
       </c>
       <c r="G106">
-        <v>-0.00940963049457822</v>
+        <v>-0.00940963049453537</v>
       </c>
       <c r="H106">
-        <v>0.0161398281469893</v>
+        <v>0.0161398281468878</v>
       </c>
       <c r="I106">
-        <v>-0.0200150799918558</v>
+        <v>-0.0200150799918272</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -21111,16 +21111,16 @@
         <v>-0.00207694313110063</v>
       </c>
       <c r="F107">
-        <v>-0.0156348168843061</v>
+        <v>-0.0156348168842632</v>
       </c>
       <c r="G107">
-        <v>0.00136120503464816</v>
+        <v>0.00136120503467667</v>
       </c>
       <c r="H107">
-        <v>0.127070086550705</v>
+        <v>0.127070086550738</v>
       </c>
       <c r="I107">
-        <v>-0.01610960053128</v>
+        <v>-0.0161096005312372</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -21140,16 +21140,16 @@
         <v>0.000335077350224902</v>
       </c>
       <c r="F108">
-        <v>-0.00809171735701579</v>
+        <v>-0.00809171735707299</v>
       </c>
       <c r="G108">
-        <v>0.0210748764741457</v>
+        <v>0.0210748764740886</v>
       </c>
       <c r="H108">
-        <v>-0.485965664105562</v>
+        <v>-0.485965664105669</v>
       </c>
       <c r="I108">
-        <v>-0.0200238383842175</v>
+        <v>-0.0200238383842748</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -21169,16 +21169,16 @@
         <v>0.00144393867276953</v>
       </c>
       <c r="F109">
-        <v>0.0371203656300291</v>
+        <v>0.0371203656300578</v>
       </c>
       <c r="G109">
-        <v>0.0167071640252779</v>
+        <v>0.0167071640253067</v>
       </c>
       <c r="H109">
-        <v>-0.531327743237579</v>
+        <v>-0.531327743237483</v>
       </c>
       <c r="I109">
-        <v>-0.00479852606414723</v>
+        <v>-0.00479852606411845</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -21198,16 +21198,16 @@
         <v>-0.00155404849047308</v>
       </c>
       <c r="F110">
-        <v>0.0236557819411458</v>
+        <v>0.0236557819411749</v>
       </c>
       <c r="G110">
-        <v>0.0215352838873732</v>
+        <v>0.0215352838874022</v>
       </c>
       <c r="H110">
-        <v>0.288081619221174</v>
+        <v>0.288081619221186</v>
       </c>
       <c r="I110">
-        <v>-0.00646997201648419</v>
+        <v>-0.00646997201645508</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -21227,16 +21227,16 @@
         <v>-0.000492314988372386</v>
       </c>
       <c r="F111">
-        <v>-0.0126603848305752</v>
+        <v>-0.0126603848305605</v>
       </c>
       <c r="G111">
-        <v>0.00802348385339801</v>
+        <v>0.00802348385341274</v>
       </c>
       <c r="H111">
-        <v>-0.426832076263376</v>
+        <v>-0.426832076263314</v>
       </c>
       <c r="I111">
-        <v>0.00759052590064669</v>
+        <v>0.00759052590066148</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -21256,16 +21256,16 @@
         <v>0.00150191608363958</v>
       </c>
       <c r="F112">
-        <v>0.0395398340729802</v>
+        <v>0.0395398340730255</v>
       </c>
       <c r="G112">
-        <v>0.0208094910816242</v>
+        <v>0.0208094910816844</v>
       </c>
       <c r="H112">
-        <v>-0.0548429403774125</v>
+        <v>-0.0548429403773767</v>
       </c>
       <c r="I112">
-        <v>0.0106783241410197</v>
+        <v>0.0106783241410802</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -21285,16 +21285,16 @@
         <v>-0.000145862149935883</v>
       </c>
       <c r="F113">
-        <v>0.0327532252894441</v>
+        <v>0.0327532252894751</v>
       </c>
       <c r="G113">
-        <v>0.0480281614220557</v>
+        <v>0.0480281614220866</v>
       </c>
       <c r="H113">
-        <v>0.00378590663045565</v>
+        <v>0.00378590663048701</v>
       </c>
       <c r="I113">
-        <v>0.0527395669747324</v>
+        <v>0.052739566974748</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -21314,16 +21314,16 @@
         <v>-0.000861971470042056</v>
       </c>
       <c r="F114">
-        <v>0.0300230119670159</v>
+        <v>0.0300230119669999</v>
       </c>
       <c r="G114">
-        <v>0.0164723821659229</v>
+        <v>0.016472382165907</v>
       </c>
       <c r="H114">
-        <v>-0.0270724164329733</v>
+        <v>-0.0270724164329455</v>
       </c>
       <c r="I114">
-        <v>0.0571042155639911</v>
+        <v>0.057104215563975</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -21343,16 +21343,16 @@
         <v>0.000881400829054034</v>
       </c>
       <c r="F115">
-        <v>0.0409480748692895</v>
+        <v>0.0409480748693228</v>
       </c>
       <c r="G115">
-        <v>0.00462962851111896</v>
+        <v>0.00462962851115217</v>
       </c>
       <c r="H115">
         <v>0.00689466454011005</v>
       </c>
       <c r="I115">
-        <v>0.0251662785632789</v>
+        <v>0.0251662785633125</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -21372,16 +21372,16 @@
         <v>-0.000233166229347265</v>
       </c>
       <c r="F116">
-        <v>0.0136417575029353</v>
+        <v>0.0136417575029877</v>
       </c>
       <c r="G116">
-        <v>0.0411575817667979</v>
+        <v>0.0411575817668675</v>
       </c>
       <c r="H116">
-        <v>-0.187009976182205</v>
+        <v>-0.187009976182239</v>
       </c>
       <c r="I116">
-        <v>0.0533971352055948</v>
+        <v>0.0533971352056657</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -21401,13 +21401,13 @@
         <v>3.31113165964252e-05</v>
       </c>
       <c r="F117">
-        <v>0.0681841400183398</v>
+        <v>0.0681841400183213</v>
       </c>
       <c r="G117">
         <v>0.0963057655403217</v>
       </c>
       <c r="H117">
-        <v>-0.0355768125659549</v>
+        <v>-0.0355768125659341</v>
       </c>
       <c r="I117">
         <v>0.0243232916534258</v>
@@ -21430,16 +21430,16 @@
         <v>-0.000259906670387187</v>
       </c>
       <c r="F118">
-        <v>0.10669607619026</v>
+        <v>0.10669607619028</v>
       </c>
       <c r="G118">
-        <v>0.0645590710546978</v>
+        <v>0.064559071054737</v>
       </c>
       <c r="H118">
         <v>-0.150231783818947</v>
       </c>
       <c r="I118">
-        <v>0.080513435832377</v>
+        <v>0.0805134358324175</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -21459,16 +21459,16 @@
         <v>-0.00030351641556366</v>
       </c>
       <c r="F119">
-        <v>0.1180738343583</v>
+        <v>0.118073834358321</v>
       </c>
       <c r="G119">
-        <v>0.114184135611192</v>
+        <v>0.114184135611213</v>
       </c>
       <c r="H119">
-        <v>0.0319158352396399</v>
+        <v>0.0319158352396216</v>
       </c>
       <c r="I119">
-        <v>0.13343787289048</v>
+        <v>0.133437872890502</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -21488,16 +21488,16 @@
         <v>0.000471150682087707</v>
       </c>
       <c r="F120">
-        <v>0.106122168920812</v>
+        <v>0.106122168920824</v>
       </c>
       <c r="G120">
-        <v>0.0794020406596725</v>
+        <v>0.0794020406597069</v>
       </c>
       <c r="H120">
         <v>0.0537381104583049</v>
       </c>
       <c r="I120">
-        <v>0.0810282948662587</v>
+        <v>0.081028294866295</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -21517,16 +21517,16 @@
         <v>-0.000640880377988078</v>
       </c>
       <c r="F121">
-        <v>0.096534635683487</v>
+        <v>0.0965346356836018</v>
       </c>
       <c r="G121">
-        <v>0.0986712559911305</v>
+        <v>0.0986712559912434</v>
       </c>
       <c r="H121">
-        <v>-0.118093497852487</v>
+        <v>-0.11809349785247</v>
       </c>
       <c r="I121">
-        <v>0.15966280900391</v>
+        <v>0.159662809004032</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -21546,16 +21546,16 @@
         <v>0.000601770608990854</v>
       </c>
       <c r="F122">
-        <v>0.151270413629553</v>
+        <v>0.15127041362961</v>
       </c>
       <c r="G122">
-        <v>0.156552488489657</v>
+        <v>0.156552488489726</v>
       </c>
       <c r="H122">
-        <v>0.103679740475185</v>
+        <v>0.103679740475201</v>
       </c>
       <c r="I122">
-        <v>0.20451753982994</v>
+        <v>0.204517539830017</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -21581,7 +21581,7 @@
         <v>0.147377741204183</v>
       </c>
       <c r="H123">
-        <v>-0.152119627327332</v>
+        <v>-0.152119627327316</v>
       </c>
       <c r="I123">
         <v>0.153531487118413</v>
@@ -21604,16 +21604,16 @@
         <v>0.000132195477415939</v>
       </c>
       <c r="F124">
-        <v>0.0881379014121999</v>
+        <v>0.0881379014123102</v>
       </c>
       <c r="G124">
-        <v>0.163835811847267</v>
+        <v>0.163835811847373</v>
       </c>
       <c r="H124">
-        <v>0.0296677726021961</v>
+        <v>0.0296677726021804</v>
       </c>
       <c r="I124">
-        <v>0.18970145560392</v>
+        <v>0.189701455604089</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -21633,16 +21633,16 @@
         <v>-0.000523177611083766</v>
       </c>
       <c r="F125">
-        <v>0.183806655872293</v>
+        <v>0.183806655872335</v>
       </c>
       <c r="G125">
-        <v>0.151939187550479</v>
+        <v>0.151939187550519</v>
       </c>
       <c r="H125">
         <v>-0.153806930369375</v>
       </c>
       <c r="I125">
-        <v>0.218227325518814</v>
+        <v>0.218227325518853</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -21662,16 +21662,16 @@
         <v>-0.000390654862002932</v>
       </c>
       <c r="F126">
-        <v>0.252894741770545</v>
+        <v>0.25289474177057</v>
       </c>
       <c r="G126">
-        <v>0.259090730603109</v>
+        <v>0.25909073060312</v>
       </c>
       <c r="H126">
         <v>-0.0811917195372227</v>
       </c>
       <c r="I126">
-        <v>0.435397362252803</v>
+        <v>0.435397362252834</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -21691,16 +21691,16 @@
         <v>0.00034192238052959</v>
       </c>
       <c r="F127">
-        <v>0.0371381088420353</v>
+        <v>0.0371381088419631</v>
       </c>
       <c r="G127">
         <v>0.029467162428594</v>
       </c>
       <c r="H127">
-        <v>0.00900442745308704</v>
+        <v>0.00900442745305568</v>
       </c>
       <c r="I127">
-        <v>0.357258672770994</v>
+        <v>0.357258672771052</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -21720,16 +21720,16 @@
         <v>-0.000192861443979808</v>
       </c>
       <c r="F128">
-        <v>-0.124445980557152</v>
+        <v>-0.124445980557168</v>
       </c>
       <c r="G128">
-        <v>0.172903953923236</v>
+        <v>0.172903953923211</v>
       </c>
       <c r="H128">
-        <v>-0.144274741227701</v>
+        <v>-0.144274741227717</v>
       </c>
       <c r="I128">
-        <v>0.22762564661706</v>
+        <v>0.227625646617018</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -21749,16 +21749,16 @@
         <v>-0.000544634040035071</v>
       </c>
       <c r="F129">
-        <v>-0.123648730105183</v>
+        <v>-0.123648730105138</v>
       </c>
       <c r="G129">
-        <v>0.0996474395525613</v>
+        <v>0.0996474395526486</v>
       </c>
       <c r="H129">
-        <v>0.025787602178806</v>
+        <v>0.0257876021788703</v>
       </c>
       <c r="I129">
-        <v>0.0274496876072706</v>
+        <v>0.0274496876073895</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -21778,16 +21778,16 @@
         <v>0.000127096798148244</v>
       </c>
       <c r="F130">
-        <v>-0.223120428941093</v>
+        <v>-0.223120428941001</v>
       </c>
       <c r="G130">
-        <v>-0.0612454749410069</v>
+        <v>-0.0612454749409018</v>
       </c>
       <c r="H130">
-        <v>-0.081397571391789</v>
+        <v>-0.0813975713918054</v>
       </c>
       <c r="I130">
-        <v>-0.291592289186212</v>
+        <v>-0.291592289185996</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -21807,16 +21807,16 @@
         <v>0.000416774219948342</v>
       </c>
       <c r="F131">
-        <v>-0.264704776098612</v>
+        <v>-0.264704776098567</v>
       </c>
       <c r="G131">
-        <v>-0.0566003998830739</v>
+        <v>-0.0566003998829681</v>
       </c>
       <c r="H131">
         <v>0.0785118082495307</v>
       </c>
       <c r="I131">
-        <v>-0.160969766799956</v>
+        <v>-0.160969766799806</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -21836,16 +21836,16 @@
         <v>0.000107785677684591</v>
       </c>
       <c r="F132">
-        <v>-0.119649367045161</v>
+        <v>-0.119649367045081</v>
       </c>
       <c r="G132">
-        <v>-0.167742578839665</v>
+        <v>-0.167742578839589</v>
       </c>
       <c r="H132">
-        <v>-0.14892697278495</v>
+        <v>-0.148926972784932</v>
       </c>
       <c r="I132">
-        <v>-0.204805892376404</v>
+        <v>-0.204805892376302</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -21865,13 +21865,13 @@
         <v>-0.000336321971749796</v>
       </c>
       <c r="F133">
-        <v>-0.254490318916401</v>
+        <v>-0.254490318916419</v>
       </c>
       <c r="G133">
         <v>-0.104955616238289</v>
       </c>
       <c r="H133">
-        <v>0.136329065563105</v>
+        <v>0.136329065563087</v>
       </c>
       <c r="I133">
         <v>-0.198763162469466</v>
@@ -21894,16 +21894,16 @@
         <v>-0.000461104895178632</v>
       </c>
       <c r="F134">
-        <v>-0.107669585251845</v>
+        <v>-0.107669585251861</v>
       </c>
       <c r="G134">
-        <v>-0.195539847896756</v>
+        <v>-0.195539847896772</v>
       </c>
       <c r="H134">
-        <v>-0.0493966909481812</v>
+        <v>-0.0493966909481424</v>
       </c>
       <c r="I134">
-        <v>-0.245662743546716</v>
+        <v>-0.245662743546733</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -21923,16 +21923,16 @@
         <v>0.00042176269903297</v>
       </c>
       <c r="F135">
-        <v>-0.156581567912258</v>
+        <v>-0.156581567912244</v>
       </c>
       <c r="G135">
-        <v>-0.137994132160333</v>
+        <v>-0.137994132160319</v>
       </c>
       <c r="H135">
-        <v>-0.0275464895432512</v>
+        <v>-0.0275464895432928</v>
       </c>
       <c r="I135">
-        <v>-0.235125751739853</v>
+        <v>-0.235125751739823</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -21952,7 +21952,7 @@
         <v>0.000569884759689286</v>
       </c>
       <c r="F136">
-        <v>-0.196669147562811</v>
+        <v>-0.196669147562825</v>
       </c>
       <c r="G136">
         <v>-0.104991031561639</v>
@@ -21961,7 +21961,7 @@
         <v>-0.0810257025651111</v>
       </c>
       <c r="I136">
-        <v>-0.142370447475164</v>
+        <v>-0.142370447475178</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -21987,7 +21987,7 @@
         <v>-0.160532093712993</v>
       </c>
       <c r="H137">
-        <v>-0.0900841543067968</v>
+        <v>-0.0900841543067594</v>
       </c>
       <c r="I137">
         <v>-0.129210589133009</v>
@@ -22010,16 +22010,16 @@
         <v>-3.94897160708005e-05</v>
       </c>
       <c r="F138">
-        <v>-0.164503188397451</v>
+        <v>-0.164503188397474</v>
       </c>
       <c r="G138">
-        <v>-0.104922248369087</v>
+        <v>-0.104922248369098</v>
       </c>
       <c r="H138">
-        <v>0.183338684474903</v>
+        <v>0.183338684474917</v>
       </c>
       <c r="I138">
-        <v>-0.173975637083384</v>
+        <v>-0.173975637083396</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -22039,16 +22039,16 @@
         <v>0.000131252763964664</v>
       </c>
       <c r="F139">
-        <v>-0.187047081247128</v>
+        <v>-0.18704708124715</v>
       </c>
       <c r="G139">
-        <v>-0.141342066079426</v>
+        <v>-0.14134206607947</v>
       </c>
       <c r="H139">
         <v>0.0264308326712151</v>
       </c>
       <c r="I139">
-        <v>-0.136030025585017</v>
+        <v>-0.136030025585051</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -22068,16 +22068,16 @@
         <v>-9.99108113616275e-05</v>
       </c>
       <c r="F140">
-        <v>-0.178556938369969</v>
+        <v>-0.178556938369948</v>
       </c>
       <c r="G140">
-        <v>-0.124417070570483</v>
+        <v>-0.124417070570462</v>
       </c>
       <c r="H140">
-        <v>-0.343407340960678</v>
+        <v>-0.343407340960735</v>
       </c>
       <c r="I140">
-        <v>-0.165487747178176</v>
+        <v>-0.165487747178154</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -22103,7 +22103,7 @@
         <v>-0.182716706282735</v>
       </c>
       <c r="H141">
-        <v>0.368927187574673</v>
+        <v>0.368927187574639</v>
       </c>
       <c r="I141">
         <v>-0.179959865851789</v>
@@ -22155,16 +22155,16 @@
         <v>-0.000957144043542743</v>
       </c>
       <c r="F143">
-        <v>-0.147288826587071</v>
+        <v>-0.147288826587111</v>
       </c>
       <c r="G143">
-        <v>-0.165325157318972</v>
+        <v>-0.165325157319012</v>
       </c>
       <c r="H143">
-        <v>-0.414373065291374</v>
+        <v>-0.414373065291464</v>
       </c>
       <c r="I143">
-        <v>-0.138572231006647</v>
+        <v>-0.138572231006686</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -22184,16 +22184,16 @@
         <v>-0.000601738276796773</v>
       </c>
       <c r="F144">
-        <v>-0.0943609172696166</v>
+        <v>-0.094360917269656</v>
       </c>
       <c r="G144">
-        <v>-0.145667569073566</v>
+        <v>-0.145667569073606</v>
       </c>
       <c r="H144">
-        <v>-0.441075526951958</v>
+        <v>-0.441075526952016</v>
       </c>
       <c r="I144">
-        <v>-0.113536869758307</v>
+        <v>-0.113536869758346</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -22216,13 +22216,13 @@
         <v>-0.139750517748656</v>
       </c>
       <c r="G145">
-        <v>-0.129046541516914</v>
+        <v>-0.129046541516894</v>
       </c>
       <c r="H145">
-        <v>0.56025523416427</v>
+        <v>0.560255234164558</v>
       </c>
       <c r="I145">
-        <v>-0.139782573658912</v>
+        <v>-0.139782573658892</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -22242,13 +22242,13 @@
         <v>-0.00153795416831211</v>
       </c>
       <c r="F146">
-        <v>-0.143515872311983</v>
+        <v>-0.143515872311963</v>
       </c>
       <c r="G146">
         <v>-0.154058296055052</v>
       </c>
       <c r="H146">
-        <v>0.209293164976501</v>
+        <v>0.209293164976372</v>
       </c>
       <c r="I146">
         <v>-0.156820541437414</v>
@@ -22271,13 +22271,13 @@
         <v>-0.000861946759914866</v>
       </c>
       <c r="F147">
-        <v>-0.136210455430668</v>
+        <v>-0.136210455430688</v>
       </c>
       <c r="G147">
         <v>-0.163905941910235</v>
       </c>
       <c r="H147">
-        <v>-0.309727566179998</v>
+        <v>-0.30972756618013</v>
       </c>
       <c r="I147">
         <v>-0.0970567381323284</v>
@@ -22300,13 +22300,13 @@
         <v>0.00374068163831917</v>
       </c>
       <c r="F148">
-        <v>-0.144671595759971</v>
+        <v>-0.144671595759951</v>
       </c>
       <c r="G148">
         <v>-0.0952501377402866</v>
       </c>
       <c r="H148">
-        <v>-0.00240111718252779</v>
+        <v>-0.00240111718231165</v>
       </c>
       <c r="I148">
         <v>-0.159062208221896</v>
@@ -22329,16 +22329,16 @@
         <v>0.00400117462125351</v>
       </c>
       <c r="F149">
-        <v>-0.102936366590803</v>
+        <v>-0.102936366590845</v>
       </c>
       <c r="G149">
-        <v>-0.156411486951687</v>
+        <v>-0.156411486951708</v>
       </c>
       <c r="H149">
-        <v>-0.113778347974832</v>
+        <v>-0.113778347974753</v>
       </c>
       <c r="I149">
-        <v>-0.182208246132431</v>
+        <v>-0.182208246132472</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -22358,16 +22358,16 @@
         <v>-0.00640491200296287</v>
       </c>
       <c r="F150">
-        <v>-0.130177347901599</v>
+        <v>-0.130177347901663</v>
       </c>
       <c r="G150">
-        <v>-0.0985598695935542</v>
+        <v>-0.0985598695936175</v>
       </c>
       <c r="H150">
-        <v>0.319116907479027</v>
+        <v>0.319116907478903</v>
       </c>
       <c r="I150">
-        <v>-0.18599050942471</v>
+        <v>-0.185990509424773</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -22387,16 +22387,16 @@
         <v>-0.000210251243145071</v>
       </c>
       <c r="F151">
-        <v>-0.164746071775641</v>
+        <v>-0.164746071775663</v>
       </c>
       <c r="G151">
-        <v>-0.139276715062529</v>
+        <v>-0.13927671506255</v>
       </c>
       <c r="H151">
-        <v>0.470285023968196</v>
+        <v>0.470285023968067</v>
       </c>
       <c r="I151">
-        <v>-0.195145772915193</v>
+        <v>-0.195145772915215</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -22416,16 +22416,16 @@
         <v>-0.0195682488902152</v>
       </c>
       <c r="F152">
-        <v>-0.1429579093234</v>
+        <v>-0.142957909323456</v>
       </c>
       <c r="G152">
-        <v>-0.122346319431513</v>
+        <v>-0.122346319431557</v>
       </c>
       <c r="H152">
-        <v>0.18483237363439</v>
+        <v>0.184832373634329</v>
       </c>
       <c r="I152">
-        <v>-0.141685650842267</v>
+        <v>-0.141685650842312</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -22445,16 +22445,16 @@
         <v>0.0213350058230636</v>
       </c>
       <c r="F153">
-        <v>-0.205911140306116</v>
+        <v>-0.205911140306173</v>
       </c>
       <c r="G153">
-        <v>-0.189119892002175</v>
+        <v>-0.189119892002256</v>
       </c>
       <c r="H153">
-        <v>-0.493247352012345</v>
+        <v>-0.493247352012433</v>
       </c>
       <c r="I153">
-        <v>-0.163870322453437</v>
+        <v>-0.163870322453506</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -22474,16 +22474,16 @@
         <v>-0.0218686176137478</v>
       </c>
       <c r="F154">
-        <v>-0.197864549656433</v>
+        <v>-0.197864549656398</v>
       </c>
       <c r="G154">
-        <v>-0.184107116510249</v>
+        <v>-0.184107116510225</v>
       </c>
       <c r="H154">
-        <v>-0.451016391428534</v>
+        <v>-0.451016391428548</v>
       </c>
       <c r="I154">
-        <v>-0.210581299294767</v>
+        <v>-0.210581299294743</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -22506,13 +22506,13 @@
         <v>-0.170129037834437</v>
       </c>
       <c r="G155">
-        <v>-0.158779257873601</v>
+        <v>-0.158779257873588</v>
       </c>
       <c r="H155">
-        <v>0.367596726359424</v>
+        <v>0.367596726359396</v>
       </c>
       <c r="I155">
-        <v>-0.118895292215702</v>
+        <v>-0.11889529221569</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -22532,16 +22532,16 @@
         <v>0.0148578887459906</v>
       </c>
       <c r="F156">
-        <v>-0.1889269211116</v>
+        <v>-0.188926921111651</v>
       </c>
       <c r="G156">
-        <v>-0.179486033805512</v>
+        <v>-0.179486033805564</v>
       </c>
       <c r="H156">
-        <v>0.109596776551518</v>
+        <v>0.109596776551601</v>
       </c>
       <c r="I156">
-        <v>-0.174596165055132</v>
+        <v>-0.174596165055184</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -22561,16 +22561,16 @@
         <v>0.00628832585543035</v>
       </c>
       <c r="F157">
-        <v>-0.21783973883006</v>
+        <v>-0.217839738830086</v>
       </c>
       <c r="G157">
-        <v>-0.209919429385154</v>
+        <v>-0.209919429385181</v>
       </c>
       <c r="H157">
-        <v>-0.0706451055819542</v>
+        <v>-0.0706451055820505</v>
       </c>
       <c r="I157">
-        <v>-0.232465061480028</v>
+        <v>-0.232465061480056</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -22590,16 +22590,16 @@
         <v>-0.0047942406413413</v>
       </c>
       <c r="F158">
-        <v>-0.221213551562833</v>
+        <v>-0.221213551562819</v>
       </c>
       <c r="G158">
-        <v>-0.214510199957618</v>
+        <v>-0.214510199957604</v>
       </c>
       <c r="H158">
-        <v>-0.0330031087326665</v>
+        <v>-0.0330031087327498</v>
       </c>
       <c r="I158">
-        <v>-0.129404853207696</v>
+        <v>-0.129404853207682</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -22619,16 +22619,16 @@
         <v>2.59863883842159e-06</v>
       </c>
       <c r="F159">
-        <v>-0.16380042262402</v>
+        <v>-0.163800422624049</v>
       </c>
       <c r="G159">
-        <v>-0.158075687564168</v>
+        <v>-0.158075687564197</v>
       </c>
       <c r="H159">
-        <v>0.367498133818371</v>
+        <v>0.367498133818399</v>
       </c>
       <c r="I159">
-        <v>-0.21047888348207</v>
+        <v>-0.2104788834821</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -22651,13 +22651,13 @@
         <v>-0.147838251771155</v>
       </c>
       <c r="G160">
-        <v>-0.142897576140441</v>
+        <v>-0.142897576140426</v>
       </c>
       <c r="H160">
-        <v>0.245373010791102</v>
+        <v>0.245373010791016</v>
       </c>
       <c r="I160">
-        <v>-0.198106064446364</v>
+        <v>-0.198106064446349</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -22677,16 +22677,16 @@
         <v>0.005585579070042</v>
       </c>
       <c r="F161">
-        <v>-0.157009952960315</v>
+        <v>-0.157009952960379</v>
       </c>
       <c r="G161">
-        <v>-0.152699914478276</v>
+        <v>-0.152699914478324</v>
       </c>
       <c r="H161">
-        <v>-0.318155725841548</v>
+        <v>-0.318155725841533</v>
       </c>
       <c r="I161">
-        <v>-0.202960524034234</v>
+        <v>-0.202960524034282</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -22706,16 +22706,16 @@
         <v>-0.00480069342185005</v>
       </c>
       <c r="F162">
-        <v>-0.177042660811013</v>
+        <v>-0.17704266081103</v>
       </c>
       <c r="G162">
-        <v>-0.173241700350885</v>
+        <v>-0.173241700350902</v>
       </c>
       <c r="H162">
-        <v>-0.158392787525101</v>
+        <v>-0.158392787524948</v>
       </c>
       <c r="I162">
-        <v>-0.210914785166209</v>
+        <v>-0.210914785166226</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -22735,16 +22735,16 @@
         <v>-0.00312958332402633</v>
       </c>
       <c r="F163">
-        <v>-0.195604955845556</v>
+        <v>-0.195604955845521</v>
       </c>
       <c r="G163">
-        <v>-0.192216296976941</v>
+        <v>-0.192216296976906</v>
       </c>
       <c r="H163">
-        <v>-0.247246674523573</v>
+        <v>-0.247246674523621</v>
       </c>
       <c r="I163">
-        <v>-0.20982844696731</v>
+        <v>-0.209828446967275</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -22793,16 +22793,16 @@
         <v>0.00384551004636822</v>
       </c>
       <c r="F165">
-        <v>-0.188320786370793</v>
+        <v>-0.188320786370754</v>
       </c>
       <c r="G165">
-        <v>-0.185539643993552</v>
+        <v>-0.185539643993514</v>
       </c>
       <c r="H165">
-        <v>0.283644755013437</v>
+        <v>0.283644755013506</v>
       </c>
       <c r="I165">
-        <v>-0.141459085547613</v>
+        <v>-0.141459085547574</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -22822,16 +22822,16 @@
         <v>0.00425891683655719</v>
       </c>
       <c r="F166">
-        <v>-0.147045714441799</v>
+        <v>-0.14704571444184</v>
       </c>
       <c r="G166">
-        <v>-0.144486919490233</v>
+        <v>-0.144486919490253</v>
       </c>
       <c r="H166">
-        <v>-0.177877221784875</v>
+        <v>-0.177877221784822</v>
       </c>
       <c r="I166">
-        <v>-0.242520473099114</v>
+        <v>-0.242520473099154</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -22851,16 +22851,16 @@
         <v>-0.00529224948931796</v>
       </c>
       <c r="F167">
-        <v>-0.263685647609747</v>
+        <v>-0.263685647609811</v>
       </c>
       <c r="G167">
-        <v>-0.261303847186205</v>
+        <v>-0.261303847186269</v>
       </c>
       <c r="H167">
-        <v>-0.686520602884398</v>
+        <v>-0.686520602884435</v>
       </c>
       <c r="I167">
-        <v>-0.322548589971463</v>
+        <v>-0.322548589971527</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -22880,16 +22880,16 @@
         <v>0.00163409835526178</v>
       </c>
       <c r="F168">
-        <v>-0.163871658679895</v>
+        <v>-0.163871658679939</v>
       </c>
       <c r="G168">
-        <v>-0.161638122334927</v>
+        <v>-0.161638122334971</v>
       </c>
       <c r="H168">
-        <v>0.203670105206582</v>
+        <v>0.203670105206621</v>
       </c>
       <c r="I168">
-        <v>-0.17846506945055</v>
+        <v>-0.178465069450606</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -22909,16 +22909,16 @@
         <v>-0.00361908185209262</v>
       </c>
       <c r="F169">
-        <v>-0.237043722865505</v>
+        <v>-0.237043722865587</v>
       </c>
       <c r="G169">
-        <v>-0.234926665927865</v>
+        <v>-0.234926665927958</v>
       </c>
       <c r="H169">
-        <v>-0.211253506877786</v>
+        <v>-0.211253506877602</v>
       </c>
       <c r="I169">
-        <v>-0.20397615622103</v>
+        <v>-0.203976156221124</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -22938,13 +22938,13 @@
         <v>0.00112009479479618</v>
       </c>
       <c r="F170">
-        <v>-0.295017296348276</v>
+        <v>-0.295017296348264</v>
       </c>
       <c r="G170">
         <v>-0.29299414906634</v>
       </c>
       <c r="H170">
-        <v>-0.55017825003258</v>
+        <v>-0.550178250032558</v>
       </c>
       <c r="I170">
         <v>-0.20925684130303</v>
@@ -22967,16 +22967,16 @@
         <v>-0.00346250597872283</v>
       </c>
       <c r="F171">
-        <v>-0.34188355905377</v>
+        <v>-0.341883559053809</v>
       </c>
       <c r="G171">
-        <v>-0.339935520175229</v>
+        <v>-0.339935520175268</v>
       </c>
       <c r="H171">
-        <v>-0.774482017643118</v>
+        <v>-0.774482017642993</v>
       </c>
       <c r="I171">
-        <v>-0.198691890020654</v>
+        <v>-0.198691890020693</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -22996,16 +22996,16 @@
         <v>0.00360962379237849</v>
       </c>
       <c r="F172">
-        <v>-0.383821721590971</v>
+        <v>-0.383821721591012</v>
       </c>
       <c r="G172">
-        <v>-0.381933020958737</v>
+        <v>-0.381933020958764</v>
       </c>
       <c r="H172">
-        <v>-0.845099952479689</v>
+        <v>-0.845099952479796</v>
       </c>
       <c r="I172">
-        <v>-0.17875165733564</v>
+        <v>-0.178751657335667</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -23025,16 +23025,16 @@
         <v>0.00316094944058598</v>
       </c>
       <c r="F173">
-        <v>-0.176201864945033</v>
+        <v>-0.176201864945047</v>
       </c>
       <c r="G173">
         <v>-0.174363813084091</v>
       </c>
       <c r="H173">
-        <v>-0.722155552532902</v>
+        <v>-0.722155552532927</v>
       </c>
       <c r="I173">
-        <v>-0.158064163154104</v>
+        <v>-0.158064163154118</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -23057,13 +23057,13 @@
         <v>-0.223373858652884</v>
       </c>
       <c r="G174">
-        <v>-0.221570570746704</v>
+        <v>-0.221570570746719</v>
       </c>
       <c r="H174">
-        <v>-0.364651222810342</v>
+        <v>-0.364651222810236</v>
       </c>
       <c r="I174">
-        <v>-0.41526756689168</v>
+        <v>-0.415267566891695</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -23083,16 +23083,16 @@
         <v>-0.00482313616693929</v>
       </c>
       <c r="F175">
-        <v>-0.29692474071584</v>
+        <v>-0.296924740715887</v>
       </c>
       <c r="G175">
-        <v>-0.295146434420067</v>
+        <v>-0.295146434420114</v>
       </c>
       <c r="H175">
-        <v>0.269795439169913</v>
+        <v>0.269795439170065</v>
       </c>
       <c r="I175">
-        <v>-0.160223777906786</v>
+        <v>-0.160223777906849</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -23115,10 +23115,10 @@
         <v>-0.412161822312812</v>
       </c>
       <c r="G176">
-        <v>-0.410399947925578</v>
+        <v>-0.410399947925561</v>
       </c>
       <c r="H176">
-        <v>-0.87641205352326</v>
+        <v>-0.876412053523172</v>
       </c>
       <c r="I176">
         <v>-0.211847399363671</v>
@@ -23141,16 +23141,16 @@
         <v>-0.000466305688598305</v>
       </c>
       <c r="F177">
-        <v>-0.282089190019431</v>
+        <v>-0.282089190019448</v>
       </c>
       <c r="G177">
-        <v>-0.280341462643568</v>
+        <v>-0.280341462643602</v>
       </c>
       <c r="H177">
-        <v>0.332477117879974</v>
+        <v>0.332477117880158</v>
       </c>
       <c r="I177">
-        <v>-0.320457702832058</v>
+        <v>-0.320457702832093</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -23170,16 +23170,16 @@
         <v>-0.00141366537887218</v>
       </c>
       <c r="F178">
-        <v>-0.203309821936515</v>
+        <v>-0.203309821936551</v>
       </c>
       <c r="G178">
-        <v>-0.201569813013546</v>
+        <v>-0.201569813013581</v>
       </c>
       <c r="H178">
-        <v>-0.385084017305886</v>
+        <v>-0.385084017305691</v>
       </c>
       <c r="I178">
-        <v>-0.184607709599591</v>
+        <v>-0.184607709599627</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -23205,7 +23205,7 @@
         <v>-0.195514010026625</v>
       </c>
       <c r="H179">
-        <v>-0.897579659460968</v>
+        <v>-0.897579659461054</v>
       </c>
       <c r="I179">
         <v>-0.456989940980542</v>
@@ -23228,16 +23228,16 @@
         <v>-0.00507821769419441</v>
       </c>
       <c r="F180">
-        <v>-0.288101722765132</v>
+        <v>-0.28810172276519</v>
       </c>
       <c r="G180">
-        <v>-0.286359935663757</v>
+        <v>-0.286359935663815</v>
       </c>
       <c r="H180">
-        <v>-1.17368106158515</v>
+        <v>-1.17368106158523</v>
       </c>
       <c r="I180">
-        <v>-0.503400640703792</v>
+        <v>-0.503400640703851</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -23257,16 +23257,16 @@
         <v>-0.00292225422992442</v>
       </c>
       <c r="F181">
-        <v>-0.502904046922092</v>
+        <v>-0.502904046922052</v>
       </c>
       <c r="G181">
-        <v>-0.501153330145643</v>
+        <v>-0.501153330145622</v>
       </c>
       <c r="H181">
         <v>-1.18055765839769</v>
       </c>
       <c r="I181">
-        <v>-0.304541664834958</v>
+        <v>-0.304541664834937</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -23286,16 +23286,16 @@
         <v>0.0063178788913746</v>
       </c>
       <c r="F182">
-        <v>-0.489579926514231</v>
+        <v>-0.489579926514338</v>
       </c>
       <c r="G182">
-        <v>-0.487821700457501</v>
+        <v>-0.48782170045765</v>
       </c>
       <c r="H182">
-        <v>-0.883787177926884</v>
+        <v>-0.883787177927126</v>
       </c>
       <c r="I182">
-        <v>-0.226035958431645</v>
+        <v>-0.226035958431774</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -23315,16 +23315,16 @@
         <v>-0.0064447993823904</v>
       </c>
       <c r="F183">
-        <v>-0.229517834797711</v>
+        <v>-0.229517834797755</v>
       </c>
       <c r="G183">
-        <v>-0.227754417075134</v>
+        <v>-0.227754417075178</v>
       </c>
       <c r="H183">
         <v>-0.247271509832368</v>
       </c>
       <c r="I183">
-        <v>-0.299425018405803</v>
+        <v>-0.299425018405859</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -23344,16 +23344,16 @@
         <v>-0.00521234362733674</v>
       </c>
       <c r="F184">
-        <v>-0.537917978073003</v>
+        <v>-0.537917978073131</v>
       </c>
       <c r="G184">
-        <v>-0.536137788840364</v>
+        <v>-0.536137788840504</v>
       </c>
       <c r="H184">
-        <v>0.766842708208107</v>
+        <v>0.766842708207931</v>
       </c>
       <c r="I184">
-        <v>-0.559380779106471</v>
+        <v>-0.5593807791066</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -23373,16 +23373,16 @@
         <v>0.0052292852837862</v>
       </c>
       <c r="F185">
-        <v>-0.199034258680029</v>
+        <v>-0.199034258680053</v>
       </c>
       <c r="G185">
-        <v>-0.19724759031094</v>
+        <v>-0.197247590310964</v>
       </c>
       <c r="H185">
-        <v>-1.17423488057862</v>
+        <v>-1.17423488057833</v>
       </c>
       <c r="I185">
-        <v>-0.165172907393141</v>
+        <v>-0.165172907393178</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -23402,16 +23402,16 @@
         <v>0.00416149388799172</v>
       </c>
       <c r="F186">
-        <v>-0.5034470794072</v>
+        <v>-0.503447079407213</v>
       </c>
       <c r="G186">
-        <v>-0.501641638777345</v>
+        <v>-0.50164163877737</v>
       </c>
       <c r="H186">
-        <v>0.536228890440647</v>
+        <v>0.536228890440451</v>
       </c>
       <c r="I186">
-        <v>-0.418393961293302</v>
+        <v>-0.418393961293315</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -23431,16 +23431,16 @@
         <v>-0.0027308881129135</v>
       </c>
       <c r="F187">
-        <v>-0.601938888792463</v>
+        <v>-0.60193888879249</v>
       </c>
       <c r="G187">
-        <v>-0.600117801438669</v>
+        <v>-0.600117801438696</v>
       </c>
       <c r="H187">
-        <v>-1.00030068944123</v>
+        <v>-1.00030068944101</v>
       </c>
       <c r="I187">
-        <v>-0.462656102950595</v>
+        <v>-0.462656102950622</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -23460,16 +23460,16 @@
         <v>0.00456372840870042</v>
       </c>
       <c r="F188">
-        <v>-0.479227328073247</v>
+        <v>-0.479227328073302</v>
       </c>
       <c r="G188">
-        <v>-0.477394351927729</v>
+        <v>-0.477394351927785</v>
       </c>
       <c r="H188">
-        <v>1.54557553778383</v>
+        <v>1.54557553778349</v>
       </c>
       <c r="I188">
-        <v>-0.282667473343052</v>
+        <v>-0.282667473343094</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -23489,16 +23489,16 @@
         <v>0.0012768900582835</v>
       </c>
       <c r="F189">
-        <v>-0.635704152842274</v>
+        <v>-0.635704152842361</v>
       </c>
       <c r="G189">
-        <v>-0.633854177466687</v>
+        <v>-0.633854177466759</v>
       </c>
       <c r="H189">
-        <v>0.523875680624617</v>
+        <v>0.523875680624374</v>
       </c>
       <c r="I189">
-        <v>-0.382847475758733</v>
+        <v>-0.382847475758806</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -23518,16 +23518,16 @@
         <v>0.00624923228911662</v>
       </c>
       <c r="F190">
-        <v>-0.582782457927713</v>
+        <v>-0.582782457927803</v>
       </c>
       <c r="G190">
-        <v>-0.580919513349086</v>
+        <v>-0.580919513349191</v>
       </c>
       <c r="H190">
-        <v>-0.303649890077297</v>
+        <v>-0.303649890077449</v>
       </c>
       <c r="I190">
-        <v>-0.270741137466704</v>
+        <v>-0.270741137466794</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -23547,16 +23547,16 @@
         <v>0.00759217154196898</v>
       </c>
       <c r="F191">
-        <v>-0.306049005121447</v>
+        <v>-0.306049005121494</v>
       </c>
       <c r="G191">
-        <v>-0.304177658138152</v>
+        <v>-0.304177658138199</v>
       </c>
       <c r="H191">
-        <v>-0.914967990752808</v>
+        <v>-0.914967990752727</v>
       </c>
       <c r="I191">
-        <v>-0.496509872730643</v>
+        <v>-0.49650987273069</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -23576,16 +23576,16 @@
         <v>0.00791912685075006</v>
       </c>
       <c r="F192">
-        <v>-0.374297005691576</v>
+        <v>-0.374297005691625</v>
       </c>
       <c r="G192">
-        <v>-0.372411381957998</v>
+        <v>-0.37241138195803</v>
       </c>
       <c r="H192">
-        <v>-1.28697907356773</v>
+        <v>-1.28697907356827</v>
       </c>
       <c r="I192">
-        <v>-0.527359575535679</v>
+        <v>-0.527359575535712</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -23605,16 +23605,16 @@
         <v>-0.00692889005943814</v>
       </c>
       <c r="F193">
-        <v>-0.236657339807537</v>
+        <v>-0.236657339807638</v>
       </c>
       <c r="G193">
-        <v>-0.234761985158753</v>
+        <v>-0.234761985158855</v>
       </c>
       <c r="H193">
-        <v>-1.39548617436999</v>
+        <v>-1.39548617436968</v>
       </c>
       <c r="I193">
-        <v>-0.350294053338007</v>
+        <v>-0.350294053338126</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -23634,16 +23634,16 @@
         <v>-0.00241727604515287</v>
       </c>
       <c r="F194">
-        <v>-0.511966556891486</v>
+        <v>-0.511966556891557</v>
       </c>
       <c r="G194">
-        <v>-0.510054434205428</v>
+        <v>-0.510054434205481</v>
       </c>
       <c r="H194">
-        <v>-1.21516439859929</v>
+        <v>-1.21516439859918</v>
       </c>
       <c r="I194">
-        <v>-0.588632715863706</v>
+        <v>-0.588632715863777</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -23663,16 +23663,16 @@
         <v>0.00705950692119249</v>
       </c>
       <c r="F195">
-        <v>-0.605237763924897</v>
+        <v>-0.605237763924915</v>
       </c>
       <c r="G195">
-        <v>-0.603313182685934</v>
+        <v>-0.603313182685953</v>
       </c>
       <c r="H195">
-        <v>-0.719530875224347</v>
+        <v>-0.719530875224288</v>
       </c>
       <c r="I195">
-        <v>-0.643076274141691</v>
+        <v>-0.64307627414171</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -23692,16 +23692,16 @@
         <v>0.00549172375707124</v>
       </c>
       <c r="F196">
-        <v>-0.504779527765551</v>
+        <v>-0.504779527765608</v>
       </c>
       <c r="G196">
-        <v>-0.502847166763913</v>
+        <v>-0.502847166763951</v>
       </c>
       <c r="H196">
-        <v>0.119084879627034</v>
+        <v>0.119084879627014</v>
       </c>
       <c r="I196">
-        <v>-0.501928382514504</v>
+        <v>-0.501928382514542</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -23721,16 +23721,16 @@
         <v>-0.00695701050639503</v>
       </c>
       <c r="F197">
-        <v>-0.198623878267237</v>
+        <v>-0.198623878267297</v>
       </c>
       <c r="G197">
-        <v>-0.196688770140641</v>
+        <v>-0.1966887701407</v>
       </c>
       <c r="H197">
         <v>1.32957023811359</v>
       </c>
       <c r="I197">
-        <v>-0.153215861223462</v>
+        <v>-0.153215861223521</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -23753,13 +23753,13 @@
         <v>-0.412855705850677</v>
       </c>
       <c r="G198">
-        <v>-0.410908905889111</v>
+        <v>-0.410908905889131</v>
       </c>
       <c r="H198">
-        <v>2.94205841609785</v>
+        <v>2.94205841609782</v>
       </c>
       <c r="I198">
-        <v>-0.327857607730211</v>
+        <v>-0.327857607730232</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -23779,16 +23779,16 @@
         <v>0.0092614764975186</v>
       </c>
       <c r="F199">
-        <v>-0.453606142918766</v>
+        <v>-0.45360614291883</v>
       </c>
       <c r="G199">
-        <v>-0.451652138303233</v>
+        <v>-0.451652138303339</v>
       </c>
       <c r="H199">
-        <v>-1.79861734687239</v>
+        <v>-1.79861734687269</v>
       </c>
       <c r="I199">
-        <v>-0.327314834332345</v>
+        <v>-0.327314834332431</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -23808,16 +23808,16 @@
         <v>0.00218587254402745</v>
       </c>
       <c r="F200">
-        <v>-0.310481063974209</v>
+        <v>-0.310481063974254</v>
       </c>
       <c r="G200">
-        <v>-0.308524613580087</v>
+        <v>-0.308524613580132</v>
       </c>
       <c r="H200">
         <v>0.384590695634275</v>
       </c>
       <c r="I200">
-        <v>-0.141186673107167</v>
+        <v>-0.141186673107201</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -23837,16 +23837,16 @@
         <v>0.00346788276155278</v>
       </c>
       <c r="F201">
-        <v>-0.799076823987143</v>
+        <v>-0.799076823987201</v>
       </c>
       <c r="G201">
-        <v>-0.797106794996404</v>
+        <v>-0.797106794996462</v>
       </c>
       <c r="H201">
-        <v>3.05483997229352</v>
+        <v>3.0548399722933</v>
       </c>
       <c r="I201">
-        <v>-0.590164268898646</v>
+        <v>-0.590164268898704</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -23866,16 +23866,16 @@
         <v>-0.00636431748590344</v>
       </c>
       <c r="F202">
-        <v>-0.287024430975999</v>
+        <v>-0.287024430976106</v>
       </c>
       <c r="G202">
-        <v>-0.285061597375804</v>
+        <v>-0.285061597375935</v>
       </c>
       <c r="H202">
-        <v>-1.56556482868391</v>
+        <v>-1.56556482868327</v>
       </c>
       <c r="I202">
-        <v>-0.894097687446278</v>
+        <v>-0.894097687446411</v>
       </c>
     </row>
   </sheetData>
